--- a/Document/개발 프로그램 리스트.xlsx
+++ b/Document/개발 프로그램 리스트.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F7DC3B8A14CC3CB84614172CAB483BF9DCF73E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42C77AD2-08D0-4991-8CF3-19D820EBEDB2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12288" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발진행 Summary" sheetId="4" r:id="rId1"/>
@@ -13,20 +14,12 @@
   <definedNames>
     <definedName name="z">개발리스트!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>단위테스트
 완료일</t>
@@ -242,15 +235,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>업로드된 데이터를 이용하여 '입고처리'버튼 클릭 시 SAP에 GR 자동 생성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동 생성된 GR의 정보에 대한 완료아이콘 변경 및 왼쪽 화면(전체 PR)에도 반영</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -321,12 +306,28 @@
     <t>자동 생성된 세일즈오더의 정보 중 주문된 자재의 자재코드와 수량을 세일즈오더 생성일을 기준으로 별도의 CBO테이블에 데이터 누적</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>RIGHT ALV : 엑셀로부터 업로드된 데이터를 이용하여 '입고처리'버튼 클릭 시 SAP에 GR 자동 생성 및 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIGHT ALV : 'PO추가'버튼 클릭 시 누락 된 구매오더 추가 가능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT ALV : 아직 입고처리가 되지 않은 모든 PR 조회화면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,7 +810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -909,6 +910,20 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,11 +945,13 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="4" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -944,19 +961,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1018,31 +1042,25 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="4" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2"/>
-    <cellStyle name="표준 6 2" xfId="3"/>
-    <cellStyle name="표준_Sheet1" xfId="1"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 6 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="표준_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1100,7 +1118,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1133,9 +1151,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1168,6 +1203,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1343,14 +1395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18.19921875" customWidth="1"/>
     <col min="3" max="3" width="14.69921875" customWidth="1"/>
@@ -1364,31 +1416,31 @@
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18" thickBot="1"/>
-    <row r="2" spans="2:11" ht="37.5" customHeight="1">
-      <c r="B2" s="38" t="s">
+    <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="38" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="35.25" customHeight="1">
-      <c r="B3" s="39"/>
+    <row r="3" spans="2:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="43"/>
       <c r="C3" s="22" t="s">
         <v>30</v>
       </c>
@@ -1413,9 +1465,9 @@
       <c r="J3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="37"/>
+      <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="2:11" s="18" customFormat="1" ht="33.75" customHeight="1">
+    <row r="4" spans="2:11" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="26" t="s">
         <v>34</v>
       </c>
@@ -1424,11 +1476,11 @@
         <v>1</v>
       </c>
       <c r="D4" s="26">
-        <f>COUNTIF(개발리스트!E3:E72,'개발진행 Summary'!D3)</f>
+        <f>COUNTIF(개발리스트!E3:E73,'개발진행 Summary'!D3)</f>
         <v>0</v>
       </c>
       <c r="E4" s="26">
-        <f>COUNTIF(개발리스트!E3:E72,'개발진행 Summary'!E3)</f>
+        <f>COUNTIF(개발리스트!E3:E73,'개발진행 Summary'!E3)</f>
         <v>1</v>
       </c>
       <c r="F4" s="26">
@@ -1436,11 +1488,11 @@
         <v>0</v>
       </c>
       <c r="G4" s="26">
-        <f>개발리스트!S49</f>
+        <f>개발리스트!S50</f>
         <v>0</v>
       </c>
       <c r="H4" s="26">
-        <f>개발리스트!T49</f>
+        <f>개발리스트!T50</f>
         <v>0</v>
       </c>
       <c r="I4" s="27" t="e">
@@ -1471,17 +1523,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FZP49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:FZP50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.59765625" style="10" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
@@ -1497,59 +1549,59 @@
     <col min="17" max="17" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4748" s="9" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:4748" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65" t="s">
+      <c r="L1" s="71"/>
+      <c r="M1" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="55" t="s">
+      <c r="N1" s="72"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="51"/>
+      <c r="T1" s="58"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
       <c r="W1" s="8"/>
@@ -4907,17 +4959,17 @@
       <c r="DYU1" s="8"/>
       <c r="DYV1" s="7"/>
     </row>
-    <row r="2" spans="1:4748" s="9" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+    <row r="2" spans="1:4748" s="9" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="62"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
       <c r="K2" s="20" t="s">
         <v>9</v>
       </c>
@@ -4933,9 +4985,9 @@
       <c r="O2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="53"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="60"/>
       <c r="S2" s="29" t="s">
         <v>27</v>
       </c>
@@ -8299,16 +8351,16 @@
       <c r="DYU2" s="8"/>
       <c r="DYV2" s="7"/>
     </row>
-    <row r="3" spans="1:4748" s="5" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="1:4748" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="78"/>
+      <c r="B3" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="78" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="30"/>
@@ -8316,10 +8368,10 @@
         <v>17</v>
       </c>
       <c r="H3" s="30"/>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="78" t="s">
         <v>41</v>
       </c>
       <c r="K3" s="32">
@@ -8339,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="23">
-        <f t="shared" ref="T3:T8" si="1">IF(AND(E3="ABAP",P3="개발완료"),1,0)</f>
+        <f t="shared" ref="T3:T9" si="1">IF(AND(E3="ABAP",P3="개발완료"),1,0)</f>
         <v>0</v>
       </c>
       <c r="U3" s="1"/>
@@ -12839,21 +12891,21 @@
       <c r="FZO3"/>
       <c r="FZP3"/>
     </row>
-    <row r="4" spans="1:4748" s="5" customFormat="1" ht="19.2" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+    <row r="4" spans="1:4748" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="30"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
       <c r="K4" s="32">
         <v>44401</v>
       </c>
@@ -17371,12 +17423,12 @@
       <c r="FZO4"/>
       <c r="FZP4"/>
     </row>
-    <row r="5" spans="1:4748" s="5" customFormat="1" ht="33" customHeight="1">
+    <row r="5" spans="1:4748" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
       <c r="B5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="12" t="s">
         <v>43</v>
       </c>
@@ -17395,7 +17447,9 @@
       <c r="K5" s="15">
         <v>44401</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="15">
+        <v>44408</v>
+      </c>
       <c r="M5" s="19"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
@@ -21901,31 +21955,33 @@
       <c r="FZO5"/>
       <c r="FZP5"/>
     </row>
-    <row r="6" spans="1:4748" s="5" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="47" t="s">
+    <row r="6" spans="1:4748" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="56"/>
+      <c r="B6" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="47"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="12" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="49" t="s">
         <v>46</v>
       </c>
       <c r="K6" s="15">
         <v>44401</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="15">
+        <v>44408</v>
+      </c>
       <c r="M6" s="19"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
@@ -26431,25 +26487,27 @@
       <c r="FZO6"/>
       <c r="FZP6"/>
     </row>
-    <row r="7" spans="1:4748" s="5" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="72" t="s">
-        <v>51</v>
+    <row r="7" spans="1:4748" s="5" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="80"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="46"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="15">
         <v>44401</v>
       </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="15">
+        <v>44408</v>
+      </c>
       <c r="M7" s="19"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
@@ -30955,26 +31013,24 @@
       <c r="FZO7"/>
       <c r="FZP7"/>
     </row>
-    <row r="8" spans="1:4748" ht="30" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="12" t="s">
-        <v>54</v>
+    <row r="8" spans="1:4748" s="5" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="57"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="81" t="s">
+        <v>69</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="13" t="s">
-        <v>55</v>
+      <c r="H8" s="14"/>
+      <c r="I8" s="38" t="s">
+        <v>41</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>56</v>
+      <c r="J8" s="36" t="s">
+        <v>46</v>
       </c>
       <c r="K8" s="15">
         <v>44401</v>
@@ -30982,44 +31038,4521 @@
       <c r="L8" s="15">
         <v>44408</v>
       </c>
-      <c r="M8" s="19">
-        <v>44409</v>
-      </c>
+      <c r="M8" s="19"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="2"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="2"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="2"/>
+      <c r="BT8" s="1"/>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="2"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="2"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="2"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="2"/>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1"/>
+      <c r="CK8" s="2"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="1"/>
+      <c r="CN8" s="2"/>
+      <c r="CO8" s="1"/>
+      <c r="CP8" s="1"/>
+      <c r="CQ8" s="2"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="2"/>
+      <c r="CU8" s="1"/>
+      <c r="CV8" s="1"/>
+      <c r="CW8" s="2"/>
+      <c r="CX8" s="1"/>
+      <c r="CY8" s="1"/>
+      <c r="CZ8" s="2"/>
+      <c r="DA8" s="1"/>
+      <c r="DB8" s="1"/>
+      <c r="DC8" s="2"/>
+      <c r="DD8" s="1"/>
+      <c r="DE8" s="1"/>
+      <c r="DF8" s="2"/>
+      <c r="DG8" s="1"/>
+      <c r="DH8" s="1"/>
+      <c r="DI8" s="2"/>
+      <c r="DJ8" s="1"/>
+      <c r="DK8" s="1"/>
+      <c r="DL8" s="2"/>
+      <c r="DM8" s="1"/>
+      <c r="DN8" s="1"/>
+      <c r="DO8" s="2"/>
+      <c r="DP8" s="1"/>
+      <c r="DQ8" s="1"/>
+      <c r="DR8" s="2"/>
+      <c r="DS8" s="1"/>
+      <c r="DT8" s="1"/>
+      <c r="DU8" s="2"/>
+      <c r="DV8" s="1"/>
+      <c r="DW8" s="1"/>
+      <c r="DX8" s="2"/>
+      <c r="DY8" s="1"/>
+      <c r="DZ8" s="1"/>
+      <c r="EA8" s="2"/>
+      <c r="EB8" s="1"/>
+      <c r="EC8" s="1"/>
+      <c r="ED8" s="2"/>
+      <c r="EE8" s="1"/>
+      <c r="EF8" s="1"/>
+      <c r="EG8" s="2"/>
+      <c r="EH8" s="1"/>
+      <c r="EI8" s="1"/>
+      <c r="EJ8" s="2"/>
+      <c r="EK8" s="1"/>
+      <c r="EL8" s="1"/>
+      <c r="EM8" s="2"/>
+      <c r="EN8" s="1"/>
+      <c r="EO8" s="1"/>
+      <c r="EP8" s="2"/>
+      <c r="EQ8" s="1"/>
+      <c r="ER8" s="1"/>
+      <c r="ES8" s="2"/>
+      <c r="ET8" s="1"/>
+      <c r="EU8" s="1"/>
+      <c r="EV8" s="2"/>
+      <c r="EW8" s="1"/>
+      <c r="EX8" s="1"/>
+      <c r="EY8" s="2"/>
+      <c r="EZ8" s="1"/>
+      <c r="FA8" s="1"/>
+      <c r="FB8" s="2"/>
+      <c r="FC8" s="1"/>
+      <c r="FD8" s="1"/>
+      <c r="FE8" s="2"/>
+      <c r="FF8" s="1"/>
+      <c r="FG8" s="1"/>
+      <c r="FH8" s="2"/>
+      <c r="FI8" s="1"/>
+      <c r="FJ8" s="1"/>
+      <c r="FK8" s="2"/>
+      <c r="FL8" s="1"/>
+      <c r="FM8" s="1"/>
+      <c r="FN8" s="2"/>
+      <c r="FO8" s="1"/>
+      <c r="FP8" s="1"/>
+      <c r="FQ8" s="2"/>
+      <c r="FR8" s="1"/>
+      <c r="FS8" s="1"/>
+      <c r="FT8" s="2"/>
+      <c r="FU8" s="1"/>
+      <c r="FV8" s="1"/>
+      <c r="FW8" s="2"/>
+      <c r="FX8" s="1"/>
+      <c r="FY8" s="1"/>
+      <c r="FZ8" s="2"/>
+      <c r="GA8" s="1"/>
+      <c r="GB8" s="1"/>
+      <c r="GC8" s="2"/>
+      <c r="GD8" s="1"/>
+      <c r="GE8" s="1"/>
+      <c r="GF8" s="2"/>
+      <c r="GG8" s="1"/>
+      <c r="GH8" s="1"/>
+      <c r="GI8" s="2"/>
+      <c r="GJ8" s="1"/>
+      <c r="GK8" s="1"/>
+      <c r="GL8" s="2"/>
+      <c r="GM8" s="1"/>
+      <c r="GN8" s="1"/>
+      <c r="GO8" s="2"/>
+      <c r="GP8" s="1"/>
+      <c r="GQ8" s="1"/>
+      <c r="GR8" s="2"/>
+      <c r="GS8" s="1"/>
+      <c r="GT8" s="1"/>
+      <c r="GU8" s="2"/>
+      <c r="GV8" s="1"/>
+      <c r="GW8" s="1"/>
+      <c r="GX8" s="2"/>
+      <c r="GY8" s="1"/>
+      <c r="GZ8" s="1"/>
+      <c r="HA8" s="2"/>
+      <c r="HB8" s="1"/>
+      <c r="HC8" s="1"/>
+      <c r="HD8" s="2"/>
+      <c r="HE8" s="1"/>
+      <c r="HF8" s="1"/>
+      <c r="HG8" s="2"/>
+      <c r="HH8" s="1"/>
+      <c r="HI8" s="1"/>
+      <c r="HJ8" s="2"/>
+      <c r="HK8" s="1"/>
+      <c r="HL8" s="1"/>
+      <c r="HM8" s="2"/>
+      <c r="HN8" s="1"/>
+      <c r="HO8" s="1"/>
+      <c r="HP8" s="2"/>
+      <c r="HQ8" s="1"/>
+      <c r="HR8" s="1"/>
+      <c r="HS8" s="2"/>
+      <c r="HT8" s="1"/>
+      <c r="HU8" s="1"/>
+      <c r="HV8" s="2"/>
+      <c r="HW8" s="1"/>
+      <c r="HX8" s="1"/>
+      <c r="HY8" s="2"/>
+      <c r="HZ8" s="1"/>
+      <c r="IA8" s="1"/>
+      <c r="IB8" s="2"/>
+      <c r="IC8" s="1"/>
+      <c r="ID8" s="1"/>
+      <c r="IE8" s="2"/>
+      <c r="IF8" s="1"/>
+      <c r="IG8" s="1"/>
+      <c r="IH8" s="2"/>
+      <c r="II8" s="1"/>
+      <c r="IJ8" s="1"/>
+      <c r="IK8" s="2"/>
+      <c r="IL8" s="1"/>
+      <c r="IM8" s="1"/>
+      <c r="IN8" s="2"/>
+      <c r="IO8" s="2"/>
+      <c r="IP8" s="1"/>
+      <c r="IQ8" s="1"/>
+      <c r="IR8" s="2"/>
+      <c r="IS8" s="2"/>
+      <c r="IT8" s="1"/>
+      <c r="IU8" s="1"/>
+      <c r="IV8" s="2"/>
+      <c r="IW8" s="2"/>
+      <c r="IX8" s="1"/>
+      <c r="IY8" s="1"/>
+      <c r="IZ8" s="2"/>
+      <c r="JA8" s="2"/>
+      <c r="JB8" s="1"/>
+      <c r="JC8" s="1"/>
+      <c r="JD8" s="2"/>
+      <c r="JE8" s="2"/>
+      <c r="JF8" s="1"/>
+      <c r="JG8" s="1"/>
+      <c r="JH8" s="2"/>
+      <c r="JI8" s="2"/>
+      <c r="JJ8" s="1"/>
+      <c r="JK8" s="1"/>
+      <c r="JL8" s="2"/>
+      <c r="JM8" s="2"/>
+      <c r="JN8" s="1"/>
+      <c r="JO8" s="1"/>
+      <c r="JP8" s="2"/>
+      <c r="JQ8" s="2"/>
+      <c r="JR8" s="1"/>
+      <c r="JS8" s="1"/>
+      <c r="JT8" s="2"/>
+      <c r="JU8" s="2"/>
+      <c r="JV8" s="1"/>
+      <c r="JW8" s="1"/>
+      <c r="JX8" s="2"/>
+      <c r="JY8" s="2"/>
+      <c r="JZ8" s="1"/>
+      <c r="KA8" s="1"/>
+      <c r="KB8" s="2"/>
+      <c r="KC8" s="2"/>
+      <c r="KD8" s="1"/>
+      <c r="KE8" s="1"/>
+      <c r="KF8" s="2"/>
+      <c r="KG8" s="2"/>
+      <c r="KH8" s="1"/>
+      <c r="KI8" s="1"/>
+      <c r="KJ8" s="2"/>
+      <c r="KK8" s="2"/>
+      <c r="KL8" s="1"/>
+      <c r="KM8" s="1"/>
+      <c r="KN8" s="2"/>
+      <c r="KO8" s="2"/>
+      <c r="KP8" s="1"/>
+      <c r="KQ8" s="1"/>
+      <c r="KR8" s="2"/>
+      <c r="KS8" s="2"/>
+      <c r="KT8" s="1"/>
+      <c r="KU8" s="1"/>
+      <c r="KV8" s="2"/>
+      <c r="KW8" s="2"/>
+      <c r="KX8" s="1"/>
+      <c r="KY8" s="1"/>
+      <c r="KZ8" s="2"/>
+      <c r="LA8" s="2"/>
+      <c r="LB8" s="1"/>
+      <c r="LC8" s="1"/>
+      <c r="LD8" s="2"/>
+      <c r="LE8" s="2"/>
+      <c r="LF8" s="1"/>
+      <c r="LG8" s="1"/>
+      <c r="LH8" s="2"/>
+      <c r="LI8" s="2"/>
+      <c r="LJ8" s="1"/>
+      <c r="LK8" s="1"/>
+      <c r="LL8" s="2"/>
+      <c r="LM8" s="2"/>
+      <c r="LN8" s="1"/>
+      <c r="LO8" s="1"/>
+      <c r="LP8" s="2"/>
+      <c r="LQ8" s="2"/>
+      <c r="LR8" s="1"/>
+      <c r="LS8" s="1"/>
+      <c r="LT8" s="2"/>
+      <c r="LU8" s="2"/>
+      <c r="LV8" s="1"/>
+      <c r="LW8" s="1"/>
+      <c r="LX8" s="2"/>
+      <c r="LY8" s="2"/>
+      <c r="LZ8" s="1"/>
+      <c r="MA8" s="1"/>
+      <c r="MB8" s="2"/>
+      <c r="MC8" s="2"/>
+      <c r="MD8" s="1"/>
+      <c r="ME8" s="1"/>
+      <c r="MF8" s="2"/>
+      <c r="MG8" s="2"/>
+      <c r="MH8" s="1"/>
+      <c r="MI8" s="1"/>
+      <c r="MJ8" s="2"/>
+      <c r="MK8" s="2"/>
+      <c r="ML8" s="1"/>
+      <c r="MM8" s="1"/>
+      <c r="MN8" s="2"/>
+      <c r="MO8" s="2"/>
+      <c r="MP8" s="1"/>
+      <c r="MQ8" s="1"/>
+      <c r="MR8" s="2"/>
+      <c r="MS8" s="2"/>
+      <c r="MT8" s="1"/>
+      <c r="MU8" s="1"/>
+      <c r="MV8" s="2"/>
+      <c r="MW8" s="2"/>
+      <c r="MX8" s="1"/>
+      <c r="MY8" s="1"/>
+      <c r="MZ8" s="2"/>
+      <c r="NA8" s="2"/>
+      <c r="NB8" s="1"/>
+      <c r="NC8" s="1"/>
+      <c r="ND8" s="2"/>
+      <c r="NE8" s="2"/>
+      <c r="NF8" s="1"/>
+      <c r="NG8" s="1"/>
+      <c r="NH8" s="2"/>
+      <c r="NI8" s="2"/>
+      <c r="NJ8" s="1"/>
+      <c r="NK8" s="1"/>
+      <c r="NL8" s="2"/>
+      <c r="NM8" s="2"/>
+      <c r="NN8" s="1"/>
+      <c r="NO8" s="1"/>
+      <c r="NP8" s="2"/>
+      <c r="NQ8" s="2"/>
+      <c r="NR8" s="1"/>
+      <c r="NS8" s="1"/>
+      <c r="NT8" s="2"/>
+      <c r="NU8" s="2"/>
+      <c r="NV8" s="1"/>
+      <c r="NW8" s="1"/>
+      <c r="NX8" s="2"/>
+      <c r="NY8" s="2"/>
+      <c r="NZ8" s="1"/>
+      <c r="OA8" s="1"/>
+      <c r="OB8" s="2"/>
+      <c r="OC8" s="2"/>
+      <c r="OD8" s="1"/>
+      <c r="OE8" s="1"/>
+      <c r="OF8" s="2"/>
+      <c r="OG8" s="2"/>
+      <c r="OH8" s="1"/>
+      <c r="OI8" s="1"/>
+      <c r="OJ8" s="2"/>
+      <c r="OK8" s="2"/>
+      <c r="OL8" s="1"/>
+      <c r="OM8" s="1"/>
+      <c r="ON8" s="2"/>
+      <c r="OO8" s="2"/>
+      <c r="OP8" s="1"/>
+      <c r="OQ8" s="1"/>
+      <c r="OR8" s="2"/>
+      <c r="OS8" s="2"/>
+      <c r="OT8" s="1"/>
+      <c r="OU8" s="1"/>
+      <c r="OV8" s="2"/>
+      <c r="OW8" s="2"/>
+      <c r="OX8" s="1"/>
+      <c r="OY8" s="1"/>
+      <c r="OZ8" s="2"/>
+      <c r="PA8" s="2"/>
+      <c r="PB8" s="1"/>
+      <c r="PC8" s="1"/>
+      <c r="PD8" s="2"/>
+      <c r="PE8" s="2"/>
+      <c r="PF8" s="1"/>
+      <c r="PG8" s="1"/>
+      <c r="PH8" s="2"/>
+      <c r="PI8" s="2"/>
+      <c r="PJ8" s="1"/>
+      <c r="PK8" s="1"/>
+      <c r="PL8" s="2"/>
+      <c r="PM8" s="2"/>
+      <c r="PN8" s="1"/>
+      <c r="PO8" s="1"/>
+      <c r="PP8" s="2"/>
+      <c r="PQ8" s="2"/>
+      <c r="PR8" s="1"/>
+      <c r="PS8" s="1"/>
+      <c r="PT8" s="2"/>
+      <c r="PU8" s="2"/>
+      <c r="PV8" s="1"/>
+      <c r="PW8" s="1"/>
+      <c r="PX8" s="2"/>
+      <c r="PY8" s="2"/>
+      <c r="PZ8" s="1"/>
+      <c r="QA8" s="1"/>
+      <c r="QB8" s="2"/>
+      <c r="QC8" s="2"/>
+      <c r="QD8" s="1"/>
+      <c r="QE8" s="1"/>
+      <c r="QF8" s="2"/>
+      <c r="QG8" s="2"/>
+      <c r="QH8" s="1"/>
+      <c r="QI8" s="1"/>
+      <c r="QJ8" s="2"/>
+      <c r="QK8" s="2"/>
+      <c r="QL8" s="1"/>
+      <c r="QM8" s="1"/>
+      <c r="QN8" s="2"/>
+      <c r="QO8" s="2"/>
+      <c r="QP8" s="1"/>
+      <c r="QQ8" s="1"/>
+      <c r="QR8" s="2"/>
+      <c r="QS8" s="2"/>
+      <c r="QT8" s="1"/>
+      <c r="QU8" s="1"/>
+      <c r="QV8" s="2"/>
+      <c r="QW8" s="2"/>
+      <c r="QX8" s="1"/>
+      <c r="QY8" s="1"/>
+      <c r="QZ8" s="2"/>
+      <c r="RA8" s="2"/>
+      <c r="RB8" s="1"/>
+      <c r="RC8" s="1"/>
+      <c r="RD8" s="2"/>
+      <c r="RE8" s="2"/>
+      <c r="RF8" s="1"/>
+      <c r="RG8" s="1"/>
+      <c r="RH8" s="2"/>
+      <c r="RI8" s="2"/>
+      <c r="RJ8" s="1"/>
+      <c r="RK8" s="1"/>
+      <c r="RL8" s="2"/>
+      <c r="RM8" s="2"/>
+      <c r="RN8" s="1"/>
+      <c r="RO8" s="1"/>
+      <c r="RP8" s="2"/>
+      <c r="RQ8" s="2"/>
+      <c r="RR8" s="1"/>
+      <c r="RS8" s="1"/>
+      <c r="RT8" s="2"/>
+      <c r="RU8" s="2"/>
+      <c r="RV8" s="1"/>
+      <c r="RW8" s="1"/>
+      <c r="RX8" s="2"/>
+      <c r="RY8" s="2"/>
+      <c r="RZ8" s="1"/>
+      <c r="SA8" s="1"/>
+      <c r="SB8" s="2"/>
+      <c r="SC8" s="2"/>
+      <c r="SD8" s="1"/>
+      <c r="SE8" s="1"/>
+      <c r="SF8" s="2"/>
+      <c r="SG8" s="2"/>
+      <c r="SH8" s="1"/>
+      <c r="SI8" s="1"/>
+      <c r="SJ8" s="2"/>
+      <c r="SK8" s="2"/>
+      <c r="SL8" s="1"/>
+      <c r="SM8" s="1"/>
+      <c r="SN8" s="2"/>
+      <c r="SO8" s="2"/>
+      <c r="SP8" s="1"/>
+      <c r="SQ8" s="1"/>
+      <c r="SR8" s="2"/>
+      <c r="SS8" s="2"/>
+      <c r="ST8" s="1"/>
+      <c r="SU8" s="1"/>
+      <c r="SV8" s="2"/>
+      <c r="SW8" s="2"/>
+      <c r="SX8" s="1"/>
+      <c r="SY8" s="1"/>
+      <c r="SZ8" s="2"/>
+      <c r="TA8" s="2"/>
+      <c r="TB8" s="1"/>
+      <c r="TC8" s="1"/>
+      <c r="TD8" s="2"/>
+      <c r="TE8" s="2"/>
+      <c r="TF8" s="1"/>
+      <c r="TG8" s="1"/>
+      <c r="TH8" s="2"/>
+      <c r="TI8" s="2"/>
+      <c r="TJ8" s="1"/>
+      <c r="TK8" s="1"/>
+      <c r="TL8" s="2"/>
+      <c r="TM8" s="2"/>
+      <c r="TN8" s="1"/>
+      <c r="TO8" s="1"/>
+      <c r="TP8" s="2"/>
+      <c r="TQ8" s="2"/>
+      <c r="TR8" s="1"/>
+      <c r="TS8" s="1"/>
+      <c r="TT8" s="2"/>
+      <c r="TU8" s="2"/>
+      <c r="TV8" s="1"/>
+      <c r="TW8" s="1"/>
+      <c r="TX8" s="2"/>
+      <c r="TY8" s="2"/>
+      <c r="TZ8" s="1"/>
+      <c r="UA8" s="1"/>
+      <c r="UB8" s="2"/>
+      <c r="UC8" s="2"/>
+      <c r="UD8" s="1"/>
+      <c r="UE8" s="1"/>
+      <c r="UF8" s="2"/>
+      <c r="UG8" s="2"/>
+      <c r="UH8" s="1"/>
+      <c r="UI8" s="1"/>
+      <c r="UJ8" s="2"/>
+      <c r="UK8" s="2"/>
+      <c r="UL8" s="1"/>
+      <c r="UM8" s="1"/>
+      <c r="UN8" s="2"/>
+      <c r="UO8" s="2"/>
+      <c r="UP8" s="1"/>
+      <c r="UQ8" s="1"/>
+      <c r="UR8" s="2"/>
+      <c r="US8" s="2"/>
+      <c r="UT8" s="1"/>
+      <c r="UU8" s="1"/>
+      <c r="UV8" s="2"/>
+      <c r="UW8" s="2"/>
+      <c r="UX8" s="1"/>
+      <c r="UY8" s="1"/>
+      <c r="UZ8" s="2"/>
+      <c r="VA8" s="2"/>
+      <c r="VB8" s="1"/>
+      <c r="VC8" s="1"/>
+      <c r="VD8" s="2"/>
+      <c r="VE8" s="2"/>
+      <c r="VF8" s="1"/>
+      <c r="VG8" s="1"/>
+      <c r="VH8" s="2"/>
+      <c r="VI8" s="2"/>
+      <c r="VJ8" s="1"/>
+      <c r="VK8" s="1"/>
+      <c r="VL8" s="2"/>
+      <c r="VM8" s="2"/>
+      <c r="VN8" s="1"/>
+      <c r="VO8" s="1"/>
+      <c r="VP8" s="2"/>
+      <c r="VQ8" s="2"/>
+      <c r="VR8" s="1"/>
+      <c r="VS8" s="1"/>
+      <c r="VT8" s="2"/>
+      <c r="VU8" s="2"/>
+      <c r="VV8" s="1"/>
+      <c r="VW8" s="1"/>
+      <c r="VX8" s="2"/>
+      <c r="VY8" s="2"/>
+      <c r="VZ8" s="1"/>
+      <c r="WA8" s="1"/>
+      <c r="WB8" s="2"/>
+      <c r="WC8" s="2"/>
+      <c r="WD8" s="1"/>
+      <c r="WE8" s="1"/>
+      <c r="WF8" s="2"/>
+      <c r="WG8" s="2"/>
+      <c r="WH8" s="1"/>
+      <c r="WI8" s="1"/>
+      <c r="WJ8" s="2"/>
+      <c r="WK8" s="2"/>
+      <c r="WL8" s="1"/>
+      <c r="WM8" s="1"/>
+      <c r="WN8" s="2"/>
+      <c r="WO8" s="2"/>
+      <c r="WP8" s="1"/>
+      <c r="WQ8" s="1"/>
+      <c r="WR8" s="2"/>
+      <c r="WS8" s="2"/>
+      <c r="WT8" s="1"/>
+      <c r="WU8" s="1"/>
+      <c r="WV8" s="2"/>
+      <c r="WW8" s="2"/>
+      <c r="WX8" s="1"/>
+      <c r="WY8" s="1"/>
+      <c r="WZ8" s="2"/>
+      <c r="XA8" s="2"/>
+      <c r="XB8" s="1"/>
+      <c r="XC8" s="1"/>
+      <c r="XD8" s="2"/>
+      <c r="XE8" s="2"/>
+      <c r="XF8" s="1"/>
+      <c r="XG8" s="1"/>
+      <c r="XH8" s="2"/>
+      <c r="XI8" s="2"/>
+      <c r="XJ8" s="1"/>
+      <c r="XK8" s="1"/>
+      <c r="XL8" s="2"/>
+      <c r="XM8" s="2"/>
+      <c r="XN8" s="1"/>
+      <c r="XO8" s="1"/>
+      <c r="XP8" s="2"/>
+      <c r="XQ8" s="2"/>
+      <c r="XR8" s="1"/>
+      <c r="XS8" s="1"/>
+      <c r="XT8" s="2"/>
+      <c r="XU8" s="2"/>
+      <c r="XV8" s="1"/>
+      <c r="XW8" s="1"/>
+      <c r="XX8" s="2"/>
+      <c r="XY8" s="2"/>
+      <c r="XZ8" s="1"/>
+      <c r="YA8" s="1"/>
+      <c r="YB8" s="2"/>
+      <c r="YC8" s="2"/>
+      <c r="YD8" s="1"/>
+      <c r="YE8" s="1"/>
+      <c r="YF8" s="2"/>
+      <c r="YG8" s="2"/>
+      <c r="YH8" s="1"/>
+      <c r="YI8" s="1"/>
+      <c r="YJ8" s="2"/>
+      <c r="YK8" s="2"/>
+      <c r="YL8" s="1"/>
+      <c r="YM8" s="1"/>
+      <c r="YN8" s="2"/>
+      <c r="YO8" s="2"/>
+      <c r="YP8" s="1"/>
+      <c r="YQ8" s="1"/>
+      <c r="YR8" s="2"/>
+      <c r="YS8" s="2"/>
+      <c r="YT8" s="1"/>
+      <c r="YU8" s="1"/>
+      <c r="YV8" s="2"/>
+      <c r="YW8" s="2"/>
+      <c r="YX8" s="1"/>
+      <c r="YY8" s="1"/>
+      <c r="YZ8" s="2"/>
+      <c r="ZA8" s="2"/>
+      <c r="ZB8" s="1"/>
+      <c r="ZC8" s="1"/>
+      <c r="ZD8" s="2"/>
+      <c r="ZE8" s="2"/>
+      <c r="ZF8" s="1"/>
+      <c r="ZG8" s="1"/>
+      <c r="ZH8" s="2"/>
+      <c r="ZI8" s="2"/>
+      <c r="ZJ8" s="1"/>
+      <c r="ZK8" s="1"/>
+      <c r="ZL8" s="2"/>
+      <c r="ZM8" s="2"/>
+      <c r="ZN8" s="1"/>
+      <c r="ZO8" s="1"/>
+      <c r="ZP8" s="2"/>
+      <c r="ZQ8" s="2"/>
+      <c r="ZR8" s="1"/>
+      <c r="ZS8" s="1"/>
+      <c r="ZT8" s="2"/>
+      <c r="ZU8" s="2"/>
+      <c r="ZV8" s="1"/>
+      <c r="ZW8" s="1"/>
+      <c r="ZX8" s="2"/>
+      <c r="ZY8" s="2"/>
+      <c r="ZZ8" s="1"/>
+      <c r="AAA8" s="1"/>
+      <c r="AAB8" s="2"/>
+      <c r="AAC8" s="2"/>
+      <c r="AAD8" s="1"/>
+      <c r="AAE8" s="1"/>
+      <c r="AAF8" s="2"/>
+      <c r="AAG8" s="2"/>
+      <c r="AAH8" s="1"/>
+      <c r="AAI8" s="1"/>
+      <c r="AAJ8" s="2"/>
+      <c r="AAK8" s="2"/>
+      <c r="AAL8" s="1"/>
+      <c r="AAM8" s="1"/>
+      <c r="AAN8" s="2"/>
+      <c r="AAO8" s="2"/>
+      <c r="AAP8" s="1"/>
+      <c r="AAQ8" s="1"/>
+      <c r="AAR8" s="2"/>
+      <c r="AAS8" s="2"/>
+      <c r="AAT8" s="1"/>
+      <c r="AAU8" s="1"/>
+      <c r="AAV8" s="2"/>
+      <c r="AAW8" s="2"/>
+      <c r="AAX8" s="1"/>
+      <c r="AAY8" s="1"/>
+      <c r="AAZ8" s="2"/>
+      <c r="ABA8" s="2"/>
+      <c r="ABB8" s="1"/>
+      <c r="ABC8" s="1"/>
+      <c r="ABD8" s="2"/>
+      <c r="ABE8" s="2"/>
+      <c r="ABF8" s="1"/>
+      <c r="ABG8" s="1"/>
+      <c r="ABH8" s="2"/>
+      <c r="ABI8" s="2"/>
+      <c r="ABJ8" s="1"/>
+      <c r="ABK8" s="1"/>
+      <c r="ABL8" s="2"/>
+      <c r="ABM8" s="2"/>
+      <c r="ABN8" s="1"/>
+      <c r="ABO8" s="1"/>
+      <c r="ABP8" s="2"/>
+      <c r="ABQ8" s="2"/>
+      <c r="ABR8" s="1"/>
+      <c r="ABS8" s="1"/>
+      <c r="ABT8" s="2"/>
+      <c r="ABU8" s="2"/>
+      <c r="ABV8" s="1"/>
+      <c r="ABW8" s="1"/>
+      <c r="ABX8" s="2"/>
+      <c r="ABY8" s="2"/>
+      <c r="ABZ8" s="1"/>
+      <c r="ACA8" s="1"/>
+      <c r="ACB8" s="2"/>
+      <c r="ACC8" s="2"/>
+      <c r="ACD8" s="1"/>
+      <c r="ACE8" s="1"/>
+      <c r="ACF8" s="2"/>
+      <c r="ACG8" s="2"/>
+      <c r="ACH8" s="1"/>
+      <c r="ACI8" s="1"/>
+      <c r="ACJ8" s="2"/>
+      <c r="ACK8" s="2"/>
+      <c r="ACL8" s="1"/>
+      <c r="ACM8" s="1"/>
+      <c r="ACN8" s="2"/>
+      <c r="ACO8" s="2"/>
+      <c r="ACP8" s="1"/>
+      <c r="ACQ8" s="1"/>
+      <c r="ACR8" s="2"/>
+      <c r="ACS8" s="2"/>
+      <c r="ACT8" s="1"/>
+      <c r="ACU8" s="1"/>
+      <c r="ACV8" s="2"/>
+      <c r="ACW8" s="2"/>
+      <c r="ACX8" s="1"/>
+      <c r="ACY8" s="1"/>
+      <c r="ACZ8" s="2"/>
+      <c r="ADA8" s="2"/>
+      <c r="ADB8" s="1"/>
+      <c r="ADC8" s="1"/>
+      <c r="ADD8" s="2"/>
+      <c r="ADE8" s="2"/>
+      <c r="ADF8" s="1"/>
+      <c r="ADG8" s="1"/>
+      <c r="ADH8" s="2"/>
+      <c r="ADI8" s="2"/>
+      <c r="ADJ8" s="1"/>
+      <c r="ADK8" s="1"/>
+      <c r="ADL8" s="2"/>
+      <c r="ADM8" s="2"/>
+      <c r="ADN8" s="1"/>
+      <c r="ADO8" s="1"/>
+      <c r="ADP8" s="2"/>
+      <c r="ADQ8" s="2"/>
+      <c r="ADR8" s="1"/>
+      <c r="ADS8" s="1"/>
+      <c r="ADT8" s="2"/>
+      <c r="ADU8" s="2"/>
+      <c r="ADV8" s="1"/>
+      <c r="ADW8" s="1"/>
+      <c r="ADX8" s="2"/>
+      <c r="ADY8" s="2"/>
+      <c r="ADZ8" s="1"/>
+      <c r="AEA8" s="1"/>
+      <c r="AEB8" s="2"/>
+      <c r="AEC8" s="2"/>
+      <c r="AED8" s="1"/>
+      <c r="AEE8" s="1"/>
+      <c r="AEF8" s="2"/>
+      <c r="AEG8" s="2"/>
+      <c r="AEH8" s="1"/>
+      <c r="AEI8" s="1"/>
+      <c r="AEJ8" s="2"/>
+      <c r="AEK8" s="2"/>
+      <c r="AEL8" s="1"/>
+      <c r="AEM8" s="1"/>
+      <c r="AEN8" s="2"/>
+      <c r="AEO8" s="2"/>
+      <c r="AEP8" s="1"/>
+      <c r="AEQ8" s="1"/>
+      <c r="AER8" s="2"/>
+      <c r="AES8" s="2"/>
+      <c r="AET8" s="1"/>
+      <c r="AEU8" s="1"/>
+      <c r="AEV8" s="2"/>
+      <c r="AEW8" s="2"/>
+      <c r="AEX8" s="1"/>
+      <c r="AEY8" s="1"/>
+      <c r="AEZ8" s="2"/>
+      <c r="AFA8" s="2"/>
+      <c r="AFB8" s="1"/>
+      <c r="AFC8" s="1"/>
+      <c r="AFD8" s="2"/>
+      <c r="AFE8" s="2"/>
+      <c r="AFF8" s="1"/>
+      <c r="AFG8" s="1"/>
+      <c r="AFH8" s="2"/>
+      <c r="AFI8" s="2"/>
+      <c r="AFJ8" s="1"/>
+      <c r="AFK8" s="1"/>
+      <c r="AFL8" s="2"/>
+      <c r="AFM8" s="2"/>
+      <c r="AFN8" s="1"/>
+      <c r="AFO8" s="1"/>
+      <c r="AFP8" s="2"/>
+      <c r="AFQ8" s="2"/>
+      <c r="AFR8" s="1"/>
+      <c r="AFS8" s="1"/>
+      <c r="AFT8" s="2"/>
+      <c r="AFU8" s="2"/>
+      <c r="AFV8" s="1"/>
+      <c r="AFW8" s="1"/>
+      <c r="AFX8" s="2"/>
+      <c r="AFY8" s="2"/>
+      <c r="AFZ8" s="1"/>
+      <c r="AGA8" s="1"/>
+      <c r="AGB8" s="2"/>
+      <c r="AGC8" s="2"/>
+      <c r="AGD8" s="1"/>
+      <c r="AGE8" s="1"/>
+      <c r="AGF8" s="2"/>
+      <c r="AGG8" s="2"/>
+      <c r="AGH8" s="1"/>
+      <c r="AGI8" s="1"/>
+      <c r="AGJ8" s="2"/>
+      <c r="AGK8" s="2"/>
+      <c r="AGL8" s="1"/>
+      <c r="AGM8" s="1"/>
+      <c r="AGN8" s="2"/>
+      <c r="AGO8" s="2"/>
+      <c r="AGP8" s="1"/>
+      <c r="AGQ8" s="1"/>
+      <c r="AGR8" s="2"/>
+      <c r="AGS8" s="2"/>
+      <c r="AGT8" s="1"/>
+      <c r="AGU8" s="1"/>
+      <c r="AGV8" s="2"/>
+      <c r="AGW8" s="2"/>
+      <c r="AGX8" s="1"/>
+      <c r="AGY8" s="1"/>
+      <c r="AGZ8" s="2"/>
+      <c r="AHA8" s="2"/>
+      <c r="AHB8" s="1"/>
+      <c r="AHC8" s="1"/>
+      <c r="AHD8" s="2"/>
+      <c r="AHE8" s="2"/>
+      <c r="AHF8" s="1"/>
+      <c r="AHG8" s="1"/>
+      <c r="AHH8" s="2"/>
+      <c r="AHI8" s="2"/>
+      <c r="AHJ8" s="1"/>
+      <c r="AHK8" s="1"/>
+      <c r="AHL8" s="2"/>
+      <c r="AHM8" s="2"/>
+      <c r="AHN8" s="1"/>
+      <c r="AHO8" s="1"/>
+      <c r="AHP8" s="2"/>
+      <c r="AHQ8" s="2"/>
+      <c r="AHR8" s="1"/>
+      <c r="AHS8" s="1"/>
+      <c r="AHT8" s="2"/>
+      <c r="AHU8" s="2"/>
+      <c r="AHV8" s="1"/>
+      <c r="AHW8" s="1"/>
+      <c r="AHX8" s="2"/>
+      <c r="AHY8" s="2"/>
+      <c r="AHZ8" s="1"/>
+      <c r="AIA8" s="1"/>
+      <c r="AIB8" s="2"/>
+      <c r="AIC8" s="2"/>
+      <c r="AID8" s="1"/>
+      <c r="AIE8" s="1"/>
+      <c r="AIF8" s="2"/>
+      <c r="AIG8" s="2"/>
+      <c r="AIH8" s="1"/>
+      <c r="AII8" s="1"/>
+      <c r="AIJ8" s="2"/>
+      <c r="AIK8" s="2"/>
+      <c r="AIL8" s="1"/>
+      <c r="AIM8" s="1"/>
+      <c r="AIN8" s="2"/>
+      <c r="AIO8" s="2"/>
+      <c r="AIP8" s="1"/>
+      <c r="AIQ8" s="1"/>
+      <c r="AIR8" s="2"/>
+      <c r="AIS8" s="2"/>
+      <c r="AIT8" s="1"/>
+      <c r="AIU8" s="1"/>
+      <c r="AIV8" s="2"/>
+      <c r="AIW8" s="2"/>
+      <c r="AIX8" s="1"/>
+      <c r="AIY8" s="1"/>
+      <c r="AIZ8" s="2"/>
+      <c r="AJA8" s="2"/>
+      <c r="AJB8" s="1"/>
+      <c r="AJC8" s="1"/>
+      <c r="AJD8" s="2"/>
+      <c r="AJE8" s="2"/>
+      <c r="AJF8" s="1"/>
+      <c r="AJG8" s="1"/>
+      <c r="AJH8" s="2"/>
+      <c r="AJI8" s="2"/>
+      <c r="AJJ8" s="1"/>
+      <c r="AJK8" s="1"/>
+      <c r="AJL8" s="2"/>
+      <c r="AJM8" s="2"/>
+      <c r="AJN8" s="1"/>
+      <c r="AJO8" s="1"/>
+      <c r="AJP8" s="2"/>
+      <c r="AJQ8" s="2"/>
+      <c r="AJR8" s="1"/>
+      <c r="AJS8" s="1"/>
+      <c r="AJT8" s="2"/>
+      <c r="AJU8" s="2"/>
+      <c r="AJV8" s="1"/>
+      <c r="AJW8" s="1"/>
+      <c r="AJX8" s="2"/>
+      <c r="AJY8" s="2"/>
+      <c r="AJZ8" s="1"/>
+      <c r="AKA8" s="1"/>
+      <c r="AKB8" s="2"/>
+      <c r="AKC8" s="2"/>
+      <c r="AKD8" s="1"/>
+      <c r="AKE8" s="1"/>
+      <c r="AKF8" s="2"/>
+      <c r="AKG8" s="2"/>
+      <c r="AKH8" s="1"/>
+      <c r="AKI8" s="1"/>
+      <c r="AKJ8" s="2"/>
+      <c r="AKK8" s="2"/>
+      <c r="AKL8" s="1"/>
+      <c r="AKM8" s="1"/>
+      <c r="AKN8" s="2"/>
+      <c r="AKO8" s="2"/>
+      <c r="AKP8" s="1"/>
+      <c r="AKQ8" s="1"/>
+      <c r="AKR8" s="2"/>
+      <c r="AKS8" s="2"/>
+      <c r="AKT8" s="1"/>
+      <c r="AKU8" s="1"/>
+      <c r="AKV8" s="2"/>
+      <c r="AKW8" s="2"/>
+      <c r="AKX8" s="1"/>
+      <c r="AKY8" s="1"/>
+      <c r="AKZ8" s="2"/>
+      <c r="ALA8" s="2"/>
+      <c r="ALB8" s="1"/>
+      <c r="ALC8" s="1"/>
+      <c r="ALD8" s="2"/>
+      <c r="ALE8" s="2"/>
+      <c r="ALF8" s="1"/>
+      <c r="ALG8" s="1"/>
+      <c r="ALH8" s="2"/>
+      <c r="ALI8" s="2"/>
+      <c r="ALJ8" s="1"/>
+      <c r="ALK8" s="1"/>
+      <c r="ALL8" s="2"/>
+      <c r="ALM8" s="2"/>
+      <c r="ALN8" s="1"/>
+      <c r="ALO8" s="1"/>
+      <c r="ALP8" s="2"/>
+      <c r="ALQ8" s="2"/>
+      <c r="ALR8" s="1"/>
+      <c r="ALS8" s="1"/>
+      <c r="ALT8" s="2"/>
+      <c r="ALU8" s="2"/>
+      <c r="ALV8" s="1"/>
+      <c r="ALW8" s="1"/>
+      <c r="ALX8" s="2"/>
+      <c r="ALY8" s="2"/>
+      <c r="ALZ8" s="1"/>
+      <c r="AMA8" s="1"/>
+      <c r="AMB8" s="2"/>
+      <c r="AMC8" s="2"/>
+      <c r="AMD8" s="1"/>
+      <c r="AME8" s="1"/>
+      <c r="AMF8" s="2"/>
+      <c r="AMG8" s="2"/>
+      <c r="AMH8" s="1"/>
+      <c r="AMI8" s="1"/>
+      <c r="AMJ8" s="2"/>
+      <c r="AMK8" s="2"/>
+      <c r="AML8" s="1"/>
+      <c r="AMM8" s="1"/>
+      <c r="AMN8" s="2"/>
+      <c r="AMO8" s="2"/>
+      <c r="AMP8" s="1"/>
+      <c r="AMQ8" s="1"/>
+      <c r="AMR8" s="2"/>
+      <c r="AMS8" s="2"/>
+      <c r="AMT8" s="1"/>
+      <c r="AMU8" s="1"/>
+      <c r="AMV8" s="2"/>
+      <c r="AMW8" s="2"/>
+      <c r="AMX8" s="1"/>
+      <c r="AMY8" s="1"/>
+      <c r="AMZ8" s="2"/>
+      <c r="ANA8" s="2"/>
+      <c r="ANB8" s="1"/>
+      <c r="ANC8" s="1"/>
+      <c r="AND8" s="2"/>
+      <c r="ANE8" s="2"/>
+      <c r="ANF8" s="1"/>
+      <c r="ANG8" s="1"/>
+      <c r="ANH8" s="2"/>
+      <c r="ANI8" s="2"/>
+      <c r="ANJ8" s="1"/>
+      <c r="ANK8" s="1"/>
+      <c r="ANL8" s="2"/>
+      <c r="ANM8" s="2"/>
+      <c r="ANN8" s="1"/>
+      <c r="ANO8" s="1"/>
+      <c r="ANP8" s="2"/>
+      <c r="ANQ8" s="2"/>
+      <c r="ANR8" s="1"/>
+      <c r="ANS8" s="1"/>
+      <c r="ANT8" s="2"/>
+      <c r="ANU8" s="2"/>
+      <c r="ANV8" s="1"/>
+      <c r="ANW8" s="1"/>
+      <c r="ANX8" s="2"/>
+      <c r="ANY8" s="2"/>
+      <c r="ANZ8" s="1"/>
+      <c r="AOA8" s="1"/>
+      <c r="AOB8" s="2"/>
+      <c r="AOC8" s="2"/>
+      <c r="AOD8" s="1"/>
+      <c r="AOE8" s="1"/>
+      <c r="AOF8" s="2"/>
+      <c r="AOG8" s="2"/>
+      <c r="AOH8" s="1"/>
+      <c r="AOI8" s="1"/>
+      <c r="AOJ8" s="2"/>
+      <c r="AOK8" s="2"/>
+      <c r="AOL8" s="1"/>
+      <c r="AOM8" s="1"/>
+      <c r="AON8" s="2"/>
+      <c r="AOO8" s="2"/>
+      <c r="AOP8" s="1"/>
+      <c r="AOQ8" s="1"/>
+      <c r="AOR8" s="2"/>
+      <c r="AOS8" s="2"/>
+      <c r="AOT8" s="1"/>
+      <c r="AOU8" s="1"/>
+      <c r="AOV8" s="2"/>
+      <c r="AOW8" s="2"/>
+      <c r="AOX8" s="1"/>
+      <c r="AOY8" s="1"/>
+      <c r="AOZ8" s="2"/>
+      <c r="APA8" s="2"/>
+      <c r="APB8" s="1"/>
+      <c r="APC8" s="1"/>
+      <c r="APD8" s="2"/>
+      <c r="APE8" s="2"/>
+      <c r="APF8" s="1"/>
+      <c r="APG8" s="1"/>
+      <c r="APH8" s="2"/>
+      <c r="API8" s="2"/>
+      <c r="APJ8" s="1"/>
+      <c r="APK8" s="1"/>
+      <c r="APL8" s="2"/>
+      <c r="APM8" s="2"/>
+      <c r="APN8" s="1"/>
+      <c r="APO8" s="1"/>
+      <c r="APP8" s="2"/>
+      <c r="APQ8" s="2"/>
+      <c r="APR8" s="1"/>
+      <c r="APS8" s="1"/>
+      <c r="APT8" s="2"/>
+      <c r="APU8" s="2"/>
+      <c r="APV8" s="1"/>
+      <c r="APW8" s="1"/>
+      <c r="APX8" s="2"/>
+      <c r="APY8" s="2"/>
+      <c r="APZ8" s="1"/>
+      <c r="AQA8" s="1"/>
+      <c r="AQB8" s="2"/>
+      <c r="AQC8" s="2"/>
+      <c r="AQD8" s="1"/>
+      <c r="AQE8" s="1"/>
+      <c r="AQF8" s="2"/>
+      <c r="AQG8" s="2"/>
+      <c r="AQH8" s="1"/>
+      <c r="AQI8" s="1"/>
+      <c r="AQJ8" s="2"/>
+      <c r="AQK8" s="2"/>
+      <c r="AQL8" s="1"/>
+      <c r="AQM8" s="1"/>
+      <c r="AQN8" s="2"/>
+      <c r="AQO8" s="2"/>
+      <c r="AQP8" s="1"/>
+      <c r="AQQ8" s="1"/>
+      <c r="AQR8" s="2"/>
+      <c r="AQS8" s="2"/>
+      <c r="AQT8" s="1"/>
+      <c r="AQU8" s="1"/>
+      <c r="AQV8" s="2"/>
+      <c r="AQW8" s="2"/>
+      <c r="AQX8" s="1"/>
+      <c r="AQY8" s="1"/>
+      <c r="AQZ8" s="2"/>
+      <c r="ARA8" s="2"/>
+      <c r="ARB8" s="1"/>
+      <c r="ARC8" s="1"/>
+      <c r="ARD8" s="2"/>
+      <c r="ARE8" s="2"/>
+      <c r="ARF8" s="1"/>
+      <c r="ARG8" s="1"/>
+      <c r="ARH8" s="2"/>
+      <c r="ARI8" s="2"/>
+      <c r="ARJ8" s="1"/>
+      <c r="ARK8" s="1"/>
+      <c r="ARL8" s="2"/>
+      <c r="ARM8" s="2"/>
+      <c r="ARN8" s="1"/>
+      <c r="ARO8" s="1"/>
+      <c r="ARP8" s="2"/>
+      <c r="ARQ8" s="2"/>
+      <c r="ARR8" s="1"/>
+      <c r="ARS8" s="1"/>
+      <c r="ART8" s="2"/>
+      <c r="ARU8" s="2"/>
+      <c r="ARV8" s="1"/>
+      <c r="ARW8" s="1"/>
+      <c r="ARX8" s="2"/>
+      <c r="ARY8" s="2"/>
+      <c r="ARZ8" s="1"/>
+      <c r="ASA8" s="1"/>
+      <c r="ASB8" s="2"/>
+      <c r="ASC8" s="2"/>
+      <c r="ASD8" s="1"/>
+      <c r="ASE8" s="1"/>
+      <c r="ASF8" s="2"/>
+      <c r="ASG8" s="2"/>
+      <c r="ASH8" s="1"/>
+      <c r="ASI8" s="1"/>
+      <c r="ASJ8" s="2"/>
+      <c r="ASK8" s="2"/>
+      <c r="ASL8" s="1"/>
+      <c r="ASM8" s="1"/>
+      <c r="ASN8" s="2"/>
+      <c r="ASO8" s="2"/>
+      <c r="ASP8" s="1"/>
+      <c r="ASQ8" s="1"/>
+      <c r="ASR8" s="2"/>
+      <c r="ASS8" s="2"/>
+      <c r="AST8" s="1"/>
+      <c r="ASU8" s="1"/>
+      <c r="ASV8" s="2"/>
+      <c r="ASW8" s="2"/>
+      <c r="ASX8" s="1"/>
+      <c r="ASY8" s="1"/>
+      <c r="ASZ8" s="2"/>
+      <c r="ATA8" s="2"/>
+      <c r="ATB8" s="1"/>
+      <c r="ATC8" s="1"/>
+      <c r="ATD8" s="2"/>
+      <c r="ATE8" s="2"/>
+      <c r="ATF8" s="1"/>
+      <c r="ATG8" s="1"/>
+      <c r="ATH8" s="2"/>
+      <c r="ATI8" s="2"/>
+      <c r="ATJ8" s="1"/>
+      <c r="ATK8" s="1"/>
+      <c r="ATL8" s="2"/>
+      <c r="ATM8" s="2"/>
+      <c r="ATN8" s="1"/>
+      <c r="ATO8" s="1"/>
+      <c r="ATP8" s="2"/>
+      <c r="ATQ8" s="2"/>
+      <c r="ATR8" s="1"/>
+      <c r="ATS8" s="1"/>
+      <c r="ATT8" s="2"/>
+      <c r="ATU8" s="2"/>
+      <c r="ATV8" s="1"/>
+      <c r="ATW8" s="1"/>
+      <c r="ATX8" s="2"/>
+      <c r="ATY8" s="2"/>
+      <c r="ATZ8" s="1"/>
+      <c r="AUA8" s="1"/>
+      <c r="AUB8" s="2"/>
+      <c r="AUC8" s="2"/>
+      <c r="AUD8" s="1"/>
+      <c r="AUE8" s="1"/>
+      <c r="AUF8" s="2"/>
+      <c r="AUG8" s="2"/>
+      <c r="AUH8" s="1"/>
+      <c r="AUI8" s="1"/>
+      <c r="AUJ8" s="2"/>
+      <c r="AUK8" s="2"/>
+      <c r="AUL8" s="1"/>
+      <c r="AUM8" s="1"/>
+      <c r="AUN8" s="2"/>
+      <c r="AUO8" s="2"/>
+      <c r="AUP8" s="1"/>
+      <c r="AUQ8" s="1"/>
+      <c r="AUR8" s="2"/>
+      <c r="AUS8" s="2"/>
+      <c r="AUT8" s="1"/>
+      <c r="AUU8" s="1"/>
+      <c r="AUV8" s="2"/>
+      <c r="AUW8" s="2"/>
+      <c r="AUX8" s="1"/>
+      <c r="AUY8" s="1"/>
+      <c r="AUZ8" s="2"/>
+      <c r="AVA8" s="2"/>
+      <c r="AVB8" s="1"/>
+      <c r="AVC8" s="1"/>
+      <c r="AVD8" s="2"/>
+      <c r="AVE8" s="2"/>
+      <c r="AVF8" s="1"/>
+      <c r="AVG8" s="1"/>
+      <c r="AVH8" s="2"/>
+      <c r="AVI8" s="2"/>
+      <c r="AVJ8" s="1"/>
+      <c r="AVK8" s="1"/>
+      <c r="AVL8" s="2"/>
+      <c r="AVM8" s="2"/>
+      <c r="AVN8" s="1"/>
+      <c r="AVO8" s="1"/>
+      <c r="AVP8" s="2"/>
+      <c r="AVQ8" s="2"/>
+      <c r="AVR8" s="1"/>
+      <c r="AVS8" s="1"/>
+      <c r="AVT8" s="2"/>
+      <c r="AVU8" s="2"/>
+      <c r="AVV8" s="1"/>
+      <c r="AVW8" s="1"/>
+      <c r="AVX8" s="2"/>
+      <c r="AVY8" s="2"/>
+      <c r="AVZ8" s="1"/>
+      <c r="AWA8" s="1"/>
+      <c r="AWB8" s="2"/>
+      <c r="AWC8" s="2"/>
+      <c r="AWD8" s="1"/>
+      <c r="AWE8" s="1"/>
+      <c r="AWF8" s="2"/>
+      <c r="AWG8" s="2"/>
+      <c r="AWH8" s="1"/>
+      <c r="AWI8" s="1"/>
+      <c r="AWJ8" s="2"/>
+      <c r="AWK8" s="2"/>
+      <c r="AWL8" s="1"/>
+      <c r="AWM8" s="1"/>
+      <c r="AWN8" s="2"/>
+      <c r="AWO8" s="2"/>
+      <c r="AWP8" s="1"/>
+      <c r="AWQ8" s="1"/>
+      <c r="AWR8" s="2"/>
+      <c r="AWS8" s="2"/>
+      <c r="AWT8" s="1"/>
+      <c r="AWU8" s="1"/>
+      <c r="AWV8" s="2"/>
+      <c r="AWW8" s="2"/>
+      <c r="AWX8" s="1"/>
+      <c r="AWY8" s="1"/>
+      <c r="AWZ8" s="2"/>
+      <c r="AXA8" s="2"/>
+      <c r="AXB8" s="1"/>
+      <c r="AXC8" s="1"/>
+      <c r="AXD8" s="2"/>
+      <c r="AXE8" s="2"/>
+      <c r="AXF8" s="1"/>
+      <c r="AXG8" s="1"/>
+      <c r="AXH8" s="2"/>
+      <c r="AXI8" s="2"/>
+      <c r="AXJ8" s="1"/>
+      <c r="AXK8" s="1"/>
+      <c r="AXL8" s="2"/>
+      <c r="AXM8" s="2"/>
+      <c r="AXN8" s="1"/>
+      <c r="AXO8" s="1"/>
+      <c r="AXP8" s="2"/>
+      <c r="AXQ8" s="2"/>
+      <c r="AXR8" s="1"/>
+      <c r="AXS8" s="1"/>
+      <c r="AXT8" s="2"/>
+      <c r="AXU8" s="2"/>
+      <c r="AXV8" s="1"/>
+      <c r="AXW8" s="1"/>
+      <c r="AXX8" s="2"/>
+      <c r="AXY8" s="2"/>
+      <c r="AXZ8" s="1"/>
+      <c r="AYA8" s="1"/>
+      <c r="AYB8" s="2"/>
+      <c r="AYC8" s="2"/>
+      <c r="AYD8" s="1"/>
+      <c r="AYE8" s="1"/>
+      <c r="AYF8" s="2"/>
+      <c r="AYG8" s="2"/>
+      <c r="AYH8" s="1"/>
+      <c r="AYI8" s="1"/>
+      <c r="AYJ8" s="2"/>
+      <c r="AYK8" s="2"/>
+      <c r="AYL8" s="1"/>
+      <c r="AYM8" s="1"/>
+      <c r="AYN8" s="2"/>
+      <c r="AYO8" s="2"/>
+      <c r="AYP8" s="1"/>
+      <c r="AYQ8" s="1"/>
+      <c r="AYR8" s="2"/>
+      <c r="AYS8" s="2"/>
+      <c r="AYT8" s="1"/>
+      <c r="AYU8" s="1"/>
+      <c r="AYV8" s="2"/>
+      <c r="AYW8" s="2"/>
+      <c r="AYX8" s="1"/>
+      <c r="AYY8" s="1"/>
+      <c r="AYZ8" s="2"/>
+      <c r="AZA8" s="2"/>
+      <c r="AZB8" s="1"/>
+      <c r="AZC8" s="1"/>
+      <c r="AZD8" s="2"/>
+      <c r="AZE8" s="2"/>
+      <c r="AZF8" s="1"/>
+      <c r="AZG8" s="1"/>
+      <c r="AZH8" s="2"/>
+      <c r="AZI8" s="2"/>
+      <c r="AZJ8" s="1"/>
+      <c r="AZK8" s="1"/>
+      <c r="AZL8" s="2"/>
+      <c r="AZM8" s="2"/>
+      <c r="AZN8" s="1"/>
+      <c r="AZO8" s="1"/>
+      <c r="AZP8" s="2"/>
+      <c r="AZQ8" s="2"/>
+      <c r="AZR8" s="1"/>
+      <c r="AZS8" s="1"/>
+      <c r="AZT8" s="2"/>
+      <c r="AZU8" s="2"/>
+      <c r="AZV8" s="1"/>
+      <c r="AZW8" s="1"/>
+      <c r="AZX8" s="2"/>
+      <c r="AZY8" s="2"/>
+      <c r="AZZ8" s="1"/>
+      <c r="BAA8" s="1"/>
+      <c r="BAB8" s="2"/>
+      <c r="BAC8" s="2"/>
+      <c r="BAD8" s="1"/>
+      <c r="BAE8" s="1"/>
+      <c r="BAF8" s="2"/>
+      <c r="BAG8" s="2"/>
+      <c r="BAH8" s="1"/>
+      <c r="BAI8" s="1"/>
+      <c r="BAJ8" s="2"/>
+      <c r="BAK8" s="2"/>
+      <c r="BAL8" s="1"/>
+      <c r="BAM8" s="1"/>
+      <c r="BAN8" s="2"/>
+      <c r="BAO8" s="2"/>
+      <c r="BAP8" s="1"/>
+      <c r="BAQ8" s="1"/>
+      <c r="BAR8" s="2"/>
+      <c r="BAS8" s="2"/>
+      <c r="BAT8" s="1"/>
+      <c r="BAU8" s="1"/>
+      <c r="BAV8" s="2"/>
+      <c r="BAW8" s="2"/>
+      <c r="BAX8" s="1"/>
+      <c r="BAY8" s="1"/>
+      <c r="BAZ8" s="2"/>
+      <c r="BBA8" s="2"/>
+      <c r="BBB8" s="1"/>
+      <c r="BBC8" s="1"/>
+      <c r="BBD8" s="2"/>
+      <c r="BBE8" s="2"/>
+      <c r="BBF8" s="1"/>
+      <c r="BBG8" s="1"/>
+      <c r="BBH8" s="2"/>
+      <c r="BBI8" s="2"/>
+      <c r="BBJ8" s="1"/>
+      <c r="BBK8" s="1"/>
+      <c r="BBL8" s="2"/>
+      <c r="BBM8" s="2"/>
+      <c r="BBN8" s="1"/>
+      <c r="BBO8" s="1"/>
+      <c r="BBP8" s="2"/>
+      <c r="BBQ8" s="2"/>
+      <c r="BBR8" s="1"/>
+      <c r="BBS8" s="1"/>
+      <c r="BBT8" s="2"/>
+      <c r="BBU8" s="2"/>
+      <c r="BBV8" s="1"/>
+      <c r="BBW8" s="1"/>
+      <c r="BBX8" s="2"/>
+      <c r="BBY8" s="2"/>
+      <c r="BBZ8" s="1"/>
+      <c r="BCA8" s="1"/>
+      <c r="BCB8" s="2"/>
+      <c r="BCC8" s="2"/>
+      <c r="BCD8" s="1"/>
+      <c r="BCE8" s="1"/>
+      <c r="BCF8" s="2"/>
+      <c r="BCG8" s="2"/>
+      <c r="BCH8" s="1"/>
+      <c r="BCI8" s="1"/>
+      <c r="BCJ8" s="2"/>
+      <c r="BCK8" s="2"/>
+      <c r="BCL8" s="1"/>
+      <c r="BCM8" s="1"/>
+      <c r="BCN8" s="2"/>
+      <c r="BCO8" s="2"/>
+      <c r="BCP8" s="1"/>
+      <c r="BCQ8" s="1"/>
+      <c r="BCR8" s="2"/>
+      <c r="BCS8" s="2"/>
+      <c r="BCT8" s="1"/>
+      <c r="BCU8" s="1"/>
+      <c r="BCV8" s="2"/>
+      <c r="BCW8" s="2"/>
+      <c r="BCX8" s="1"/>
+      <c r="BCY8" s="1"/>
+      <c r="BCZ8" s="2"/>
+      <c r="BDA8" s="2"/>
+      <c r="BDB8" s="1"/>
+      <c r="BDC8" s="1"/>
+      <c r="BDD8" s="2"/>
+      <c r="BDE8" s="2"/>
+      <c r="BDF8" s="1"/>
+      <c r="BDG8" s="1"/>
+      <c r="BDH8" s="2"/>
+      <c r="BDI8" s="2"/>
+      <c r="BDJ8" s="1"/>
+      <c r="BDK8" s="1"/>
+      <c r="BDL8" s="2"/>
+      <c r="BDM8" s="2"/>
+      <c r="BDN8" s="1"/>
+      <c r="BDO8" s="1"/>
+      <c r="BDP8" s="2"/>
+      <c r="BDQ8" s="2"/>
+      <c r="BDR8" s="1"/>
+      <c r="BDS8" s="1"/>
+      <c r="BDT8" s="2"/>
+      <c r="BDU8" s="2"/>
+      <c r="BDV8" s="1"/>
+      <c r="BDW8" s="1"/>
+      <c r="BDX8" s="2"/>
+      <c r="BDY8" s="2"/>
+      <c r="BDZ8" s="1"/>
+      <c r="BEA8" s="1"/>
+      <c r="BEB8" s="2"/>
+      <c r="BEC8" s="2"/>
+      <c r="BED8" s="1"/>
+      <c r="BEE8" s="1"/>
+      <c r="BEF8" s="2"/>
+      <c r="BEG8" s="2"/>
+      <c r="BEH8" s="1"/>
+      <c r="BEI8" s="1"/>
+      <c r="BEJ8" s="2"/>
+      <c r="BEK8" s="2"/>
+      <c r="BEL8" s="1"/>
+      <c r="BEM8" s="1"/>
+      <c r="BEN8" s="2"/>
+      <c r="BEO8" s="2"/>
+      <c r="BEP8" s="1"/>
+      <c r="BEQ8" s="1"/>
+      <c r="BER8" s="2"/>
+      <c r="BES8" s="2"/>
+      <c r="BET8" s="1"/>
+      <c r="BEU8" s="1"/>
+      <c r="BEV8" s="2"/>
+      <c r="BEW8" s="2"/>
+      <c r="BEX8" s="1"/>
+      <c r="BEY8" s="1"/>
+      <c r="BEZ8" s="2"/>
+      <c r="BFA8" s="2"/>
+      <c r="BFB8" s="1"/>
+      <c r="BFC8" s="1"/>
+      <c r="BFD8" s="2"/>
+      <c r="BFE8" s="2"/>
+      <c r="BFF8" s="1"/>
+      <c r="BFG8" s="1"/>
+      <c r="BFH8" s="2"/>
+      <c r="BFI8" s="2"/>
+      <c r="BFJ8" s="1"/>
+      <c r="BFK8" s="1"/>
+      <c r="BFL8" s="2"/>
+      <c r="BFM8" s="2"/>
+      <c r="BFN8" s="1"/>
+      <c r="BFO8" s="1"/>
+      <c r="BFP8" s="2"/>
+      <c r="BFQ8" s="2"/>
+      <c r="BFR8" s="1"/>
+      <c r="BFS8" s="1"/>
+      <c r="BFT8" s="2"/>
+      <c r="BFU8" s="2"/>
+      <c r="BFV8" s="1"/>
+      <c r="BFW8" s="1"/>
+      <c r="BFX8" s="2"/>
+      <c r="BFY8" s="2"/>
+      <c r="BFZ8" s="1"/>
+      <c r="BGA8" s="1"/>
+      <c r="BGB8" s="2"/>
+      <c r="BGC8" s="2"/>
+      <c r="BGD8" s="1"/>
+      <c r="BGE8" s="1"/>
+      <c r="BGF8" s="2"/>
+      <c r="BGG8" s="2"/>
+      <c r="BGH8" s="1"/>
+      <c r="BGI8" s="1"/>
+      <c r="BGJ8" s="2"/>
+      <c r="BGK8" s="2"/>
+      <c r="BGL8" s="1"/>
+      <c r="BGM8" s="1"/>
+      <c r="BGN8" s="2"/>
+      <c r="BGO8" s="2"/>
+      <c r="BGP8" s="1"/>
+      <c r="BGQ8" s="1"/>
+      <c r="BGR8" s="2"/>
+      <c r="BGS8" s="2"/>
+      <c r="BGT8" s="1"/>
+      <c r="BGU8" s="1"/>
+      <c r="BGV8" s="2"/>
+      <c r="BGW8" s="2"/>
+      <c r="BGX8" s="1"/>
+      <c r="BGY8" s="1"/>
+      <c r="BGZ8" s="2"/>
+      <c r="BHA8" s="2"/>
+      <c r="BHB8" s="1"/>
+      <c r="BHC8" s="1"/>
+      <c r="BHD8" s="2"/>
+      <c r="BHE8" s="2"/>
+      <c r="BHF8" s="1"/>
+      <c r="BHG8" s="1"/>
+      <c r="BHH8" s="2"/>
+      <c r="BHI8" s="2"/>
+      <c r="BHJ8" s="1"/>
+      <c r="BHK8" s="1"/>
+      <c r="BHL8" s="2"/>
+      <c r="BHM8" s="2"/>
+      <c r="BHN8" s="1"/>
+      <c r="BHO8" s="1"/>
+      <c r="BHP8" s="2"/>
+      <c r="BHQ8" s="2"/>
+      <c r="BHR8" s="1"/>
+      <c r="BHS8" s="1"/>
+      <c r="BHT8" s="2"/>
+      <c r="BHU8" s="2"/>
+      <c r="BHV8" s="1"/>
+      <c r="BHW8" s="1"/>
+      <c r="BHX8" s="2"/>
+      <c r="BHY8" s="2"/>
+      <c r="BHZ8" s="1"/>
+      <c r="BIA8" s="1"/>
+      <c r="BIB8" s="2"/>
+      <c r="BIC8" s="2"/>
+      <c r="BID8" s="1"/>
+      <c r="BIE8" s="1"/>
+      <c r="BIF8" s="2"/>
+      <c r="BIG8" s="2"/>
+      <c r="BIH8" s="1"/>
+      <c r="BII8" s="1"/>
+      <c r="BIJ8" s="2"/>
+      <c r="BIK8" s="2"/>
+      <c r="BIL8" s="1"/>
+      <c r="BIM8" s="1"/>
+      <c r="BIN8" s="2"/>
+      <c r="BIO8" s="2"/>
+      <c r="BIP8" s="1"/>
+      <c r="BIQ8" s="1"/>
+      <c r="BIR8" s="2"/>
+      <c r="BIS8" s="2"/>
+      <c r="BIT8" s="1"/>
+      <c r="BIU8" s="1"/>
+      <c r="BIV8" s="2"/>
+      <c r="BIW8" s="2"/>
+      <c r="BIX8" s="1"/>
+      <c r="BIY8" s="1"/>
+      <c r="BIZ8" s="2"/>
+      <c r="BJA8" s="2"/>
+      <c r="BJB8" s="1"/>
+      <c r="BJC8" s="1"/>
+      <c r="BJD8" s="2"/>
+      <c r="BJE8" s="2"/>
+      <c r="BJF8" s="1"/>
+      <c r="BJG8" s="1"/>
+      <c r="BJH8" s="2"/>
+      <c r="BJI8" s="2"/>
+      <c r="BJJ8" s="1"/>
+      <c r="BJK8" s="1"/>
+      <c r="BJL8" s="2"/>
+      <c r="BJM8" s="2"/>
+      <c r="BJN8" s="1"/>
+      <c r="BJO8" s="1"/>
+      <c r="BJP8" s="2"/>
+      <c r="BJQ8" s="2"/>
+      <c r="BJR8" s="1"/>
+      <c r="BJS8" s="1"/>
+      <c r="BJT8" s="2"/>
+      <c r="BJU8" s="2"/>
+      <c r="BJV8" s="1"/>
+      <c r="BJW8" s="1"/>
+      <c r="BJX8" s="2"/>
+      <c r="BJY8" s="2"/>
+      <c r="BJZ8" s="1"/>
+      <c r="BKA8" s="1"/>
+      <c r="BKB8" s="2"/>
+      <c r="BKC8" s="2"/>
+      <c r="BKD8" s="1"/>
+      <c r="BKE8" s="1"/>
+      <c r="BKF8" s="2"/>
+      <c r="BKG8" s="2"/>
+      <c r="BKH8" s="1"/>
+      <c r="BKI8" s="1"/>
+      <c r="BKJ8" s="2"/>
+      <c r="BKK8" s="2"/>
+      <c r="BKL8" s="1"/>
+      <c r="BKM8" s="1"/>
+      <c r="BKN8" s="2"/>
+      <c r="BKO8" s="2"/>
+      <c r="BKP8" s="1"/>
+      <c r="BKQ8" s="1"/>
+      <c r="BKR8" s="2"/>
+      <c r="BKS8" s="2"/>
+      <c r="BKT8" s="1"/>
+      <c r="BKU8" s="1"/>
+      <c r="BKV8" s="2"/>
+      <c r="BKW8" s="2"/>
+      <c r="BKX8" s="1"/>
+      <c r="BKY8" s="1"/>
+      <c r="BKZ8" s="2"/>
+      <c r="BLA8" s="2"/>
+      <c r="BLB8" s="1"/>
+      <c r="BLC8" s="1"/>
+      <c r="BLD8" s="2"/>
+      <c r="BLE8" s="2"/>
+      <c r="BLF8" s="1"/>
+      <c r="BLG8" s="1"/>
+      <c r="BLH8" s="2"/>
+      <c r="BLI8" s="2"/>
+      <c r="BLJ8" s="1"/>
+      <c r="BLK8" s="1"/>
+      <c r="BLL8" s="2"/>
+      <c r="BLM8" s="2"/>
+      <c r="BLN8" s="1"/>
+      <c r="BLO8" s="1"/>
+      <c r="BLP8" s="2"/>
+      <c r="BLQ8" s="2"/>
+      <c r="BLR8" s="1"/>
+      <c r="BLS8" s="1"/>
+      <c r="BLT8" s="2"/>
+      <c r="BLU8" s="2"/>
+      <c r="BLV8" s="1"/>
+      <c r="BLW8" s="1"/>
+      <c r="BLX8" s="2"/>
+      <c r="BLY8" s="2"/>
+      <c r="BLZ8" s="1"/>
+      <c r="BMA8" s="1"/>
+      <c r="BMB8" s="2"/>
+      <c r="BMC8" s="2"/>
+      <c r="BMD8" s="1"/>
+      <c r="BME8" s="1"/>
+      <c r="BMF8" s="2"/>
+      <c r="BMG8" s="2"/>
+      <c r="BMH8" s="1"/>
+      <c r="BMI8" s="1"/>
+      <c r="BMJ8" s="2"/>
+      <c r="BMK8" s="2"/>
+      <c r="BML8" s="1"/>
+      <c r="BMM8" s="1"/>
+      <c r="BMN8" s="2"/>
+      <c r="BMO8" s="2"/>
+      <c r="BMP8" s="1"/>
+      <c r="BMQ8" s="1"/>
+      <c r="BMR8" s="2"/>
+      <c r="BMS8" s="2"/>
+      <c r="BMT8" s="1"/>
+      <c r="BMU8" s="1"/>
+      <c r="BMV8" s="2"/>
+      <c r="BMW8" s="2"/>
+      <c r="BMX8" s="1"/>
+      <c r="BMY8" s="1"/>
+      <c r="BMZ8" s="2"/>
+      <c r="BNA8" s="2"/>
+      <c r="BNB8" s="1"/>
+      <c r="BNC8" s="1"/>
+      <c r="BND8" s="2"/>
+      <c r="BNE8" s="2"/>
+      <c r="BNF8" s="1"/>
+      <c r="BNG8" s="1"/>
+      <c r="BNH8" s="2"/>
+      <c r="BNI8" s="2"/>
+      <c r="BNJ8" s="1"/>
+      <c r="BNK8" s="1"/>
+      <c r="BNL8" s="2"/>
+      <c r="BNM8" s="2"/>
+      <c r="BNN8" s="1"/>
+      <c r="BNO8" s="1"/>
+      <c r="BNP8" s="2"/>
+      <c r="BNQ8" s="2"/>
+      <c r="BNR8" s="1"/>
+      <c r="BNS8" s="1"/>
+      <c r="BNT8" s="2"/>
+      <c r="BNU8" s="2"/>
+      <c r="BNV8" s="1"/>
+      <c r="BNW8" s="1"/>
+      <c r="BNX8" s="2"/>
+      <c r="BNY8" s="2"/>
+      <c r="BNZ8" s="1"/>
+      <c r="BOA8" s="1"/>
+      <c r="BOB8" s="2"/>
+      <c r="BOC8" s="2"/>
+      <c r="BOD8" s="1"/>
+      <c r="BOE8" s="1"/>
+      <c r="BOF8" s="2"/>
+      <c r="BOG8" s="2"/>
+      <c r="BOH8" s="1"/>
+      <c r="BOI8" s="1"/>
+      <c r="BOJ8" s="2"/>
+      <c r="BOK8" s="2"/>
+      <c r="BOL8" s="1"/>
+      <c r="BOM8" s="1"/>
+      <c r="BON8" s="2"/>
+      <c r="BOO8" s="2"/>
+      <c r="BOP8" s="1"/>
+      <c r="BOQ8" s="1"/>
+      <c r="BOR8" s="2"/>
+      <c r="BOS8" s="2"/>
+      <c r="BOT8" s="1"/>
+      <c r="BOU8" s="1"/>
+      <c r="BOV8" s="2"/>
+      <c r="BOW8" s="2"/>
+      <c r="BOX8" s="1"/>
+      <c r="BOY8" s="1"/>
+      <c r="BOZ8" s="2"/>
+      <c r="BPA8" s="2"/>
+      <c r="BPB8" s="1"/>
+      <c r="BPC8" s="1"/>
+      <c r="BPD8" s="2"/>
+      <c r="BPE8" s="2"/>
+      <c r="BPF8" s="1"/>
+      <c r="BPG8" s="1"/>
+      <c r="BPH8" s="2"/>
+      <c r="BPI8" s="2"/>
+      <c r="BPJ8" s="1"/>
+      <c r="BPK8" s="1"/>
+      <c r="BPL8" s="2"/>
+      <c r="BPM8" s="2"/>
+      <c r="BPN8" s="1"/>
+      <c r="BPO8" s="1"/>
+      <c r="BPP8" s="2"/>
+      <c r="BPQ8" s="2"/>
+      <c r="BPR8" s="1"/>
+      <c r="BPS8" s="1"/>
+      <c r="BPT8" s="2"/>
+      <c r="BPU8" s="2"/>
+      <c r="BPV8" s="1"/>
+      <c r="BPW8" s="1"/>
+      <c r="BPX8" s="2"/>
+      <c r="BPY8" s="2"/>
+      <c r="BPZ8" s="1"/>
+      <c r="BQA8" s="1"/>
+      <c r="BQB8" s="2"/>
+      <c r="BQC8" s="2"/>
+      <c r="BQD8" s="1"/>
+      <c r="BQE8" s="1"/>
+      <c r="BQF8" s="2"/>
+      <c r="BQG8" s="2"/>
+      <c r="BQH8" s="1"/>
+      <c r="BQI8" s="1"/>
+      <c r="BQJ8" s="2"/>
+      <c r="BQK8" s="2"/>
+      <c r="BQL8" s="1"/>
+      <c r="BQM8" s="1"/>
+      <c r="BQN8" s="2"/>
+      <c r="BQO8" s="2"/>
+      <c r="BQP8" s="1"/>
+      <c r="BQQ8" s="1"/>
+      <c r="BQR8" s="2"/>
+      <c r="BQS8" s="2"/>
+      <c r="BQT8" s="1"/>
+      <c r="BQU8" s="1"/>
+      <c r="BQV8" s="2"/>
+      <c r="BQW8" s="2"/>
+      <c r="BQX8" s="1"/>
+      <c r="BQY8" s="1"/>
+      <c r="BQZ8" s="2"/>
+      <c r="BRA8" s="2"/>
+      <c r="BRB8" s="1"/>
+      <c r="BRC8" s="1"/>
+      <c r="BRD8" s="2"/>
+      <c r="BRE8" s="2"/>
+      <c r="BRF8" s="1"/>
+      <c r="BRG8" s="1"/>
+      <c r="BRH8" s="2"/>
+      <c r="BRI8" s="2"/>
+      <c r="BRJ8" s="1"/>
+      <c r="BRK8" s="1"/>
+      <c r="BRL8" s="2"/>
+      <c r="BRM8" s="2"/>
+      <c r="BRN8" s="1"/>
+      <c r="BRO8" s="1"/>
+      <c r="BRP8" s="2"/>
+      <c r="BRQ8" s="2"/>
+      <c r="BRR8" s="1"/>
+      <c r="BRS8" s="1"/>
+      <c r="BRT8" s="2"/>
+      <c r="BRU8" s="2"/>
+      <c r="BRV8" s="1"/>
+      <c r="BRW8" s="1"/>
+      <c r="BRX8" s="2"/>
+      <c r="BRY8" s="2"/>
+      <c r="BRZ8" s="1"/>
+      <c r="BSA8" s="1"/>
+      <c r="BSB8" s="2"/>
+      <c r="BSC8" s="2"/>
+      <c r="BSD8" s="1"/>
+      <c r="BSE8" s="1"/>
+      <c r="BSF8" s="2"/>
+      <c r="BSG8" s="2"/>
+      <c r="BSH8" s="1"/>
+      <c r="BSI8" s="1"/>
+      <c r="BSJ8" s="2"/>
+      <c r="BSK8" s="2"/>
+      <c r="BSL8" s="1"/>
+      <c r="BSM8" s="1"/>
+      <c r="BSN8" s="2"/>
+      <c r="BSO8" s="2"/>
+      <c r="BSP8" s="1"/>
+      <c r="BSQ8" s="1"/>
+      <c r="BSR8" s="2"/>
+      <c r="BSS8" s="2"/>
+      <c r="BST8" s="1"/>
+      <c r="BSU8" s="1"/>
+      <c r="BSV8" s="2"/>
+      <c r="BSW8" s="2"/>
+      <c r="BSX8" s="1"/>
+      <c r="BSY8" s="1"/>
+      <c r="BSZ8" s="2"/>
+      <c r="BTA8" s="2"/>
+      <c r="BTB8" s="1"/>
+      <c r="BTC8" s="1"/>
+      <c r="BTD8" s="2"/>
+      <c r="BTE8" s="2"/>
+      <c r="BTF8" s="1"/>
+      <c r="BTG8" s="1"/>
+      <c r="BTH8" s="2"/>
+      <c r="BTI8" s="2"/>
+      <c r="BTJ8" s="1"/>
+      <c r="BTK8" s="1"/>
+      <c r="BTL8" s="2"/>
+      <c r="BTM8" s="2"/>
+      <c r="BTN8" s="1"/>
+      <c r="BTO8" s="1"/>
+      <c r="BTP8" s="2"/>
+      <c r="BTQ8" s="2"/>
+      <c r="BTR8" s="1"/>
+      <c r="BTS8" s="1"/>
+      <c r="BTT8" s="2"/>
+      <c r="BTU8" s="2"/>
+      <c r="BTV8" s="1"/>
+      <c r="BTW8" s="1"/>
+      <c r="BTX8" s="2"/>
+      <c r="BTY8" s="2"/>
+      <c r="BTZ8" s="1"/>
+      <c r="BUA8" s="1"/>
+      <c r="BUB8" s="2"/>
+      <c r="BUC8" s="2"/>
+      <c r="BUD8" s="1"/>
+      <c r="BUE8" s="1"/>
+      <c r="BUF8" s="2"/>
+      <c r="BUG8" s="2"/>
+      <c r="BUH8" s="1"/>
+      <c r="BUI8" s="1"/>
+      <c r="BUJ8" s="2"/>
+      <c r="BUK8" s="2"/>
+      <c r="BUL8" s="1"/>
+      <c r="BUM8" s="1"/>
+      <c r="BUN8" s="2"/>
+      <c r="BUO8" s="2"/>
+      <c r="BUP8" s="1"/>
+      <c r="BUQ8" s="1"/>
+      <c r="BUR8" s="2"/>
+      <c r="BUS8" s="2"/>
+      <c r="BUT8" s="1"/>
+      <c r="BUU8" s="1"/>
+      <c r="BUV8" s="2"/>
+      <c r="BUW8" s="2"/>
+      <c r="BUX8" s="1"/>
+      <c r="BUY8" s="1"/>
+      <c r="BUZ8" s="2"/>
+      <c r="BVA8" s="2"/>
+      <c r="BVB8" s="1"/>
+      <c r="BVC8" s="1"/>
+      <c r="BVD8" s="2"/>
+      <c r="BVE8" s="2"/>
+      <c r="BVF8" s="1"/>
+      <c r="BVG8" s="1"/>
+      <c r="BVH8" s="2"/>
+      <c r="BVI8" s="2"/>
+      <c r="BVJ8" s="1"/>
+      <c r="BVK8" s="1"/>
+      <c r="BVL8" s="2"/>
+      <c r="BVM8" s="2"/>
+      <c r="BVN8" s="1"/>
+      <c r="BVO8" s="1"/>
+      <c r="BVP8" s="2"/>
+      <c r="BVQ8" s="2"/>
+      <c r="BVR8" s="1"/>
+      <c r="BVS8" s="1"/>
+      <c r="BVT8" s="2"/>
+      <c r="BVU8" s="2"/>
+      <c r="BVV8" s="1"/>
+      <c r="BVW8" s="1"/>
+      <c r="BVX8" s="2"/>
+      <c r="BVY8" s="2"/>
+      <c r="BVZ8" s="1"/>
+      <c r="BWA8" s="1"/>
+      <c r="BWB8" s="2"/>
+      <c r="BWC8" s="2"/>
+      <c r="BWD8" s="1"/>
+      <c r="BWE8" s="1"/>
+      <c r="BWF8" s="2"/>
+      <c r="BWG8" s="2"/>
+      <c r="BWH8" s="1"/>
+      <c r="BWI8" s="1"/>
+      <c r="BWJ8" s="2"/>
+      <c r="BWK8" s="2"/>
+      <c r="BWL8" s="1"/>
+      <c r="BWM8" s="1"/>
+      <c r="BWN8" s="2"/>
+      <c r="BWO8" s="2"/>
+      <c r="BWP8" s="1"/>
+      <c r="BWQ8" s="1"/>
+      <c r="BWR8" s="2"/>
+      <c r="BWS8" s="2"/>
+      <c r="BWT8" s="1"/>
+      <c r="BWU8" s="1"/>
+      <c r="BWV8" s="2"/>
+      <c r="BWW8" s="2"/>
+      <c r="BWX8" s="1"/>
+      <c r="BWY8" s="1"/>
+      <c r="BWZ8" s="2"/>
+      <c r="BXA8" s="2"/>
+      <c r="BXB8" s="1"/>
+      <c r="BXC8" s="1"/>
+      <c r="BXD8" s="2"/>
+      <c r="BXE8" s="2"/>
+      <c r="BXF8" s="1"/>
+      <c r="BXG8" s="1"/>
+      <c r="BXH8" s="2"/>
+      <c r="BXI8" s="2"/>
+      <c r="BXJ8" s="1"/>
+      <c r="BXK8" s="1"/>
+      <c r="BXL8" s="2"/>
+      <c r="BXM8" s="2"/>
+      <c r="BXN8" s="1"/>
+      <c r="BXO8" s="1"/>
+      <c r="BXP8" s="2"/>
+      <c r="BXQ8" s="2"/>
+      <c r="BXR8" s="1"/>
+      <c r="BXS8" s="1"/>
+      <c r="BXT8" s="2"/>
+      <c r="BXU8" s="2"/>
+      <c r="BXV8" s="1"/>
+      <c r="BXW8" s="1"/>
+      <c r="BXX8" s="2"/>
+      <c r="BXY8" s="2"/>
+      <c r="BXZ8" s="1"/>
+      <c r="BYA8" s="1"/>
+      <c r="BYB8" s="2"/>
+      <c r="BYC8" s="2"/>
+      <c r="BYD8" s="1"/>
+      <c r="BYE8" s="1"/>
+      <c r="BYF8" s="2"/>
+      <c r="BYG8" s="2"/>
+      <c r="BYH8" s="1"/>
+      <c r="BYI8" s="1"/>
+      <c r="BYJ8" s="2"/>
+      <c r="BYK8" s="2"/>
+      <c r="BYL8" s="1"/>
+      <c r="BYM8" s="1"/>
+      <c r="BYN8" s="2"/>
+      <c r="BYO8" s="2"/>
+      <c r="BYP8" s="1"/>
+      <c r="BYQ8" s="1"/>
+      <c r="BYR8" s="2"/>
+      <c r="BYS8" s="2"/>
+      <c r="BYT8" s="1"/>
+      <c r="BYU8" s="1"/>
+      <c r="BYV8" s="2"/>
+      <c r="BYW8" s="2"/>
+      <c r="BYX8" s="1"/>
+      <c r="BYY8" s="1"/>
+      <c r="BYZ8" s="2"/>
+      <c r="BZA8" s="2"/>
+      <c r="BZB8" s="1"/>
+      <c r="BZC8" s="1"/>
+      <c r="BZD8" s="2"/>
+      <c r="BZE8" s="2"/>
+      <c r="BZF8" s="1"/>
+      <c r="BZG8" s="1"/>
+      <c r="BZH8" s="2"/>
+      <c r="BZI8" s="2"/>
+      <c r="BZJ8" s="1"/>
+      <c r="BZK8" s="1"/>
+      <c r="BZL8" s="2"/>
+      <c r="BZM8" s="2"/>
+      <c r="BZN8" s="1"/>
+      <c r="BZO8" s="1"/>
+      <c r="BZP8" s="2"/>
+      <c r="BZQ8" s="2"/>
+      <c r="BZR8" s="1"/>
+      <c r="BZS8" s="1"/>
+      <c r="BZT8" s="2"/>
+      <c r="BZU8" s="2"/>
+      <c r="BZV8" s="1"/>
+      <c r="BZW8" s="1"/>
+      <c r="BZX8" s="2"/>
+      <c r="BZY8" s="2"/>
+      <c r="BZZ8" s="1"/>
+      <c r="CAA8" s="1"/>
+      <c r="CAB8" s="2"/>
+      <c r="CAC8" s="2"/>
+      <c r="CAD8" s="1"/>
+      <c r="CAE8" s="1"/>
+      <c r="CAF8" s="2"/>
+      <c r="CAG8" s="2"/>
+      <c r="CAH8" s="1"/>
+      <c r="CAI8" s="1"/>
+      <c r="CAJ8" s="2"/>
+      <c r="CAK8" s="2"/>
+      <c r="CAL8" s="1"/>
+      <c r="CAM8" s="1"/>
+      <c r="CAN8" s="2"/>
+      <c r="CAO8" s="2"/>
+      <c r="CAP8" s="1"/>
+      <c r="CAQ8" s="1"/>
+      <c r="CAR8" s="2"/>
+      <c r="CAS8" s="2"/>
+      <c r="CAT8" s="1"/>
+      <c r="CAU8" s="1"/>
+      <c r="CAV8" s="2"/>
+      <c r="CAW8" s="2"/>
+      <c r="CAX8" s="1"/>
+      <c r="CAY8" s="1"/>
+      <c r="CAZ8" s="2"/>
+      <c r="CBA8" s="2"/>
+      <c r="CBB8" s="1"/>
+      <c r="CBC8" s="1"/>
+      <c r="CBD8" s="2"/>
+      <c r="CBE8" s="2"/>
+      <c r="CBF8" s="1"/>
+      <c r="CBG8" s="1"/>
+      <c r="CBH8" s="2"/>
+      <c r="CBI8" s="2"/>
+      <c r="CBJ8" s="1"/>
+      <c r="CBK8" s="1"/>
+      <c r="CBL8" s="2"/>
+      <c r="CBM8" s="2"/>
+      <c r="CBN8" s="1"/>
+      <c r="CBO8" s="1"/>
+      <c r="CBP8" s="2"/>
+      <c r="CBQ8" s="2"/>
+      <c r="CBR8" s="1"/>
+      <c r="CBS8" s="1"/>
+      <c r="CBT8" s="2"/>
+      <c r="CBU8" s="2"/>
+      <c r="CBV8" s="1"/>
+      <c r="CBW8" s="1"/>
+      <c r="CBX8" s="2"/>
+      <c r="CBY8" s="2"/>
+      <c r="CBZ8" s="1"/>
+      <c r="CCA8" s="1"/>
+      <c r="CCB8" s="2"/>
+      <c r="CCC8" s="2"/>
+      <c r="CCD8" s="1"/>
+      <c r="CCE8" s="1"/>
+      <c r="CCF8" s="2"/>
+      <c r="CCG8" s="2"/>
+      <c r="CCH8" s="1"/>
+      <c r="CCI8" s="1"/>
+      <c r="CCJ8" s="2"/>
+      <c r="CCK8" s="2"/>
+      <c r="CCL8" s="1"/>
+      <c r="CCM8" s="1"/>
+      <c r="CCN8" s="2"/>
+      <c r="CCO8" s="2"/>
+      <c r="CCP8" s="1"/>
+      <c r="CCQ8" s="1"/>
+      <c r="CCR8" s="2"/>
+      <c r="CCS8" s="2"/>
+      <c r="CCT8" s="1"/>
+      <c r="CCU8" s="1"/>
+      <c r="CCV8" s="2"/>
+      <c r="CCW8" s="2"/>
+      <c r="CCX8" s="1"/>
+      <c r="CCY8" s="1"/>
+      <c r="CCZ8" s="2"/>
+      <c r="CDA8" s="2"/>
+      <c r="CDB8" s="1"/>
+      <c r="CDC8" s="1"/>
+      <c r="CDD8" s="2"/>
+      <c r="CDE8" s="2"/>
+      <c r="CDF8" s="1"/>
+      <c r="CDG8" s="1"/>
+      <c r="CDH8" s="2"/>
+      <c r="CDI8" s="2"/>
+      <c r="CDJ8" s="1"/>
+      <c r="CDK8" s="1"/>
+      <c r="CDL8" s="2"/>
+      <c r="CDM8" s="2"/>
+      <c r="CDN8" s="1"/>
+      <c r="CDO8" s="1"/>
+      <c r="CDP8" s="2"/>
+      <c r="CDQ8" s="2"/>
+      <c r="CDR8" s="1"/>
+      <c r="CDS8" s="1"/>
+      <c r="CDT8" s="2"/>
+      <c r="CDU8" s="2"/>
+      <c r="CDV8" s="1"/>
+      <c r="CDW8" s="1"/>
+      <c r="CDX8" s="2"/>
+      <c r="CDY8" s="2"/>
+      <c r="CDZ8" s="1"/>
+      <c r="CEA8" s="1"/>
+      <c r="CEB8" s="2"/>
+      <c r="CEC8" s="2"/>
+      <c r="CED8" s="1"/>
+      <c r="CEE8" s="1"/>
+      <c r="CEF8" s="2"/>
+      <c r="CEG8" s="2"/>
+      <c r="CEH8" s="1"/>
+      <c r="CEI8" s="1"/>
+      <c r="CEJ8" s="2"/>
+      <c r="CEK8" s="2"/>
+      <c r="CEL8" s="1"/>
+      <c r="CEM8" s="1"/>
+      <c r="CEN8" s="2"/>
+      <c r="CEO8" s="2"/>
+      <c r="CEP8" s="1"/>
+      <c r="CEQ8" s="1"/>
+      <c r="CER8" s="2"/>
+      <c r="CES8" s="2"/>
+      <c r="CET8" s="1"/>
+      <c r="CEU8" s="1"/>
+      <c r="CEV8" s="2"/>
+      <c r="CEW8" s="2"/>
+      <c r="CEX8" s="1"/>
+      <c r="CEY8" s="1"/>
+      <c r="CEZ8" s="2"/>
+      <c r="CFA8" s="2"/>
+      <c r="CFB8" s="1"/>
+      <c r="CFC8" s="1"/>
+      <c r="CFD8" s="2"/>
+      <c r="CFE8" s="2"/>
+      <c r="CFF8" s="1"/>
+      <c r="CFG8" s="1"/>
+      <c r="CFH8" s="2"/>
+      <c r="CFI8" s="2"/>
+      <c r="CFJ8" s="1"/>
+      <c r="CFK8" s="1"/>
+      <c r="CFL8" s="2"/>
+      <c r="CFM8" s="2"/>
+      <c r="CFN8" s="1"/>
+      <c r="CFO8" s="1"/>
+      <c r="CFP8" s="2"/>
+      <c r="CFQ8" s="2"/>
+      <c r="CFR8" s="1"/>
+      <c r="CFS8" s="1"/>
+      <c r="CFT8" s="2"/>
+      <c r="CFU8" s="2"/>
+      <c r="CFV8" s="1"/>
+      <c r="CFW8" s="1"/>
+      <c r="CFX8" s="2"/>
+      <c r="CFY8" s="2"/>
+      <c r="CFZ8" s="1"/>
+      <c r="CGA8" s="1"/>
+      <c r="CGB8" s="2"/>
+      <c r="CGC8" s="2"/>
+      <c r="CGD8" s="1"/>
+      <c r="CGE8" s="1"/>
+      <c r="CGF8" s="2"/>
+      <c r="CGG8" s="2"/>
+      <c r="CGH8" s="1"/>
+      <c r="CGI8" s="1"/>
+      <c r="CGJ8" s="2"/>
+      <c r="CGK8" s="2"/>
+      <c r="CGL8" s="1"/>
+      <c r="CGM8" s="1"/>
+      <c r="CGN8" s="2"/>
+      <c r="CGO8" s="2"/>
+      <c r="CGP8" s="1"/>
+      <c r="CGQ8" s="1"/>
+      <c r="CGR8" s="2"/>
+      <c r="CGS8" s="2"/>
+      <c r="CGT8" s="1"/>
+      <c r="CGU8" s="1"/>
+      <c r="CGV8" s="2"/>
+      <c r="CGW8" s="2"/>
+      <c r="CGX8" s="1"/>
+      <c r="CGY8" s="1"/>
+      <c r="CGZ8" s="2"/>
+      <c r="CHA8" s="2"/>
+      <c r="CHB8" s="1"/>
+      <c r="CHC8" s="1"/>
+      <c r="CHD8" s="2"/>
+      <c r="CHE8" s="2"/>
+      <c r="CHF8" s="1"/>
+      <c r="CHG8" s="1"/>
+      <c r="CHH8" s="2"/>
+      <c r="CHI8" s="2"/>
+      <c r="CHJ8" s="1"/>
+      <c r="CHK8" s="1"/>
+      <c r="CHL8" s="2"/>
+      <c r="CHM8" s="2"/>
+      <c r="CHN8" s="1"/>
+      <c r="CHO8" s="1"/>
+      <c r="CHP8" s="2"/>
+      <c r="CHQ8" s="2"/>
+      <c r="CHR8" s="1"/>
+      <c r="CHS8" s="1"/>
+      <c r="CHT8" s="2"/>
+      <c r="CHU8" s="2"/>
+      <c r="CHV8" s="1"/>
+      <c r="CHW8" s="1"/>
+      <c r="CHX8" s="2"/>
+      <c r="CHY8" s="2"/>
+      <c r="CHZ8" s="1"/>
+      <c r="CIA8" s="1"/>
+      <c r="CIB8" s="2"/>
+      <c r="CIC8" s="2"/>
+      <c r="CID8" s="1"/>
+      <c r="CIE8" s="1"/>
+      <c r="CIF8" s="2"/>
+      <c r="CIG8" s="2"/>
+      <c r="CIH8" s="1"/>
+      <c r="CII8" s="1"/>
+      <c r="CIJ8" s="2"/>
+      <c r="CIK8" s="2"/>
+      <c r="CIL8" s="1"/>
+      <c r="CIM8" s="1"/>
+      <c r="CIN8" s="2"/>
+      <c r="CIO8" s="2"/>
+      <c r="CIP8" s="1"/>
+      <c r="CIQ8" s="1"/>
+      <c r="CIR8" s="2"/>
+      <c r="CIS8" s="2"/>
+      <c r="CIT8" s="1"/>
+      <c r="CIU8" s="1"/>
+      <c r="CIV8" s="2"/>
+      <c r="CIW8" s="2"/>
+      <c r="CIX8" s="1"/>
+      <c r="CIY8" s="1"/>
+      <c r="CIZ8" s="2"/>
+      <c r="CJA8" s="2"/>
+      <c r="CJB8" s="1"/>
+      <c r="CJC8" s="1"/>
+      <c r="CJD8" s="2"/>
+      <c r="CJE8" s="2"/>
+      <c r="CJF8" s="1"/>
+      <c r="CJG8" s="1"/>
+      <c r="CJH8" s="2"/>
+      <c r="CJI8" s="2"/>
+      <c r="CJJ8" s="1"/>
+      <c r="CJK8" s="1"/>
+      <c r="CJL8" s="2"/>
+      <c r="CJM8" s="2"/>
+      <c r="CJN8" s="1"/>
+      <c r="CJO8" s="1"/>
+      <c r="CJP8" s="2"/>
+      <c r="CJQ8" s="2"/>
+      <c r="CJR8" s="1"/>
+      <c r="CJS8" s="1"/>
+      <c r="CJT8" s="2"/>
+      <c r="CJU8" s="2"/>
+      <c r="CJV8" s="1"/>
+      <c r="CJW8" s="1"/>
+      <c r="CJX8" s="2"/>
+      <c r="CJY8" s="2"/>
+      <c r="CJZ8" s="1"/>
+      <c r="CKA8" s="1"/>
+      <c r="CKB8" s="2"/>
+      <c r="CKC8" s="2"/>
+      <c r="CKD8" s="1"/>
+      <c r="CKE8" s="1"/>
+      <c r="CKF8" s="2"/>
+      <c r="CKG8" s="2"/>
+      <c r="CKH8" s="1"/>
+      <c r="CKI8" s="1"/>
+      <c r="CKJ8" s="2"/>
+      <c r="CKK8" s="2"/>
+      <c r="CKL8" s="1"/>
+      <c r="CKM8" s="1"/>
+      <c r="CKN8" s="2"/>
+      <c r="CKO8" s="2"/>
+      <c r="CKP8" s="1"/>
+      <c r="CKQ8" s="1"/>
+      <c r="CKR8" s="2"/>
+      <c r="CKS8" s="2"/>
+      <c r="CKT8" s="1"/>
+      <c r="CKU8" s="1"/>
+      <c r="CKV8" s="2"/>
+      <c r="CKW8" s="2"/>
+      <c r="CKX8" s="1"/>
+      <c r="CKY8" s="1"/>
+      <c r="CKZ8" s="2"/>
+      <c r="CLA8" s="2"/>
+      <c r="CLB8" s="1"/>
+      <c r="CLC8" s="1"/>
+      <c r="CLD8" s="2"/>
+      <c r="CLE8" s="2"/>
+      <c r="CLF8" s="1"/>
+      <c r="CLG8" s="1"/>
+      <c r="CLH8" s="2"/>
+      <c r="CLI8" s="2"/>
+      <c r="CLJ8" s="1"/>
+      <c r="CLK8" s="1"/>
+      <c r="CLL8" s="2"/>
+      <c r="CLM8" s="2"/>
+      <c r="CLN8" s="1"/>
+      <c r="CLO8" s="1"/>
+      <c r="CLP8" s="2"/>
+      <c r="CLQ8" s="2"/>
+      <c r="CLR8" s="1"/>
+      <c r="CLS8" s="1"/>
+      <c r="CLT8" s="2"/>
+      <c r="CLU8" s="2"/>
+      <c r="CLV8" s="1"/>
+      <c r="CLW8" s="1"/>
+      <c r="CLX8" s="2"/>
+      <c r="CLY8" s="2"/>
+      <c r="CLZ8" s="1"/>
+      <c r="CMA8" s="1"/>
+      <c r="CMB8" s="2"/>
+      <c r="CMC8" s="2"/>
+      <c r="CMD8" s="1"/>
+      <c r="CME8" s="1"/>
+      <c r="CMF8" s="2"/>
+      <c r="CMG8" s="2"/>
+      <c r="CMH8" s="1"/>
+      <c r="CMI8" s="1"/>
+      <c r="CMJ8" s="2"/>
+      <c r="CMK8" s="2"/>
+      <c r="CML8" s="1"/>
+      <c r="CMM8" s="1"/>
+      <c r="CMN8" s="2"/>
+      <c r="CMO8" s="2"/>
+      <c r="CMP8" s="1"/>
+      <c r="CMQ8" s="1"/>
+      <c r="CMR8" s="2"/>
+      <c r="CMS8" s="2"/>
+      <c r="CMT8" s="1"/>
+      <c r="CMU8" s="1"/>
+      <c r="CMV8" s="2"/>
+      <c r="CMW8" s="2"/>
+      <c r="CMX8" s="1"/>
+      <c r="CMY8" s="1"/>
+      <c r="CMZ8" s="2"/>
+      <c r="CNA8" s="2"/>
+      <c r="CNB8" s="1"/>
+      <c r="CNC8" s="1"/>
+      <c r="CND8" s="2"/>
+      <c r="CNE8" s="2"/>
+      <c r="CNF8" s="1"/>
+      <c r="CNG8" s="1"/>
+      <c r="CNH8" s="2"/>
+      <c r="CNI8" s="2"/>
+      <c r="CNJ8" s="1"/>
+      <c r="CNK8" s="1"/>
+      <c r="CNL8" s="2"/>
+      <c r="CNM8" s="2"/>
+      <c r="CNN8" s="1"/>
+      <c r="CNO8" s="1"/>
+      <c r="CNP8" s="2"/>
+      <c r="CNQ8" s="2"/>
+      <c r="CNR8" s="1"/>
+      <c r="CNS8" s="1"/>
+      <c r="CNT8" s="2"/>
+      <c r="CNU8" s="2"/>
+      <c r="CNV8" s="1"/>
+      <c r="CNW8" s="1"/>
+      <c r="CNX8" s="2"/>
+      <c r="CNY8" s="2"/>
+      <c r="CNZ8" s="1"/>
+      <c r="COA8" s="1"/>
+      <c r="COB8" s="2"/>
+      <c r="COC8" s="2"/>
+      <c r="COD8" s="1"/>
+      <c r="COE8" s="1"/>
+      <c r="COF8" s="2"/>
+      <c r="COG8" s="2"/>
+      <c r="COH8" s="1"/>
+      <c r="COI8" s="1"/>
+      <c r="COJ8" s="2"/>
+      <c r="COK8" s="2"/>
+      <c r="COL8" s="1"/>
+      <c r="COM8" s="1"/>
+      <c r="CON8" s="2"/>
+      <c r="COO8" s="2"/>
+      <c r="COP8" s="1"/>
+      <c r="COQ8" s="1"/>
+      <c r="COR8" s="2"/>
+      <c r="COS8" s="2"/>
+      <c r="COT8" s="1"/>
+      <c r="COU8" s="1"/>
+      <c r="COV8" s="2"/>
+      <c r="COW8" s="2"/>
+      <c r="COX8" s="1"/>
+      <c r="COY8" s="1"/>
+      <c r="COZ8" s="2"/>
+      <c r="CPA8" s="2"/>
+      <c r="CPB8" s="1"/>
+      <c r="CPC8" s="1"/>
+      <c r="CPD8" s="2"/>
+      <c r="CPE8" s="2"/>
+      <c r="CPF8" s="1"/>
+      <c r="CPG8" s="1"/>
+      <c r="CPH8" s="2"/>
+      <c r="CPI8" s="2"/>
+      <c r="CPJ8" s="1"/>
+      <c r="CPK8" s="1"/>
+      <c r="CPL8" s="2"/>
+      <c r="CPM8" s="2"/>
+      <c r="CPN8" s="1"/>
+      <c r="CPO8" s="1"/>
+      <c r="CPP8" s="2"/>
+      <c r="CPQ8" s="2"/>
+      <c r="CPR8" s="1"/>
+      <c r="CPS8" s="1"/>
+      <c r="CPT8" s="2"/>
+      <c r="CPU8" s="2"/>
+      <c r="CPV8" s="1"/>
+      <c r="CPW8" s="1"/>
+      <c r="CPX8" s="2"/>
+      <c r="CPY8" s="2"/>
+      <c r="CPZ8" s="1"/>
+      <c r="CQA8" s="1"/>
+      <c r="CQB8" s="2"/>
+      <c r="CQC8" s="2"/>
+      <c r="CQD8" s="1"/>
+      <c r="CQE8" s="1"/>
+      <c r="CQF8" s="2"/>
+      <c r="CQG8" s="2"/>
+      <c r="CQH8" s="1"/>
+      <c r="CQI8" s="1"/>
+      <c r="CQJ8" s="2"/>
+      <c r="CQK8" s="2"/>
+      <c r="CQL8" s="1"/>
+      <c r="CQM8" s="1"/>
+      <c r="CQN8" s="2"/>
+      <c r="CQO8" s="2"/>
+      <c r="CQP8" s="1"/>
+      <c r="CQQ8" s="1"/>
+      <c r="CQR8" s="2"/>
+      <c r="CQS8" s="2"/>
+      <c r="CQT8" s="1"/>
+      <c r="CQU8" s="1"/>
+      <c r="CQV8" s="2"/>
+      <c r="CQW8" s="2"/>
+      <c r="CQX8" s="1"/>
+      <c r="CQY8" s="1"/>
+      <c r="CQZ8" s="2"/>
+      <c r="CRA8" s="2"/>
+      <c r="CRB8" s="1"/>
+      <c r="CRC8" s="1"/>
+      <c r="CRD8" s="2"/>
+      <c r="CRE8" s="2"/>
+      <c r="CRF8" s="1"/>
+      <c r="CRG8" s="1"/>
+      <c r="CRH8" s="2"/>
+      <c r="CRI8" s="2"/>
+      <c r="CRJ8" s="1"/>
+      <c r="CRK8" s="1"/>
+      <c r="CRL8" s="2"/>
+      <c r="CRM8" s="2"/>
+      <c r="CRN8" s="1"/>
+      <c r="CRO8" s="1"/>
+      <c r="CRP8" s="2"/>
+      <c r="CRQ8" s="2"/>
+      <c r="CRR8" s="1"/>
+      <c r="CRS8" s="1"/>
+      <c r="CRT8" s="2"/>
+      <c r="CRU8" s="2"/>
+      <c r="CRV8" s="1"/>
+      <c r="CRW8" s="1"/>
+      <c r="CRX8" s="2"/>
+      <c r="CRY8" s="2"/>
+      <c r="CRZ8" s="1"/>
+      <c r="CSA8" s="1"/>
+      <c r="CSB8" s="2"/>
+      <c r="CSC8" s="2"/>
+      <c r="CSD8" s="1"/>
+      <c r="CSE8" s="1"/>
+      <c r="CSF8" s="2"/>
+      <c r="CSG8" s="2"/>
+      <c r="CSH8" s="1"/>
+      <c r="CSI8" s="1"/>
+      <c r="CSJ8" s="2"/>
+      <c r="CSK8" s="2"/>
+      <c r="CSL8" s="1"/>
+      <c r="CSM8" s="1"/>
+      <c r="CSN8" s="2"/>
+      <c r="CSO8" s="2"/>
+      <c r="CSP8" s="1"/>
+      <c r="CSQ8" s="1"/>
+      <c r="CSR8" s="2"/>
+      <c r="CSS8" s="2"/>
+      <c r="CST8" s="1"/>
+      <c r="CSU8" s="1"/>
+      <c r="CSV8" s="2"/>
+      <c r="CSW8" s="2"/>
+      <c r="CSX8" s="1"/>
+      <c r="CSY8" s="1"/>
+      <c r="CSZ8" s="2"/>
+      <c r="CTA8" s="2"/>
+      <c r="CTB8" s="1"/>
+      <c r="CTC8" s="1"/>
+      <c r="CTD8" s="2"/>
+      <c r="CTE8" s="2"/>
+      <c r="CTF8" s="1"/>
+      <c r="CTG8" s="1"/>
+      <c r="CTH8" s="2"/>
+      <c r="CTI8" s="2"/>
+      <c r="CTJ8" s="1"/>
+      <c r="CTK8" s="1"/>
+      <c r="CTL8" s="2"/>
+      <c r="CTM8" s="2"/>
+      <c r="CTN8" s="1"/>
+      <c r="CTO8" s="1"/>
+      <c r="CTP8" s="2"/>
+      <c r="CTQ8" s="2"/>
+      <c r="CTR8" s="1"/>
+      <c r="CTS8" s="1"/>
+      <c r="CTT8" s="2"/>
+      <c r="CTU8" s="2"/>
+      <c r="CTV8" s="1"/>
+      <c r="CTW8" s="1"/>
+      <c r="CTX8" s="2"/>
+      <c r="CTY8" s="2"/>
+      <c r="CTZ8" s="1"/>
+      <c r="CUA8" s="1"/>
+      <c r="CUB8" s="2"/>
+      <c r="CUC8" s="2"/>
+      <c r="CUD8" s="1"/>
+      <c r="CUE8" s="1"/>
+      <c r="CUF8" s="2"/>
+      <c r="CUG8" s="2"/>
+      <c r="CUH8" s="1"/>
+      <c r="CUI8" s="1"/>
+      <c r="CUJ8" s="2"/>
+      <c r="CUK8" s="2"/>
+      <c r="CUL8" s="1"/>
+      <c r="CUM8" s="1"/>
+      <c r="CUN8" s="2"/>
+      <c r="CUO8" s="2"/>
+      <c r="CUP8" s="1"/>
+      <c r="CUQ8" s="1"/>
+      <c r="CUR8" s="2"/>
+      <c r="CUS8" s="2"/>
+      <c r="CUT8" s="1"/>
+      <c r="CUU8" s="1"/>
+      <c r="CUV8" s="2"/>
+      <c r="CUW8" s="2"/>
+      <c r="CUX8" s="1"/>
+      <c r="CUY8" s="1"/>
+      <c r="CUZ8" s="2"/>
+      <c r="CVA8" s="2"/>
+      <c r="CVB8" s="1"/>
+      <c r="CVC8" s="1"/>
+      <c r="CVD8" s="2"/>
+      <c r="CVE8" s="2"/>
+      <c r="CVF8" s="1"/>
+      <c r="CVG8" s="1"/>
+      <c r="CVH8" s="2"/>
+      <c r="CVI8" s="2"/>
+      <c r="CVJ8" s="1"/>
+      <c r="CVK8" s="1"/>
+      <c r="CVL8" s="2"/>
+      <c r="CVM8" s="2"/>
+      <c r="CVN8" s="1"/>
+      <c r="CVO8" s="1"/>
+      <c r="CVP8" s="2"/>
+      <c r="CVQ8" s="2"/>
+      <c r="CVR8" s="1"/>
+      <c r="CVS8" s="1"/>
+      <c r="CVT8" s="2"/>
+      <c r="CVU8" s="2"/>
+      <c r="CVV8" s="1"/>
+      <c r="CVW8" s="1"/>
+      <c r="CVX8" s="2"/>
+      <c r="CVY8" s="2"/>
+      <c r="CVZ8" s="1"/>
+      <c r="CWA8" s="1"/>
+      <c r="CWB8" s="2"/>
+      <c r="CWC8" s="2"/>
+      <c r="CWD8" s="1"/>
+      <c r="CWE8" s="1"/>
+      <c r="CWF8" s="2"/>
+      <c r="CWG8" s="2"/>
+      <c r="CWH8" s="1"/>
+      <c r="CWI8" s="1"/>
+      <c r="CWJ8" s="2"/>
+      <c r="CWK8" s="2"/>
+      <c r="CWL8" s="1"/>
+      <c r="CWM8" s="1"/>
+      <c r="CWN8" s="2"/>
+      <c r="CWO8" s="2"/>
+      <c r="CWP8" s="1"/>
+      <c r="CWQ8" s="1"/>
+      <c r="CWR8" s="2"/>
+      <c r="CWS8" s="2"/>
+      <c r="CWT8" s="1"/>
+      <c r="CWU8" s="1"/>
+      <c r="CWV8" s="2"/>
+      <c r="CWW8" s="2"/>
+      <c r="CWX8" s="1"/>
+      <c r="CWY8" s="1"/>
+      <c r="CWZ8" s="2"/>
+      <c r="CXA8" s="2"/>
+      <c r="CXB8" s="1"/>
+      <c r="CXC8" s="1"/>
+      <c r="CXD8" s="2"/>
+      <c r="CXE8" s="2"/>
+      <c r="CXF8" s="1"/>
+      <c r="CXG8" s="1"/>
+      <c r="CXH8" s="2"/>
+      <c r="CXI8" s="2"/>
+      <c r="CXJ8" s="1"/>
+      <c r="CXK8" s="1"/>
+      <c r="CXL8" s="2"/>
+      <c r="CXM8" s="2"/>
+      <c r="CXN8" s="1"/>
+      <c r="CXO8" s="1"/>
+      <c r="CXP8" s="2"/>
+      <c r="CXQ8" s="2"/>
+      <c r="CXR8" s="1"/>
+      <c r="CXS8" s="1"/>
+      <c r="CXT8" s="2"/>
+      <c r="CXU8" s="2"/>
+      <c r="CXV8" s="1"/>
+      <c r="CXW8" s="1"/>
+      <c r="CXX8" s="2"/>
+      <c r="CXY8" s="2"/>
+      <c r="CXZ8" s="1"/>
+      <c r="CYA8" s="1"/>
+      <c r="CYB8" s="2"/>
+      <c r="CYC8" s="2"/>
+      <c r="CYD8" s="1"/>
+      <c r="CYE8" s="1"/>
+      <c r="CYF8" s="2"/>
+      <c r="CYG8" s="2"/>
+      <c r="CYH8" s="1"/>
+      <c r="CYI8" s="1"/>
+      <c r="CYJ8" s="2"/>
+      <c r="CYK8" s="2"/>
+      <c r="CYL8" s="1"/>
+      <c r="CYM8" s="1"/>
+      <c r="CYN8" s="2"/>
+      <c r="CYO8" s="2"/>
+      <c r="CYP8" s="1"/>
+      <c r="CYQ8" s="1"/>
+      <c r="CYR8" s="2"/>
+      <c r="CYS8" s="2"/>
+      <c r="CYT8" s="1"/>
+      <c r="CYU8" s="1"/>
+      <c r="CYV8" s="2"/>
+      <c r="CYW8" s="2"/>
+      <c r="CYX8" s="1"/>
+      <c r="CYY8" s="1"/>
+      <c r="CYZ8" s="2"/>
+      <c r="CZA8" s="2"/>
+      <c r="CZB8" s="1"/>
+      <c r="CZC8" s="1"/>
+      <c r="CZD8" s="2"/>
+      <c r="CZE8" s="2"/>
+      <c r="CZF8" s="1"/>
+      <c r="CZG8" s="1"/>
+      <c r="CZH8" s="2"/>
+      <c r="CZI8" s="2"/>
+      <c r="CZJ8" s="1"/>
+      <c r="CZK8" s="1"/>
+      <c r="CZL8" s="2"/>
+      <c r="CZM8" s="2"/>
+      <c r="CZN8" s="1"/>
+      <c r="CZO8" s="1"/>
+      <c r="CZP8" s="2"/>
+      <c r="CZQ8" s="2"/>
+      <c r="CZR8" s="1"/>
+      <c r="CZS8" s="1"/>
+      <c r="CZT8" s="2"/>
+      <c r="CZU8" s="2"/>
+      <c r="CZV8" s="1"/>
+      <c r="CZW8" s="1"/>
+      <c r="CZX8" s="2"/>
+      <c r="CZY8" s="2"/>
+      <c r="CZZ8" s="1"/>
+      <c r="DAA8" s="1"/>
+      <c r="DAB8" s="2"/>
+      <c r="DAC8" s="2"/>
+      <c r="DAD8" s="1"/>
+      <c r="DAE8" s="1"/>
+      <c r="DAF8" s="2"/>
+      <c r="DAG8" s="2"/>
+      <c r="DAH8" s="1"/>
+      <c r="DAI8" s="1"/>
+      <c r="DAJ8" s="2"/>
+      <c r="DAK8" s="2"/>
+      <c r="DAL8" s="1"/>
+      <c r="DAM8" s="1"/>
+      <c r="DAN8" s="2"/>
+      <c r="DAO8" s="2"/>
+      <c r="DAP8" s="1"/>
+      <c r="DAQ8" s="1"/>
+      <c r="DAR8" s="2"/>
+      <c r="DAS8" s="2"/>
+      <c r="DAT8" s="1"/>
+      <c r="DAU8" s="1"/>
+      <c r="DAV8" s="2"/>
+      <c r="DAW8" s="2"/>
+      <c r="DAX8" s="1"/>
+      <c r="DAY8" s="1"/>
+      <c r="DAZ8" s="2"/>
+      <c r="DBA8" s="2"/>
+      <c r="DBB8" s="1"/>
+      <c r="DBC8" s="1"/>
+      <c r="DBD8" s="2"/>
+      <c r="DBE8" s="2"/>
+      <c r="DBF8" s="1"/>
+      <c r="DBG8" s="1"/>
+      <c r="DBH8" s="2"/>
+      <c r="DBI8" s="2"/>
+      <c r="DBJ8" s="1"/>
+      <c r="DBK8" s="1"/>
+      <c r="DBL8" s="2"/>
+      <c r="DBM8" s="2"/>
+      <c r="DBN8" s="1"/>
+      <c r="DBO8" s="1"/>
+      <c r="DBP8" s="2"/>
+      <c r="DBQ8" s="2"/>
+      <c r="DBR8" s="1"/>
+      <c r="DBS8" s="1"/>
+      <c r="DBT8" s="2"/>
+      <c r="DBU8" s="2"/>
+      <c r="DBV8" s="1"/>
+      <c r="DBW8" s="1"/>
+      <c r="DBX8" s="2"/>
+      <c r="DBY8" s="2"/>
+      <c r="DBZ8" s="1"/>
+      <c r="DCA8" s="1"/>
+      <c r="DCB8" s="2"/>
+      <c r="DCC8" s="2"/>
+      <c r="DCD8" s="1"/>
+      <c r="DCE8" s="1"/>
+      <c r="DCF8" s="2"/>
+      <c r="DCG8" s="2"/>
+      <c r="DCH8" s="1"/>
+      <c r="DCI8" s="1"/>
+      <c r="DCJ8" s="2"/>
+      <c r="DCK8" s="2"/>
+      <c r="DCL8" s="1"/>
+      <c r="DCM8" s="1"/>
+      <c r="DCN8" s="2"/>
+      <c r="DCO8" s="2"/>
+      <c r="DCP8" s="1"/>
+      <c r="DCQ8" s="1"/>
+      <c r="DCR8" s="2"/>
+      <c r="DCS8" s="2"/>
+      <c r="DCT8" s="1"/>
+      <c r="DCU8" s="1"/>
+      <c r="DCV8" s="2"/>
+      <c r="DCW8" s="2"/>
+      <c r="DCX8" s="1"/>
+      <c r="DCY8" s="1"/>
+      <c r="DCZ8" s="2"/>
+      <c r="DDA8" s="2"/>
+      <c r="DDB8" s="1"/>
+      <c r="DDC8" s="1"/>
+      <c r="DDD8" s="2"/>
+      <c r="DDE8" s="2"/>
+      <c r="DDF8" s="1"/>
+      <c r="DDG8" s="1"/>
+      <c r="DDH8" s="2"/>
+      <c r="DDI8" s="2"/>
+      <c r="DDJ8" s="1"/>
+      <c r="DDK8" s="1"/>
+      <c r="DDL8" s="2"/>
+      <c r="DDM8" s="2"/>
+      <c r="DDN8" s="1"/>
+      <c r="DDO8" s="1"/>
+      <c r="DDP8" s="2"/>
+      <c r="DDQ8" s="2"/>
+      <c r="DDR8" s="1"/>
+      <c r="DDS8" s="1"/>
+      <c r="DDT8" s="2"/>
+      <c r="DDU8" s="2"/>
+      <c r="DDV8" s="1"/>
+      <c r="DDW8" s="1"/>
+      <c r="DDX8" s="2"/>
+      <c r="DDY8" s="2"/>
+      <c r="DDZ8" s="1"/>
+      <c r="DEA8" s="1"/>
+      <c r="DEB8" s="2"/>
+      <c r="DEC8" s="2"/>
+      <c r="DED8" s="1"/>
+      <c r="DEE8" s="1"/>
+      <c r="DEF8" s="2"/>
+      <c r="DEG8" s="2"/>
+      <c r="DEH8" s="1"/>
+      <c r="DEI8" s="1"/>
+      <c r="DEJ8" s="2"/>
+      <c r="DEK8" s="2"/>
+      <c r="DEL8" s="1"/>
+      <c r="DEM8" s="1"/>
+      <c r="DEN8" s="2"/>
+      <c r="DEO8" s="2"/>
+      <c r="DEP8" s="1"/>
+      <c r="DEQ8" s="1"/>
+      <c r="DER8" s="2"/>
+      <c r="DES8" s="2"/>
+      <c r="DET8" s="1"/>
+      <c r="DEU8" s="1"/>
+      <c r="DEV8" s="2"/>
+      <c r="DEW8" s="2"/>
+      <c r="DEX8" s="1"/>
+      <c r="DEY8" s="1"/>
+      <c r="DEZ8" s="2"/>
+      <c r="DFA8" s="2"/>
+      <c r="DFB8" s="1"/>
+      <c r="DFC8" s="1"/>
+      <c r="DFD8" s="2"/>
+      <c r="DFE8" s="2"/>
+      <c r="DFF8" s="1"/>
+      <c r="DFG8" s="1"/>
+      <c r="DFH8" s="2"/>
+      <c r="DFI8" s="2"/>
+      <c r="DFJ8" s="1"/>
+      <c r="DFK8" s="1"/>
+      <c r="DFL8" s="2"/>
+      <c r="DFM8" s="2"/>
+      <c r="DFN8" s="1"/>
+      <c r="DFO8" s="1"/>
+      <c r="DFP8" s="2"/>
+      <c r="DFQ8" s="2"/>
+      <c r="DFR8" s="1"/>
+      <c r="DFS8" s="1"/>
+      <c r="DFT8" s="2"/>
+      <c r="DFU8" s="2"/>
+      <c r="DFV8" s="1"/>
+      <c r="DFW8" s="1"/>
+      <c r="DFX8" s="2"/>
+      <c r="DFY8" s="2"/>
+      <c r="DFZ8" s="1"/>
+      <c r="DGA8" s="1"/>
+      <c r="DGB8" s="2"/>
+      <c r="DGC8" s="2"/>
+      <c r="DGD8" s="1"/>
+      <c r="DGE8" s="1"/>
+      <c r="DGF8" s="2"/>
+      <c r="DGG8" s="2"/>
+      <c r="DGH8" s="1"/>
+      <c r="DGI8" s="1"/>
+      <c r="DGJ8" s="2"/>
+      <c r="DGK8" s="2"/>
+      <c r="DGL8" s="1"/>
+      <c r="DGM8" s="1"/>
+      <c r="DGN8" s="2"/>
+      <c r="DGO8" s="2"/>
+      <c r="DGP8" s="1"/>
+      <c r="DGQ8" s="1"/>
+      <c r="DGR8" s="2"/>
+      <c r="DGS8" s="2"/>
+      <c r="DGT8" s="1"/>
+      <c r="DGU8" s="1"/>
+      <c r="DGV8" s="2"/>
+      <c r="DGW8" s="2"/>
+      <c r="DGX8" s="1"/>
+      <c r="DGY8" s="1"/>
+      <c r="DGZ8" s="2"/>
+      <c r="DHA8" s="2"/>
+      <c r="DHB8" s="1"/>
+      <c r="DHC8" s="1"/>
+      <c r="DHD8" s="2"/>
+      <c r="DHE8" s="2"/>
+      <c r="DHF8" s="1"/>
+      <c r="DHG8" s="1"/>
+      <c r="DHH8" s="2"/>
+      <c r="DHI8" s="2"/>
+      <c r="DHJ8" s="1"/>
+      <c r="DHK8" s="1"/>
+      <c r="DHL8" s="2"/>
+      <c r="DHM8" s="2"/>
+      <c r="DHN8" s="1"/>
+      <c r="DHO8" s="1"/>
+      <c r="DHP8" s="2"/>
+      <c r="DHQ8" s="2"/>
+      <c r="DHR8" s="1"/>
+      <c r="DHS8" s="1"/>
+      <c r="DHT8" s="2"/>
+      <c r="DHU8" s="2"/>
+      <c r="DHV8" s="1"/>
+      <c r="DHW8" s="1"/>
+      <c r="DHX8" s="2"/>
+      <c r="DHY8" s="2"/>
+      <c r="DHZ8" s="1"/>
+      <c r="DIA8" s="1"/>
+      <c r="DIB8" s="2"/>
+      <c r="DIC8" s="2"/>
+      <c r="DID8" s="1"/>
+      <c r="DIE8" s="1"/>
+      <c r="DIF8" s="2"/>
+      <c r="DIG8" s="2"/>
+      <c r="DIH8" s="1"/>
+      <c r="DII8" s="1"/>
+      <c r="DIJ8" s="2"/>
+      <c r="DIK8" s="2"/>
+      <c r="DIL8" s="1"/>
+      <c r="DIM8" s="1"/>
+      <c r="DIN8" s="2"/>
+      <c r="DIO8" s="2"/>
+      <c r="DIP8" s="1"/>
+      <c r="DIQ8" s="1"/>
+      <c r="DIR8" s="2"/>
+      <c r="DIS8" s="2"/>
+      <c r="DIT8" s="1"/>
+      <c r="DIU8" s="1"/>
+      <c r="DIV8" s="2"/>
+      <c r="DIW8" s="2"/>
+      <c r="DIX8" s="1"/>
+      <c r="DIY8" s="1"/>
+      <c r="DIZ8" s="2"/>
+      <c r="DJA8" s="2"/>
+      <c r="DJB8" s="1"/>
+      <c r="DJC8" s="1"/>
+      <c r="DJD8" s="2"/>
+      <c r="DJE8" s="2"/>
+      <c r="DJF8" s="1"/>
+      <c r="DJG8" s="1"/>
+      <c r="DJH8" s="2"/>
+      <c r="DJI8" s="2"/>
+      <c r="DJJ8" s="1"/>
+      <c r="DJK8" s="2"/>
+      <c r="DJL8" s="2"/>
+      <c r="DJM8" s="1"/>
+      <c r="DJN8" s="2"/>
+      <c r="DJO8" s="2"/>
+      <c r="DJP8" s="1"/>
+      <c r="DJQ8" s="2"/>
+      <c r="DJR8" s="2"/>
+      <c r="DJS8" s="1"/>
+      <c r="DJT8" s="2"/>
+      <c r="DJU8" s="2"/>
+      <c r="DJV8" s="1"/>
+      <c r="DJW8" s="2"/>
+      <c r="DJX8" s="2"/>
+      <c r="DJY8" s="1"/>
+      <c r="DJZ8" s="2"/>
+      <c r="DKA8" s="2"/>
+      <c r="DKB8" s="1"/>
+      <c r="DKC8" s="2"/>
+      <c r="DKD8" s="2"/>
+      <c r="DKE8" s="1"/>
+      <c r="DKF8" s="2"/>
+      <c r="DKG8" s="2"/>
+      <c r="DKH8" s="1"/>
+      <c r="DKI8" s="2"/>
+      <c r="DKJ8" s="2"/>
+      <c r="DKK8" s="1"/>
+      <c r="DKL8" s="2"/>
+      <c r="DKM8" s="2"/>
+      <c r="DKN8" s="1"/>
+      <c r="DKO8" s="2"/>
+      <c r="DKP8" s="2"/>
+      <c r="DKQ8" s="1"/>
+      <c r="DKR8" s="2"/>
+      <c r="DKS8" s="2"/>
+      <c r="DKT8" s="1"/>
+      <c r="DKU8" s="2"/>
+      <c r="DKV8" s="2"/>
+      <c r="DKW8" s="1"/>
+      <c r="DKX8" s="2"/>
+      <c r="DKY8" s="2"/>
+      <c r="DKZ8" s="1"/>
+      <c r="DLA8" s="2"/>
+      <c r="DLB8" s="2"/>
+      <c r="DLC8" s="1"/>
+      <c r="DLD8" s="2"/>
+      <c r="DLE8" s="2"/>
+      <c r="DLF8" s="1"/>
+      <c r="DLG8" s="2"/>
+      <c r="DLH8" s="2"/>
+      <c r="DLI8" s="1"/>
+      <c r="DLJ8" s="2"/>
+      <c r="DLK8" s="2"/>
+      <c r="DLL8" s="1"/>
+      <c r="DLM8" s="2"/>
+      <c r="DLN8" s="2"/>
+      <c r="DLO8" s="1"/>
+      <c r="DLP8" s="2"/>
+      <c r="DLQ8" s="2"/>
+      <c r="DLR8" s="1"/>
+      <c r="DLS8" s="2"/>
+      <c r="DLT8" s="2"/>
+      <c r="DLU8" s="1"/>
+      <c r="DLV8" s="2"/>
+      <c r="DLW8" s="2"/>
+      <c r="DLX8" s="1"/>
+      <c r="DLY8" s="2"/>
+      <c r="DLZ8" s="2"/>
+      <c r="DMA8" s="1"/>
+      <c r="DMB8" s="2"/>
+      <c r="DMC8" s="2"/>
+      <c r="DMD8" s="1"/>
+      <c r="DME8" s="2"/>
+      <c r="DMF8" s="2"/>
+      <c r="DMG8" s="1"/>
+      <c r="DMH8" s="2"/>
+      <c r="DMI8" s="2"/>
+      <c r="DMJ8" s="1"/>
+      <c r="DMK8" s="2"/>
+      <c r="DML8" s="2"/>
+      <c r="DMM8" s="1"/>
+      <c r="DMN8" s="2"/>
+      <c r="DMO8" s="2"/>
+      <c r="DMP8" s="1"/>
+      <c r="DMQ8" s="2"/>
+      <c r="DMR8" s="2"/>
+      <c r="DMS8" s="1"/>
+      <c r="DMT8" s="2"/>
+      <c r="DMU8" s="2"/>
+      <c r="DMV8" s="1"/>
+      <c r="DMW8" s="2"/>
+      <c r="DMX8" s="2"/>
+      <c r="DMY8" s="1"/>
+      <c r="DMZ8" s="2"/>
+      <c r="DNA8" s="2"/>
+      <c r="DNB8" s="1"/>
+      <c r="DNC8" s="2"/>
+      <c r="DND8" s="2"/>
+      <c r="DNE8" s="1"/>
+      <c r="DNF8" s="2"/>
+      <c r="DNG8" s="2"/>
+      <c r="DNH8" s="1"/>
+      <c r="DNI8" s="2"/>
+      <c r="DNJ8" s="2"/>
+      <c r="DNK8" s="1"/>
+      <c r="DNL8" s="2"/>
+      <c r="DNM8" s="2"/>
+      <c r="DNN8" s="1"/>
+      <c r="DNO8" s="2"/>
+      <c r="DNP8" s="2"/>
+      <c r="DNQ8" s="1"/>
+      <c r="DNR8" s="2"/>
+      <c r="DNS8" s="2"/>
+      <c r="DNT8" s="1"/>
+      <c r="DNU8" s="2"/>
+      <c r="DNV8" s="2"/>
+      <c r="DNW8" s="1"/>
+      <c r="DNX8" s="2"/>
+      <c r="DNY8" s="2"/>
+      <c r="DNZ8" s="1"/>
+      <c r="DOA8" s="2"/>
+      <c r="DOB8" s="2"/>
+      <c r="DOC8" s="1"/>
+      <c r="DOD8" s="2"/>
+      <c r="DOE8" s="2"/>
+      <c r="DOF8" s="1"/>
+      <c r="DOG8" s="2"/>
+      <c r="DOH8" s="2"/>
+      <c r="DOI8" s="1"/>
+      <c r="DOJ8" s="2"/>
+      <c r="DOK8" s="2"/>
+      <c r="DOL8" s="1"/>
+      <c r="DOM8" s="2"/>
+      <c r="DON8" s="2"/>
+      <c r="DOO8" s="1"/>
+      <c r="DOP8" s="2"/>
+      <c r="DOQ8" s="2"/>
+      <c r="DOR8" s="1"/>
+      <c r="DOS8" s="2"/>
+      <c r="DOT8" s="2"/>
+      <c r="DOU8" s="1"/>
+      <c r="DOV8" s="2"/>
+      <c r="DOW8" s="2"/>
+      <c r="DOX8" s="1"/>
+      <c r="DOY8" s="2"/>
+      <c r="DOZ8" s="2"/>
+      <c r="DPA8" s="1"/>
+      <c r="DPB8" s="2"/>
+      <c r="DPC8" s="2"/>
+      <c r="DPD8" s="1"/>
+      <c r="DPE8" s="2"/>
+      <c r="DPF8" s="2"/>
+      <c r="DPG8" s="1"/>
+      <c r="DPH8" s="2"/>
+      <c r="DPI8" s="2"/>
+      <c r="DPJ8" s="1"/>
+      <c r="DPK8" s="2"/>
+      <c r="DPL8" s="2"/>
+      <c r="DPM8" s="1"/>
+      <c r="DPN8" s="2"/>
+      <c r="DPO8" s="2"/>
+      <c r="DPP8" s="1"/>
+      <c r="DPQ8" s="2"/>
+      <c r="DPR8" s="2"/>
+      <c r="DPS8" s="1"/>
+      <c r="DPT8" s="2"/>
+      <c r="DPU8" s="2"/>
+      <c r="DPV8" s="1"/>
+      <c r="DPW8" s="2"/>
+      <c r="DPX8" s="2"/>
+      <c r="DPY8" s="1"/>
+      <c r="DPZ8" s="2"/>
+      <c r="DQA8" s="2"/>
+      <c r="DQB8" s="1"/>
+      <c r="DQC8" s="2"/>
+      <c r="DQD8" s="2"/>
+      <c r="DQE8" s="1"/>
+      <c r="DQF8" s="2"/>
+      <c r="DQG8" s="2"/>
+      <c r="DQH8" s="1"/>
+      <c r="DQI8" s="2"/>
+      <c r="DQJ8" s="2"/>
+      <c r="DQK8" s="1"/>
+      <c r="DQL8" s="2"/>
+      <c r="DQM8" s="2"/>
+      <c r="DQN8" s="1"/>
+      <c r="DQO8" s="2"/>
+      <c r="DQP8" s="2"/>
+      <c r="DQQ8" s="1"/>
+      <c r="DQR8" s="2"/>
+      <c r="DQS8" s="2"/>
+      <c r="DQT8" s="1"/>
+      <c r="DQU8" s="2"/>
+      <c r="DQV8" s="2"/>
+      <c r="DQW8" s="1"/>
+      <c r="DQX8" s="2"/>
+      <c r="DQY8" s="2"/>
+      <c r="DQZ8" s="1"/>
+      <c r="DRA8" s="2"/>
+      <c r="DRB8" s="2"/>
+      <c r="DRC8" s="1"/>
+      <c r="DRD8" s="2"/>
+      <c r="DRE8" s="2"/>
+      <c r="DRF8" s="1"/>
+      <c r="DRG8" s="2"/>
+      <c r="DRH8" s="2"/>
+      <c r="DRI8" s="1"/>
+      <c r="DRJ8" s="2"/>
+      <c r="DRK8" s="2"/>
+      <c r="DRL8" s="1"/>
+      <c r="DRM8" s="2"/>
+      <c r="DRN8" s="2"/>
+      <c r="DRO8" s="1"/>
+      <c r="DRP8" s="2"/>
+      <c r="DRQ8" s="2"/>
+      <c r="DRR8" s="1"/>
+      <c r="DRS8" s="2"/>
+      <c r="DRT8" s="2"/>
+      <c r="DRU8" s="1"/>
+      <c r="DRV8" s="2"/>
+      <c r="DRW8" s="2"/>
+      <c r="DRX8" s="1"/>
+      <c r="DRY8" s="2"/>
+      <c r="DRZ8" s="2"/>
+      <c r="DSA8" s="1"/>
+      <c r="DSB8" s="2"/>
+      <c r="DSC8" s="2"/>
+      <c r="DSD8" s="1"/>
+      <c r="DSE8" s="2"/>
+      <c r="DSF8" s="2"/>
+      <c r="DSG8" s="1"/>
+      <c r="DSH8" s="2"/>
+      <c r="DSI8" s="2"/>
+      <c r="DSJ8" s="1"/>
+      <c r="DSK8" s="2"/>
+      <c r="DSL8" s="2"/>
+      <c r="DSM8" s="1"/>
+      <c r="DSN8" s="2"/>
+      <c r="DSO8" s="2"/>
+      <c r="DSP8" s="1"/>
+      <c r="DSQ8" s="2"/>
+      <c r="DSR8" s="2"/>
+      <c r="DSS8" s="1"/>
+      <c r="DST8" s="2"/>
+      <c r="DSU8" s="2"/>
+      <c r="DSV8" s="1"/>
+      <c r="DSW8" s="2"/>
+      <c r="DSX8" s="2"/>
+      <c r="DSY8" s="1"/>
+      <c r="DSZ8" s="2"/>
+      <c r="DTA8" s="2"/>
+      <c r="DTB8" s="1"/>
+      <c r="DTC8" s="2"/>
+      <c r="DTD8" s="2"/>
+      <c r="DTE8" s="1"/>
+      <c r="DTF8" s="2"/>
+      <c r="DTG8" s="2"/>
+      <c r="DTH8" s="1"/>
+      <c r="DTI8" s="2"/>
+      <c r="DTJ8" s="2"/>
+      <c r="DTK8" s="1"/>
+      <c r="DTL8" s="2"/>
+      <c r="DTM8" s="2"/>
+      <c r="DTN8" s="1"/>
+      <c r="DTO8" s="2"/>
+      <c r="DTP8" s="2"/>
+      <c r="DTQ8" s="1"/>
+      <c r="DTR8" s="2"/>
+      <c r="DTS8" s="2"/>
+      <c r="DTT8" s="1"/>
+      <c r="DTU8" s="2"/>
+      <c r="DTV8" s="2"/>
+      <c r="DTW8" s="1"/>
+      <c r="DTX8" s="2"/>
+      <c r="DTY8" s="2"/>
+      <c r="DTZ8" s="1"/>
+      <c r="DUA8" s="2"/>
+      <c r="DUB8" s="2"/>
+      <c r="DUC8" s="1"/>
+      <c r="DUD8" s="2"/>
+      <c r="DUE8" s="2"/>
+      <c r="DUF8" s="1"/>
+      <c r="DUG8" s="2"/>
+      <c r="DUH8" s="2"/>
+      <c r="DUI8" s="1"/>
+      <c r="DUJ8" s="2"/>
+      <c r="DUK8" s="2"/>
+      <c r="DUL8" s="1"/>
+      <c r="DUM8" s="2"/>
+      <c r="DUN8" s="2"/>
+      <c r="DUO8" s="1"/>
+      <c r="DUP8" s="2"/>
+      <c r="DUQ8" s="2"/>
+      <c r="DUR8" s="1"/>
+      <c r="DUS8" s="2"/>
+      <c r="DUT8" s="2"/>
+      <c r="DUU8" s="1"/>
+      <c r="DUV8" s="2"/>
+      <c r="DUW8" s="2"/>
+      <c r="DUX8" s="1"/>
+      <c r="DUY8" s="2"/>
+      <c r="DUZ8" s="2"/>
+      <c r="DVA8" s="1"/>
+      <c r="DVB8" s="2"/>
+      <c r="DVC8" s="2"/>
+      <c r="DVD8" s="1"/>
+      <c r="DVE8" s="2"/>
+      <c r="DVF8" s="2"/>
+      <c r="DVG8" s="1"/>
+      <c r="DVH8" s="2"/>
+      <c r="DVI8" s="2"/>
+      <c r="DVJ8" s="1"/>
+      <c r="DVK8" s="2"/>
+      <c r="DVL8" s="2"/>
+      <c r="DVM8" s="1"/>
+      <c r="DVN8" s="2"/>
+      <c r="DVO8" s="2"/>
+      <c r="DVP8" s="1"/>
+      <c r="DVQ8" s="2"/>
+      <c r="DVR8" s="2"/>
+      <c r="DVS8" s="1"/>
+      <c r="DVT8" s="2"/>
+      <c r="DVU8" s="2"/>
+      <c r="DVV8" s="1"/>
+      <c r="DVW8" s="2"/>
+      <c r="DVX8" s="2"/>
+      <c r="DVY8" s="1"/>
+      <c r="DVZ8" s="2"/>
+      <c r="DWA8" s="2"/>
+      <c r="DWB8" s="1"/>
+      <c r="DWC8" s="2"/>
+      <c r="DWD8" s="2"/>
+      <c r="DWE8" s="1"/>
+      <c r="DWF8" s="2"/>
+      <c r="DWG8" s="2"/>
+      <c r="DWH8" s="1"/>
+      <c r="DWI8" s="2"/>
+      <c r="DWJ8" s="2"/>
+      <c r="DWK8" s="1"/>
+      <c r="DWL8" s="2"/>
+      <c r="DWM8" s="2"/>
+      <c r="DWN8" s="1"/>
+      <c r="DWO8" s="2"/>
+      <c r="DWP8" s="2"/>
+      <c r="DWQ8" s="1"/>
+      <c r="DWR8" s="2"/>
+      <c r="DWS8" s="2"/>
+      <c r="DWT8" s="1"/>
+      <c r="DWU8" s="2"/>
+      <c r="DWV8" s="2"/>
+      <c r="DWW8" s="1"/>
+      <c r="DWX8" s="2"/>
+      <c r="DWY8" s="2"/>
+      <c r="DWZ8" s="1"/>
+      <c r="DXA8" s="2"/>
+      <c r="DXB8" s="2"/>
+      <c r="DXC8" s="1"/>
+      <c r="DXD8" s="2"/>
+      <c r="DXE8" s="2"/>
+      <c r="DXF8" s="1"/>
+      <c r="DXG8" s="2"/>
+      <c r="DXH8" s="2"/>
+      <c r="DXI8" s="1"/>
+      <c r="DXJ8" s="2"/>
+      <c r="DXK8" s="2"/>
+      <c r="DXL8" s="1"/>
+      <c r="DXM8" s="2"/>
+      <c r="DXN8" s="2"/>
+      <c r="DXO8" s="1"/>
+      <c r="DXP8" s="2"/>
+      <c r="DXQ8" s="2"/>
+      <c r="DXR8" s="1"/>
+      <c r="DXS8" s="2"/>
+      <c r="DXT8" s="2"/>
+      <c r="DXU8" s="1"/>
+      <c r="DXV8" s="2"/>
+      <c r="DXW8" s="2"/>
+      <c r="DXX8" s="1"/>
+      <c r="DXY8" s="2"/>
+      <c r="DXZ8" s="2"/>
+      <c r="DYA8" s="1"/>
+      <c r="DYB8" s="2"/>
+      <c r="DYC8" s="2"/>
+      <c r="DYD8" s="1"/>
+      <c r="DYE8" s="2"/>
+      <c r="DYF8" s="2"/>
+      <c r="DYG8" s="1"/>
+      <c r="DYH8" s="2"/>
+      <c r="DYI8" s="2"/>
+      <c r="DYJ8" s="1"/>
+      <c r="DYK8" s="2"/>
+      <c r="DYL8" s="2"/>
+      <c r="DYM8" s="1"/>
+      <c r="DYN8" s="2"/>
+      <c r="DYO8" s="2"/>
+      <c r="DYP8" s="1"/>
+      <c r="DYQ8" s="2"/>
+      <c r="DYR8" s="2"/>
+      <c r="DYS8" s="1"/>
+      <c r="DYT8" s="2"/>
+      <c r="DYU8" s="2"/>
+      <c r="DYV8" s="1"/>
+      <c r="EIE8"/>
+      <c r="EIF8"/>
+      <c r="EIG8"/>
+      <c r="EIH8"/>
+      <c r="EII8"/>
+      <c r="EIJ8"/>
+      <c r="EIK8"/>
+      <c r="EIL8"/>
+      <c r="EIM8"/>
+      <c r="EIN8"/>
+      <c r="EIO8"/>
+      <c r="EIP8"/>
+      <c r="EIQ8"/>
+      <c r="EIR8"/>
+      <c r="EIS8"/>
+      <c r="EIT8"/>
+      <c r="EIU8"/>
+      <c r="EIV8"/>
+      <c r="EIW8"/>
+      <c r="EIX8"/>
+      <c r="EIY8"/>
+      <c r="EIZ8"/>
+      <c r="EJA8"/>
+      <c r="EJB8"/>
+      <c r="EJC8"/>
+      <c r="EJD8"/>
+      <c r="EJE8"/>
+      <c r="EJF8"/>
+      <c r="EJG8"/>
+      <c r="EJH8"/>
+      <c r="EJI8"/>
+      <c r="EJJ8"/>
+      <c r="EJK8"/>
+      <c r="EJL8"/>
+      <c r="EJM8"/>
+      <c r="EJN8"/>
+      <c r="EJO8"/>
+      <c r="EJP8"/>
+      <c r="EJQ8"/>
+      <c r="EJR8"/>
+      <c r="EJS8"/>
+      <c r="EJT8"/>
+      <c r="EJU8"/>
+      <c r="EJV8"/>
+      <c r="EJW8"/>
+      <c r="EJX8"/>
+      <c r="EJY8"/>
+      <c r="EJZ8"/>
+      <c r="EKA8"/>
+      <c r="EKB8"/>
+      <c r="EKC8"/>
+      <c r="EKD8"/>
+      <c r="EKE8"/>
+      <c r="EKF8"/>
+      <c r="EKG8"/>
+      <c r="EKH8"/>
+      <c r="EKI8"/>
+      <c r="EKJ8"/>
+      <c r="EKK8"/>
+      <c r="EKL8"/>
+      <c r="EKM8"/>
+      <c r="EKN8"/>
+      <c r="EKO8"/>
+      <c r="EKP8"/>
+      <c r="EKQ8"/>
+      <c r="EKR8"/>
+      <c r="EKS8"/>
+      <c r="EKT8"/>
+      <c r="EKU8"/>
+      <c r="EKV8"/>
+      <c r="EKW8"/>
+      <c r="EKX8"/>
+      <c r="EKY8"/>
+      <c r="EKZ8"/>
+      <c r="ELA8"/>
+      <c r="ELB8"/>
+      <c r="ELC8"/>
+      <c r="ELD8"/>
+      <c r="ELE8"/>
+      <c r="ELF8"/>
+      <c r="ELG8"/>
+      <c r="ELH8"/>
+      <c r="ELI8"/>
+      <c r="ELJ8"/>
+      <c r="ELK8"/>
+      <c r="ELL8"/>
+      <c r="ELM8"/>
+      <c r="ELN8"/>
+      <c r="ELO8"/>
+      <c r="ELP8"/>
+      <c r="ELQ8"/>
+      <c r="ELR8"/>
+      <c r="ELS8"/>
+      <c r="ELT8"/>
+      <c r="ELU8"/>
+      <c r="ELV8"/>
+      <c r="ELW8"/>
+      <c r="ELX8"/>
+      <c r="ELY8"/>
+      <c r="ELZ8"/>
+      <c r="EMA8"/>
+      <c r="EMB8"/>
+      <c r="EMC8"/>
+      <c r="EMD8"/>
+      <c r="EME8"/>
+      <c r="EMF8"/>
+      <c r="EMG8"/>
+      <c r="EMH8"/>
+      <c r="EMI8"/>
+      <c r="EMJ8"/>
+      <c r="EMK8"/>
+      <c r="EML8"/>
+      <c r="EMM8"/>
+      <c r="EMN8"/>
+      <c r="EMO8"/>
+      <c r="EMP8"/>
+      <c r="EMQ8"/>
+      <c r="EMR8"/>
+      <c r="EMS8"/>
+      <c r="EMT8"/>
+      <c r="EMU8"/>
+      <c r="EMV8"/>
+      <c r="EMW8"/>
+      <c r="EMX8"/>
+      <c r="EMY8"/>
+      <c r="EMZ8"/>
+      <c r="ENA8"/>
+      <c r="ENB8"/>
+      <c r="ENC8"/>
+      <c r="END8"/>
+      <c r="ENE8"/>
+      <c r="ENF8"/>
+      <c r="ENG8"/>
+      <c r="ENH8"/>
+      <c r="ENI8"/>
+      <c r="ENJ8"/>
+      <c r="ENK8"/>
+      <c r="ENL8"/>
+      <c r="ENM8"/>
+      <c r="ENN8"/>
+      <c r="ENO8"/>
+      <c r="ENP8"/>
+      <c r="ENQ8"/>
+      <c r="ENR8"/>
+      <c r="ENS8"/>
+      <c r="ENT8"/>
+      <c r="ENU8"/>
+      <c r="ENV8"/>
+      <c r="ENW8"/>
+      <c r="ENX8"/>
+      <c r="ENY8"/>
+      <c r="ENZ8"/>
+      <c r="EOA8"/>
+      <c r="EOB8"/>
+      <c r="EOC8"/>
+      <c r="EOD8"/>
+      <c r="EOE8"/>
+      <c r="EOF8"/>
+      <c r="EOG8"/>
+      <c r="EOH8"/>
+      <c r="EOI8"/>
+      <c r="EOJ8"/>
+      <c r="EOK8"/>
+      <c r="EOL8"/>
+      <c r="EOM8"/>
+      <c r="EON8"/>
+      <c r="EOO8"/>
+      <c r="EOP8"/>
+      <c r="EOQ8"/>
+      <c r="EOR8"/>
+      <c r="EOS8"/>
+      <c r="EOT8"/>
+      <c r="EOU8"/>
+      <c r="EOV8"/>
+      <c r="EOW8"/>
+      <c r="EOX8"/>
+      <c r="EOY8"/>
+      <c r="EOZ8"/>
+      <c r="EPA8"/>
+      <c r="EPB8"/>
+      <c r="EPC8"/>
+      <c r="EPD8"/>
+      <c r="EPE8"/>
+      <c r="EPF8"/>
+      <c r="EPG8"/>
+      <c r="EPH8"/>
+      <c r="EPI8"/>
+      <c r="EPJ8"/>
+      <c r="EPK8"/>
+      <c r="EPL8"/>
+      <c r="EPM8"/>
+      <c r="EPN8"/>
+      <c r="EPO8"/>
+      <c r="EPP8"/>
+      <c r="EPQ8"/>
+      <c r="EPR8"/>
+      <c r="EPS8"/>
+      <c r="EPT8"/>
+      <c r="EPU8"/>
+      <c r="EPV8"/>
+      <c r="EPW8"/>
+      <c r="EPX8"/>
+      <c r="EPY8"/>
+      <c r="EPZ8"/>
+      <c r="EQA8"/>
+      <c r="EQB8"/>
+      <c r="EQC8"/>
+      <c r="EQD8"/>
+      <c r="EQE8"/>
+      <c r="EQF8"/>
+      <c r="EQG8"/>
+      <c r="EQH8"/>
+      <c r="EQI8"/>
+      <c r="EQJ8"/>
+      <c r="EQK8"/>
+      <c r="EQL8"/>
+      <c r="EQM8"/>
+      <c r="EQN8"/>
+      <c r="EQO8"/>
+      <c r="EQP8"/>
+      <c r="EQQ8"/>
+      <c r="EQR8"/>
+      <c r="EQS8"/>
+      <c r="EQT8"/>
+      <c r="EQU8"/>
+      <c r="EQV8"/>
+      <c r="EQW8"/>
+      <c r="EQX8"/>
+      <c r="EQY8"/>
+      <c r="EQZ8"/>
+      <c r="ERA8"/>
+      <c r="ERB8"/>
+      <c r="ERC8"/>
+      <c r="ERD8"/>
+      <c r="ERE8"/>
+      <c r="ERF8"/>
+      <c r="ERG8"/>
+      <c r="ERH8"/>
+      <c r="ERI8"/>
+      <c r="ERJ8"/>
+      <c r="ERK8"/>
+      <c r="ERL8"/>
+      <c r="ERM8"/>
+      <c r="ERN8"/>
+      <c r="ERO8"/>
+      <c r="ERP8"/>
+      <c r="ERQ8"/>
+      <c r="ERR8"/>
+      <c r="ERS8"/>
+      <c r="ERT8"/>
+      <c r="ERU8"/>
+      <c r="ERV8"/>
+      <c r="ERW8"/>
+      <c r="ERX8"/>
+      <c r="ERY8"/>
+      <c r="ERZ8"/>
+      <c r="ESA8"/>
+      <c r="ESB8"/>
+      <c r="ESC8"/>
+      <c r="ESD8"/>
+      <c r="ESE8"/>
+      <c r="ESF8"/>
+      <c r="ESG8"/>
+      <c r="ESH8"/>
+      <c r="ESI8"/>
+      <c r="ESJ8"/>
+      <c r="ESK8"/>
+      <c r="ESL8"/>
+      <c r="ESM8"/>
+      <c r="ESN8"/>
+      <c r="ESO8"/>
+      <c r="ESP8"/>
+      <c r="ESQ8"/>
+      <c r="ESR8"/>
+      <c r="ESS8"/>
+      <c r="EST8"/>
+      <c r="ESU8"/>
+      <c r="ESV8"/>
+      <c r="ESW8"/>
+      <c r="ESX8"/>
+      <c r="ESY8"/>
+      <c r="ESZ8"/>
+      <c r="ETA8"/>
+      <c r="ETB8"/>
+      <c r="ETC8"/>
+      <c r="ETD8"/>
+      <c r="ETE8"/>
+      <c r="ETF8"/>
+      <c r="ETG8"/>
+      <c r="ETH8"/>
+      <c r="ETI8"/>
+      <c r="ETJ8"/>
+      <c r="ETK8"/>
+      <c r="ETL8"/>
+      <c r="ETM8"/>
+      <c r="ETN8"/>
+      <c r="ETO8"/>
+      <c r="ETP8"/>
+      <c r="ETQ8"/>
+      <c r="ETR8"/>
+      <c r="ETS8"/>
+      <c r="ETT8"/>
+      <c r="ETU8"/>
+      <c r="ETV8"/>
+      <c r="ETW8"/>
+      <c r="ETX8"/>
+      <c r="ETY8"/>
+      <c r="ETZ8"/>
+      <c r="EUA8"/>
+      <c r="EUB8"/>
+      <c r="EUC8"/>
+      <c r="EUD8"/>
+      <c r="EUE8"/>
+      <c r="EUF8"/>
+      <c r="EUG8"/>
+      <c r="EUH8"/>
+      <c r="EUI8"/>
+      <c r="EUJ8"/>
+      <c r="EUK8"/>
+      <c r="EUL8"/>
+      <c r="EUM8"/>
+      <c r="EUN8"/>
+      <c r="EUO8"/>
+      <c r="EUP8"/>
+      <c r="EUQ8"/>
+      <c r="EUR8"/>
+      <c r="EUS8"/>
+      <c r="EUT8"/>
+      <c r="EUU8"/>
+      <c r="EUV8"/>
+      <c r="EUW8"/>
+      <c r="EUX8"/>
+      <c r="EUY8"/>
+      <c r="EUZ8"/>
+      <c r="EVA8"/>
+      <c r="EVB8"/>
+      <c r="EVC8"/>
+      <c r="EVD8"/>
+      <c r="EVE8"/>
+      <c r="EVF8"/>
+      <c r="EVG8"/>
+      <c r="EVH8"/>
+      <c r="EVI8"/>
+      <c r="EVJ8"/>
+      <c r="EVK8"/>
+      <c r="EVL8"/>
+      <c r="EVM8"/>
+      <c r="EVN8"/>
+      <c r="EVO8"/>
+      <c r="EVP8"/>
+      <c r="EVQ8"/>
+      <c r="EVR8"/>
+      <c r="EVS8"/>
+      <c r="EVT8"/>
+      <c r="EVU8"/>
+      <c r="EVV8"/>
+      <c r="EVW8"/>
+      <c r="EVX8"/>
+      <c r="EVY8"/>
+      <c r="EVZ8"/>
+      <c r="EWA8"/>
+      <c r="EWB8"/>
+      <c r="EWC8"/>
+      <c r="EWD8"/>
+      <c r="EWE8"/>
+      <c r="EWF8"/>
+      <c r="EWG8"/>
+      <c r="EWH8"/>
+      <c r="EWI8"/>
+      <c r="EWJ8"/>
+      <c r="EWK8"/>
+      <c r="EWL8"/>
+      <c r="EWM8"/>
+      <c r="EWN8"/>
+      <c r="EWO8"/>
+      <c r="EWP8"/>
+      <c r="EWQ8"/>
+      <c r="EWR8"/>
+      <c r="EWS8"/>
+      <c r="EWT8"/>
+      <c r="EWU8"/>
+      <c r="EWV8"/>
+      <c r="EWW8"/>
+      <c r="EWX8"/>
+      <c r="EWY8"/>
+      <c r="EWZ8"/>
+      <c r="EXA8"/>
+      <c r="EXB8"/>
+      <c r="EXC8"/>
+      <c r="EXD8"/>
+      <c r="EXE8"/>
+      <c r="EXF8"/>
+      <c r="EXG8"/>
+      <c r="EXH8"/>
+      <c r="EXI8"/>
+      <c r="EXJ8"/>
+      <c r="EXK8"/>
+      <c r="EXL8"/>
+      <c r="EXM8"/>
+      <c r="EXN8"/>
+      <c r="EXO8"/>
+      <c r="EXP8"/>
+      <c r="EXQ8"/>
+      <c r="EXR8"/>
+      <c r="EXS8"/>
+      <c r="EXT8"/>
+      <c r="EXU8"/>
+      <c r="EXV8"/>
+      <c r="EXW8"/>
+      <c r="EXX8"/>
+      <c r="EXY8"/>
+      <c r="EXZ8"/>
+      <c r="EYA8"/>
+      <c r="EYB8"/>
+      <c r="EYC8"/>
+      <c r="EYD8"/>
+      <c r="EYE8"/>
+      <c r="EYF8"/>
+      <c r="EYG8"/>
+      <c r="EYH8"/>
+      <c r="EYI8"/>
+      <c r="EYJ8"/>
+      <c r="EYK8"/>
+      <c r="EYL8"/>
+      <c r="EYM8"/>
+      <c r="EYN8"/>
+      <c r="EYO8"/>
+      <c r="EYP8"/>
+      <c r="EYQ8"/>
+      <c r="EYR8"/>
+      <c r="EYS8"/>
+      <c r="EYT8"/>
+      <c r="EYU8"/>
+      <c r="EYV8"/>
+      <c r="EYW8"/>
+      <c r="EYX8"/>
+      <c r="EYY8"/>
+      <c r="EYZ8"/>
+      <c r="EZA8"/>
+      <c r="EZB8"/>
+      <c r="EZC8"/>
+      <c r="EZD8"/>
+      <c r="EZE8"/>
+      <c r="EZF8"/>
+      <c r="EZG8"/>
+      <c r="EZH8"/>
+      <c r="EZI8"/>
+      <c r="EZJ8"/>
+      <c r="EZK8"/>
+      <c r="EZL8"/>
+      <c r="EZM8"/>
+      <c r="EZN8"/>
+      <c r="EZO8"/>
+      <c r="EZP8"/>
+      <c r="EZQ8"/>
+      <c r="EZR8"/>
+      <c r="EZS8"/>
+      <c r="EZT8"/>
+      <c r="EZU8"/>
+      <c r="EZV8"/>
+      <c r="EZW8"/>
+      <c r="EZX8"/>
+      <c r="EZY8"/>
+      <c r="EZZ8"/>
+      <c r="FAA8"/>
+      <c r="FAB8"/>
+      <c r="FAC8"/>
+      <c r="FAD8"/>
+      <c r="FAE8"/>
+      <c r="FAF8"/>
+      <c r="FAG8"/>
+      <c r="FAH8"/>
+      <c r="FAI8"/>
+      <c r="FAJ8"/>
+      <c r="FAK8"/>
+      <c r="FAL8"/>
+      <c r="FAM8"/>
+      <c r="FAN8"/>
+      <c r="FAO8"/>
+      <c r="FAP8"/>
+      <c r="FAQ8"/>
+      <c r="FAR8"/>
+      <c r="FAS8"/>
+      <c r="FAT8"/>
+      <c r="FAU8"/>
+      <c r="FAV8"/>
+      <c r="FAW8"/>
+      <c r="FAX8"/>
+      <c r="FAY8"/>
+      <c r="FAZ8"/>
+      <c r="FBA8"/>
+      <c r="FBB8"/>
+      <c r="FBC8"/>
+      <c r="FBD8"/>
+      <c r="FBE8"/>
+      <c r="FBF8"/>
+      <c r="FBG8"/>
+      <c r="FBH8"/>
+      <c r="FBI8"/>
+      <c r="FBJ8"/>
+      <c r="FBK8"/>
+      <c r="FBL8"/>
+      <c r="FBM8"/>
+      <c r="FBN8"/>
+      <c r="FBO8"/>
+      <c r="FBP8"/>
+      <c r="FBQ8"/>
+      <c r="FBR8"/>
+      <c r="FBS8"/>
+      <c r="FBT8"/>
+      <c r="FBU8"/>
+      <c r="FBV8"/>
+      <c r="FBW8"/>
+      <c r="FBX8"/>
+      <c r="FBY8"/>
+      <c r="FBZ8"/>
+      <c r="FCA8"/>
+      <c r="FCB8"/>
+      <c r="FCC8"/>
+      <c r="FCD8"/>
+      <c r="FCE8"/>
+      <c r="FCF8"/>
+      <c r="FCG8"/>
+      <c r="FCH8"/>
+      <c r="FCI8"/>
+      <c r="FCJ8"/>
+      <c r="FCK8"/>
+      <c r="FCL8"/>
+      <c r="FCM8"/>
+      <c r="FCN8"/>
+      <c r="FCO8"/>
+      <c r="FCP8"/>
+      <c r="FCQ8"/>
+      <c r="FCR8"/>
+      <c r="FCS8"/>
+      <c r="FCT8"/>
+      <c r="FCU8"/>
+      <c r="FCV8"/>
+      <c r="FCW8"/>
+      <c r="FCX8"/>
+      <c r="FCY8"/>
+      <c r="FCZ8"/>
+      <c r="FDA8"/>
+      <c r="FDB8"/>
+      <c r="FDC8"/>
+      <c r="FDD8"/>
+      <c r="FDE8"/>
+      <c r="FDF8"/>
+      <c r="FDG8"/>
+      <c r="FDH8"/>
+      <c r="FDI8"/>
+      <c r="FDJ8"/>
+      <c r="FDK8"/>
+      <c r="FDL8"/>
+      <c r="FDM8"/>
+      <c r="FDN8"/>
+      <c r="FDO8"/>
+      <c r="FDP8"/>
+      <c r="FDQ8"/>
+      <c r="FDR8"/>
+      <c r="FDS8"/>
+      <c r="FDT8"/>
+      <c r="FDU8"/>
+      <c r="FDV8"/>
+      <c r="FDW8"/>
+      <c r="FDX8"/>
+      <c r="FDY8"/>
+      <c r="FDZ8"/>
+      <c r="FEA8"/>
+      <c r="FEB8"/>
+      <c r="FEC8"/>
+      <c r="FED8"/>
+      <c r="FEE8"/>
+      <c r="FEF8"/>
+      <c r="FEG8"/>
+      <c r="FEH8"/>
+      <c r="FEI8"/>
+      <c r="FEJ8"/>
+      <c r="FEK8"/>
+      <c r="FEL8"/>
+      <c r="FEM8"/>
+      <c r="FEN8"/>
+      <c r="FEO8"/>
+      <c r="FEP8"/>
+      <c r="FEQ8"/>
+      <c r="FER8"/>
+      <c r="FES8"/>
+      <c r="FET8"/>
+      <c r="FEU8"/>
+      <c r="FEV8"/>
+      <c r="FEW8"/>
+      <c r="FEX8"/>
+      <c r="FEY8"/>
+      <c r="FEZ8"/>
+      <c r="FFA8"/>
+      <c r="FFB8"/>
+      <c r="FFC8"/>
+      <c r="FFD8"/>
+      <c r="FFE8"/>
+      <c r="FFF8"/>
+      <c r="FFG8"/>
+      <c r="FFH8"/>
+      <c r="FFI8"/>
+      <c r="FFJ8"/>
+      <c r="FFK8"/>
+      <c r="FFL8"/>
+      <c r="FFM8"/>
+      <c r="FFN8"/>
+      <c r="FFO8"/>
+      <c r="FFP8"/>
+      <c r="FFQ8"/>
+      <c r="FFR8"/>
+      <c r="FFS8"/>
+      <c r="FFT8"/>
+      <c r="FFU8"/>
+      <c r="FFV8"/>
+      <c r="FFW8"/>
+      <c r="FFX8"/>
+      <c r="FFY8"/>
+      <c r="FFZ8"/>
+      <c r="FGA8"/>
+      <c r="FGB8"/>
+      <c r="FGC8"/>
+      <c r="FGD8"/>
+      <c r="FGE8"/>
+      <c r="FGF8"/>
+      <c r="FGG8"/>
+      <c r="FGH8"/>
+      <c r="FGI8"/>
+      <c r="FGJ8"/>
+      <c r="FGK8"/>
+      <c r="FGL8"/>
+      <c r="FGM8"/>
+      <c r="FGN8"/>
+      <c r="FGO8"/>
+      <c r="FGP8"/>
+      <c r="FGQ8"/>
+      <c r="FGR8"/>
+      <c r="FGS8"/>
+      <c r="FGT8"/>
+      <c r="FGU8"/>
+      <c r="FGV8"/>
+      <c r="FGW8"/>
+      <c r="FGX8"/>
+      <c r="FGY8"/>
+      <c r="FGZ8"/>
+      <c r="FHA8"/>
+      <c r="FHB8"/>
+      <c r="FHC8"/>
+      <c r="FHD8"/>
+      <c r="FHE8"/>
+      <c r="FHF8"/>
+      <c r="FHG8"/>
+      <c r="FHH8"/>
+      <c r="FHI8"/>
+      <c r="FHJ8"/>
+      <c r="FHK8"/>
+      <c r="FHL8"/>
+      <c r="FHM8"/>
+      <c r="FHN8"/>
+      <c r="FHO8"/>
+      <c r="FHP8"/>
+      <c r="FHQ8"/>
+      <c r="FHR8"/>
+      <c r="FHS8"/>
+      <c r="FHT8"/>
+      <c r="FHU8"/>
+      <c r="FHV8"/>
+      <c r="FHW8"/>
+      <c r="FHX8"/>
+      <c r="FHY8"/>
+      <c r="FHZ8"/>
+      <c r="FIA8"/>
+      <c r="FIB8"/>
+      <c r="FIC8"/>
+      <c r="FID8"/>
+      <c r="FIE8"/>
+      <c r="FIF8"/>
+      <c r="FIG8"/>
+      <c r="FIH8"/>
+      <c r="FII8"/>
+      <c r="FIJ8"/>
+      <c r="FIK8"/>
+      <c r="FIL8"/>
+      <c r="FIM8"/>
+      <c r="FIN8"/>
+      <c r="FIO8"/>
+      <c r="FIP8"/>
+      <c r="FIQ8"/>
+      <c r="FIR8"/>
+      <c r="FIS8"/>
+      <c r="FIT8"/>
+      <c r="FIU8"/>
+      <c r="FIV8"/>
+      <c r="FIW8"/>
+      <c r="FIX8"/>
+      <c r="FIY8"/>
+      <c r="FIZ8"/>
+      <c r="FJA8"/>
+      <c r="FJB8"/>
+      <c r="FJC8"/>
+      <c r="FJD8"/>
+      <c r="FJE8"/>
+      <c r="FJF8"/>
+      <c r="FJG8"/>
+      <c r="FJH8"/>
+      <c r="FJI8"/>
+      <c r="FJJ8"/>
+      <c r="FJK8"/>
+      <c r="FJL8"/>
+      <c r="FJM8"/>
+      <c r="FJN8"/>
+      <c r="FJO8"/>
+      <c r="FJP8"/>
+      <c r="FJQ8"/>
+      <c r="FJR8"/>
+      <c r="FJS8"/>
+      <c r="FJT8"/>
+      <c r="FJU8"/>
+      <c r="FJV8"/>
+      <c r="FJW8"/>
+      <c r="FJX8"/>
+      <c r="FJY8"/>
+      <c r="FJZ8"/>
+      <c r="FKA8"/>
+      <c r="FKB8"/>
+      <c r="FKC8"/>
+      <c r="FKD8"/>
+      <c r="FKE8"/>
+      <c r="FKF8"/>
+      <c r="FKG8"/>
+      <c r="FKH8"/>
+      <c r="FKI8"/>
+      <c r="FKJ8"/>
+      <c r="FKK8"/>
+      <c r="FKL8"/>
+      <c r="FKM8"/>
+      <c r="FKN8"/>
+      <c r="FKO8"/>
+      <c r="FKP8"/>
+      <c r="FKQ8"/>
+      <c r="FKR8"/>
+      <c r="FKS8"/>
+      <c r="FKT8"/>
+      <c r="FKU8"/>
+      <c r="FKV8"/>
+      <c r="FKW8"/>
+      <c r="FKX8"/>
+      <c r="FKY8"/>
+      <c r="FKZ8"/>
+      <c r="FLA8"/>
+      <c r="FLB8"/>
+      <c r="FLC8"/>
+      <c r="FLD8"/>
+      <c r="FLE8"/>
+      <c r="FLF8"/>
+      <c r="FLG8"/>
+      <c r="FLH8"/>
+      <c r="FLI8"/>
+      <c r="FLJ8"/>
+      <c r="FLK8"/>
+      <c r="FLL8"/>
+      <c r="FLM8"/>
+      <c r="FLN8"/>
+      <c r="FLO8"/>
+      <c r="FLP8"/>
+      <c r="FLQ8"/>
+      <c r="FLR8"/>
+      <c r="FLS8"/>
+      <c r="FLT8"/>
+      <c r="FLU8"/>
+      <c r="FLV8"/>
+      <c r="FLW8"/>
+      <c r="FLX8"/>
+      <c r="FLY8"/>
+      <c r="FLZ8"/>
+      <c r="FMA8"/>
+      <c r="FMB8"/>
+      <c r="FMC8"/>
+      <c r="FMD8"/>
+      <c r="FME8"/>
+      <c r="FMF8"/>
+      <c r="FMG8"/>
+      <c r="FMH8"/>
+      <c r="FMI8"/>
+      <c r="FMJ8"/>
+      <c r="FMK8"/>
+      <c r="FML8"/>
+      <c r="FMM8"/>
+      <c r="FMN8"/>
+      <c r="FMO8"/>
+      <c r="FMP8"/>
+      <c r="FMQ8"/>
+      <c r="FMR8"/>
+      <c r="FMS8"/>
+      <c r="FMT8"/>
+      <c r="FMU8"/>
+      <c r="FMV8"/>
+      <c r="FMW8"/>
+      <c r="FMX8"/>
+      <c r="FMY8"/>
+      <c r="FMZ8"/>
+      <c r="FNA8"/>
+      <c r="FNB8"/>
+      <c r="FNC8"/>
+      <c r="FND8"/>
+      <c r="FNE8"/>
+      <c r="FNF8"/>
+      <c r="FNG8"/>
+      <c r="FNH8"/>
+      <c r="FNI8"/>
+      <c r="FNJ8"/>
+      <c r="FNK8"/>
+      <c r="FNL8"/>
+      <c r="FNM8"/>
+      <c r="FNN8"/>
+      <c r="FNO8"/>
+      <c r="FNP8"/>
+      <c r="FNQ8"/>
+      <c r="FNR8"/>
+      <c r="FNS8"/>
+      <c r="FNT8"/>
+      <c r="FNU8"/>
+      <c r="FNV8"/>
+      <c r="FNW8"/>
+      <c r="FNX8"/>
+      <c r="FNY8"/>
+      <c r="FNZ8"/>
+      <c r="FOA8"/>
+      <c r="FOB8"/>
+      <c r="FOC8"/>
+      <c r="FOD8"/>
+      <c r="FOE8"/>
+      <c r="FOF8"/>
+      <c r="FOG8"/>
+      <c r="FOH8"/>
+      <c r="FOI8"/>
+      <c r="FOJ8"/>
+      <c r="FOK8"/>
+      <c r="FOL8"/>
+      <c r="FOM8"/>
+      <c r="FON8"/>
+      <c r="FOO8"/>
+      <c r="FOP8"/>
+      <c r="FOQ8"/>
+      <c r="FOR8"/>
+      <c r="FOS8"/>
+      <c r="FOT8"/>
+      <c r="FOU8"/>
+      <c r="FOV8"/>
+      <c r="FOW8"/>
+      <c r="FOX8"/>
+      <c r="FOY8"/>
+      <c r="FOZ8"/>
+      <c r="FPA8"/>
+      <c r="FPB8"/>
+      <c r="FPC8"/>
+      <c r="FPD8"/>
+      <c r="FPE8"/>
+      <c r="FPF8"/>
+      <c r="FPG8"/>
+      <c r="FPH8"/>
+      <c r="FPI8"/>
+      <c r="FPJ8"/>
+      <c r="FPK8"/>
+      <c r="FPL8"/>
+      <c r="FPM8"/>
+      <c r="FPN8"/>
+      <c r="FPO8"/>
+      <c r="FPP8"/>
+      <c r="FPQ8"/>
+      <c r="FPR8"/>
+      <c r="FPS8"/>
+      <c r="FPT8"/>
+      <c r="FPU8"/>
+      <c r="FPV8"/>
+      <c r="FPW8"/>
+      <c r="FPX8"/>
+      <c r="FPY8"/>
+      <c r="FPZ8"/>
+      <c r="FQA8"/>
+      <c r="FQB8"/>
+      <c r="FQC8"/>
+      <c r="FQD8"/>
+      <c r="FQE8"/>
+      <c r="FQF8"/>
+      <c r="FQG8"/>
+      <c r="FQH8"/>
+      <c r="FQI8"/>
+      <c r="FQJ8"/>
+      <c r="FQK8"/>
+      <c r="FQL8"/>
+      <c r="FQM8"/>
+      <c r="FQN8"/>
+      <c r="FQO8"/>
+      <c r="FQP8"/>
+      <c r="FQQ8"/>
+      <c r="FQR8"/>
+      <c r="FQS8"/>
+      <c r="FQT8"/>
+      <c r="FQU8"/>
+      <c r="FQV8"/>
+      <c r="FQW8"/>
+      <c r="FQX8"/>
+      <c r="FQY8"/>
+      <c r="FQZ8"/>
+      <c r="FRA8"/>
+      <c r="FRB8"/>
+      <c r="FRC8"/>
+      <c r="FRD8"/>
+      <c r="FRE8"/>
+      <c r="FRF8"/>
+      <c r="FRG8"/>
+      <c r="FRH8"/>
+      <c r="FRI8"/>
+      <c r="FRJ8"/>
+      <c r="FRK8"/>
+      <c r="FRL8"/>
+      <c r="FRM8"/>
+      <c r="FRN8"/>
+      <c r="FRO8"/>
+      <c r="FRP8"/>
+      <c r="FRQ8"/>
+      <c r="FRR8"/>
+      <c r="FRS8"/>
+      <c r="FRT8"/>
+      <c r="FRU8"/>
+      <c r="FRV8"/>
+      <c r="FRW8"/>
+      <c r="FRX8"/>
+      <c r="FRY8"/>
+      <c r="FRZ8"/>
+      <c r="FSA8"/>
+      <c r="FSB8"/>
+      <c r="FSC8"/>
+      <c r="FSD8"/>
+      <c r="FSE8"/>
+      <c r="FSF8"/>
+      <c r="FSG8"/>
+      <c r="FSH8"/>
+      <c r="FSI8"/>
+      <c r="FSJ8"/>
+      <c r="FSK8"/>
+      <c r="FSL8"/>
+      <c r="FSM8"/>
+      <c r="FSN8"/>
+      <c r="FSO8"/>
+      <c r="FSP8"/>
+      <c r="FSQ8"/>
+      <c r="FSR8"/>
+      <c r="FSS8"/>
+      <c r="FST8"/>
+      <c r="FSU8"/>
+      <c r="FSV8"/>
+      <c r="FSW8"/>
+      <c r="FSX8"/>
+      <c r="FSY8"/>
+      <c r="FSZ8"/>
+      <c r="FTA8"/>
+      <c r="FTB8"/>
+      <c r="FTC8"/>
+      <c r="FTD8"/>
+      <c r="FTE8"/>
+      <c r="FTF8"/>
+      <c r="FTG8"/>
+      <c r="FTH8"/>
+      <c r="FTI8"/>
+      <c r="FTJ8"/>
+      <c r="FTK8"/>
+      <c r="FTL8"/>
+      <c r="FTM8"/>
+      <c r="FTN8"/>
+      <c r="FTO8"/>
+      <c r="FTP8"/>
+      <c r="FTQ8"/>
+      <c r="FTR8"/>
+      <c r="FTS8"/>
+      <c r="FTT8"/>
+      <c r="FTU8"/>
+      <c r="FTV8"/>
+      <c r="FTW8"/>
+      <c r="FTX8"/>
+      <c r="FTY8"/>
+      <c r="FTZ8"/>
+      <c r="FUA8"/>
+      <c r="FUB8"/>
+      <c r="FUC8"/>
+      <c r="FUD8"/>
+      <c r="FUE8"/>
+      <c r="FUF8"/>
+      <c r="FUG8"/>
+      <c r="FUH8"/>
+      <c r="FUI8"/>
+      <c r="FUJ8"/>
+      <c r="FUK8"/>
+      <c r="FUL8"/>
+      <c r="FUM8"/>
+      <c r="FUN8"/>
+      <c r="FUO8"/>
+      <c r="FUP8"/>
+      <c r="FUQ8"/>
+      <c r="FUR8"/>
+      <c r="FUS8"/>
+      <c r="FUT8"/>
+      <c r="FUU8"/>
+      <c r="FUV8"/>
+      <c r="FUW8"/>
+      <c r="FUX8"/>
+      <c r="FUY8"/>
+      <c r="FUZ8"/>
+      <c r="FVA8"/>
+      <c r="FVB8"/>
+      <c r="FVC8"/>
+      <c r="FVD8"/>
+      <c r="FVE8"/>
+      <c r="FVF8"/>
+      <c r="FVG8"/>
+      <c r="FVH8"/>
+      <c r="FVI8"/>
+      <c r="FVJ8"/>
+      <c r="FVK8"/>
+      <c r="FVL8"/>
+      <c r="FVM8"/>
+      <c r="FVN8"/>
+      <c r="FVO8"/>
+      <c r="FVP8"/>
+      <c r="FVQ8"/>
+      <c r="FVR8"/>
+      <c r="FVS8"/>
+      <c r="FVT8"/>
+      <c r="FVU8"/>
+      <c r="FVV8"/>
+      <c r="FVW8"/>
+      <c r="FVX8"/>
+      <c r="FVY8"/>
+      <c r="FVZ8"/>
+      <c r="FWA8"/>
+      <c r="FWB8"/>
+      <c r="FWC8"/>
+      <c r="FWD8"/>
+      <c r="FWE8"/>
+      <c r="FWF8"/>
+      <c r="FWG8"/>
+      <c r="FWH8"/>
+      <c r="FWI8"/>
+      <c r="FWJ8"/>
+      <c r="FWK8"/>
+      <c r="FWL8"/>
+      <c r="FWM8"/>
+      <c r="FWN8"/>
+      <c r="FWO8"/>
+      <c r="FWP8"/>
+      <c r="FWQ8"/>
+      <c r="FWR8"/>
+      <c r="FWS8"/>
+      <c r="FWT8"/>
+      <c r="FWU8"/>
+      <c r="FWV8"/>
+      <c r="FWW8"/>
+      <c r="FWX8"/>
+      <c r="FWY8"/>
+      <c r="FWZ8"/>
+      <c r="FXA8"/>
+      <c r="FXB8"/>
+      <c r="FXC8"/>
+      <c r="FXD8"/>
+      <c r="FXE8"/>
+      <c r="FXF8"/>
+      <c r="FXG8"/>
+      <c r="FXH8"/>
+      <c r="FXI8"/>
+      <c r="FXJ8"/>
+      <c r="FXK8"/>
+      <c r="FXL8"/>
+      <c r="FXM8"/>
+      <c r="FXN8"/>
+      <c r="FXO8"/>
+      <c r="FXP8"/>
+      <c r="FXQ8"/>
+      <c r="FXR8"/>
+      <c r="FXS8"/>
+      <c r="FXT8"/>
+      <c r="FXU8"/>
+      <c r="FXV8"/>
+      <c r="FXW8"/>
+      <c r="FXX8"/>
+      <c r="FXY8"/>
+      <c r="FXZ8"/>
+      <c r="FYA8"/>
+      <c r="FYB8"/>
+      <c r="FYC8"/>
+      <c r="FYD8"/>
+      <c r="FYE8"/>
+      <c r="FYF8"/>
+      <c r="FYG8"/>
+      <c r="FYH8"/>
+      <c r="FYI8"/>
+      <c r="FYJ8"/>
+      <c r="FYK8"/>
+      <c r="FYL8"/>
+      <c r="FYM8"/>
+      <c r="FYN8"/>
+      <c r="FYO8"/>
+      <c r="FYP8"/>
+      <c r="FYQ8"/>
+      <c r="FYR8"/>
+      <c r="FYS8"/>
+      <c r="FYT8"/>
+      <c r="FYU8"/>
+      <c r="FYV8"/>
+      <c r="FYW8"/>
+      <c r="FYX8"/>
+      <c r="FYY8"/>
+      <c r="FYZ8"/>
+      <c r="FZA8"/>
+      <c r="FZB8"/>
+      <c r="FZC8"/>
+      <c r="FZD8"/>
+      <c r="FZE8"/>
+      <c r="FZF8"/>
+      <c r="FZG8"/>
+      <c r="FZH8"/>
+      <c r="FZI8"/>
+      <c r="FZJ8"/>
+      <c r="FZK8"/>
+      <c r="FZL8"/>
+      <c r="FZM8"/>
+      <c r="FZN8"/>
+      <c r="FZO8"/>
+      <c r="FZP8"/>
     </row>
-    <row r="9" spans="1:4748" ht="30" customHeight="1">
+    <row r="9" spans="1:4748" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="11"/>
       <c r="I9" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K9" s="15">
         <v>44401</v>
@@ -31037,34 +35570,34 @@
       </c>
       <c r="Q9" s="13"/>
       <c r="R9" s="17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="S9" s="24"/>
       <c r="T9" s="23">
-        <f t="shared" ref="T9:T39" si="2">IF(AND(E9="ABAP",P9="개발완료"),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4748" ht="30" customHeight="1">
+    <row r="10" spans="1:4748" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>63</v>
+      <c r="B10" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="11"/>
       <c r="I10" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K10" s="15">
         <v>44401</v>
@@ -31081,31 +35614,35 @@
         <v>38</v>
       </c>
       <c r="Q10" s="13"/>
-      <c r="R10" s="17"/>
+      <c r="R10" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="S10" s="24"/>
       <c r="T10" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T10:T40" si="2">IF(AND(E10="ABAP",P10="개발완료"),1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4748" ht="30" customHeight="1">
+    <row r="11" spans="1:4748" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
-      <c r="B11" s="71"/>
+      <c r="B11" s="53" t="s">
+        <v>61</v>
+      </c>
       <c r="C11" s="35"/>
       <c r="D11" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="11"/>
       <c r="I11" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K11" s="15">
         <v>44401</v>
@@ -31129,346 +35666,386 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4748" ht="30" customHeight="1">
-      <c r="A12" s="73" t="s">
-        <v>67</v>
+    <row r="12" spans="1:4748" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
+        <v>63</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47" t="s">
-        <v>68</v>
+      <c r="B12" s="55"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="12" t="s">
+        <v>64</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="49" t="s">
-        <v>55</v>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="13" t="s">
+        <v>53</v>
       </c>
-      <c r="J12" s="45" t="s">
-        <v>56</v>
+      <c r="J12" s="15" t="s">
+        <v>54</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="15">
         <v>44401</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="15">
         <v>44408</v>
       </c>
-      <c r="M12" s="74">
+      <c r="M12" s="19">
         <v>44409</v>
       </c>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="49" t="s">
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="17"/>
       <c r="S12" s="24"/>
       <c r="T12" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4748" ht="30" customHeight="1">
-      <c r="A13" s="75"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
+    <row r="13" spans="1:4748" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="49">
+        <v>44401</v>
+      </c>
+      <c r="L13" s="49">
+        <v>44408</v>
+      </c>
+      <c r="M13" s="51">
+        <v>44409</v>
+      </c>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
       <c r="S13" s="24"/>
       <c r="T13" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4748">
+    <row r="14" spans="1:4748" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="57"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
       <c r="S14" s="24"/>
       <c r="T14" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4748">
+    <row r="15" spans="1:4748" x14ac:dyDescent="0.4">
       <c r="S15" s="24"/>
       <c r="T15" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4748">
+    <row r="16" spans="1:4748" x14ac:dyDescent="0.4">
       <c r="S16" s="24"/>
       <c r="T16" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="19:20">
+    <row r="17" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S17" s="24"/>
       <c r="T17" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="19:20">
+    <row r="18" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S18" s="24"/>
       <c r="T18" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="19:20">
+    <row r="19" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S19" s="24"/>
       <c r="T19" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="19:20">
+    <row r="20" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S20" s="24"/>
       <c r="T20" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="19:20">
+    <row r="21" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S21" s="24"/>
       <c r="T21" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="19:20">
+    <row r="22" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S22" s="24"/>
       <c r="T22" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="19:20">
+    <row r="23" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S23" s="24"/>
       <c r="T23" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="19:20">
+    <row r="24" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S24" s="24"/>
       <c r="T24" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="19:20">
+    <row r="25" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S25" s="24"/>
       <c r="T25" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="19:20">
+    <row r="26" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S26" s="24"/>
       <c r="T26" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="19:20">
+    <row r="27" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S27" s="24"/>
       <c r="T27" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="19:20">
+    <row r="28" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S28" s="24"/>
       <c r="T28" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="19:20">
+    <row r="29" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S29" s="24"/>
       <c r="T29" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="19:20">
+    <row r="30" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S30" s="24"/>
       <c r="T30" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="19:20">
+    <row r="31" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S31" s="24"/>
       <c r="T31" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="19:20">
+    <row r="32" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S32" s="24"/>
       <c r="T32" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="19:20">
+    <row r="33" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S33" s="24"/>
       <c r="T33" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="19:20">
+    <row r="34" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S34" s="24"/>
       <c r="T34" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="19:20">
+    <row r="35" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S35" s="24"/>
       <c r="T35" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="19:20">
+    <row r="36" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S36" s="24"/>
       <c r="T36" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="19:20">
+    <row r="37" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S37" s="24"/>
       <c r="T37" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="19:20">
+    <row r="38" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S38" s="24"/>
       <c r="T38" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="19:20">
+    <row r="39" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S39" s="24"/>
       <c r="T39" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="19:20">
+    <row r="40" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S40" s="24"/>
       <c r="T40" s="23">
-        <f t="shared" ref="T40:T48" si="3">IF(AND(E40="ABAP",P40="개발완료"),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="19:20">
+    <row r="41" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S41" s="24"/>
       <c r="T41" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="T41:T49" si="3">IF(AND(E41="ABAP",P41="개발완료"),1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="19:20">
+    <row r="42" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S42" s="24"/>
       <c r="T42" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="19:20">
+    <row r="43" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S43" s="24"/>
       <c r="T43" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="19:20">
+    <row r="44" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S44" s="24"/>
       <c r="T44" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="19:20">
+    <row r="45" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S45" s="24"/>
       <c r="T45" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="19:20">
+    <row r="46" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S46" s="24"/>
       <c r="T46" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="19:20">
+    <row r="47" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S47" s="24"/>
       <c r="T47" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="19:20">
+    <row r="48" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S48" s="24"/>
       <c r="T48" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="19:20">
-      <c r="S49" s="25">
-        <f>SUM(S3:S48)</f>
+    <row r="49" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S49" s="24"/>
+      <c r="T49" s="23">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T49" s="25">
-        <f>SUM(T3:T48)</f>
+    </row>
+    <row r="50" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S50" s="25">
+        <f>SUM(S3:S49)</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="25">
+        <f>SUM(T3:T49)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A12:A13"/>
+  <mergeCells count="45">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="A1:A2"/>
@@ -31484,22 +36061,24 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P13" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"설계중, 설계완료, 개발중, 개발완료"</formula1>
     </dataValidation>
   </dataValidations>
@@ -31509,12 +36088,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31735,15 +36311,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{162C6446-45EE-4E9F-978B-AABC25B9C670}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD6FB0B0-878C-4337-9559-AA194D67DC0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="025efd7d-4e1d-49ec-b269-b81537660960"/>
+    <ds:schemaRef ds:uri="c0201e57-9ea1-401c-88c2-277d0f515389"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31768,18 +36356,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD6FB0B0-878C-4337-9559-AA194D67DC0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{162C6446-45EE-4E9F-978B-AABC25B9C670}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="025efd7d-4e1d-49ec-b269-b81537660960"/>
-    <ds:schemaRef ds:uri="c0201e57-9ea1-401c-88c2-277d0f515389"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Document/개발 프로그램 리스트.xlsx
+++ b/Document/개발 프로그램 리스트.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1F02BD-DC0E-4013-ADC2-371D27D4DAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12288" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발진행 Summary" sheetId="4" r:id="rId1"/>
@@ -13,12 +14,12 @@
   <definedNames>
     <definedName name="z">개발리스트!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>단위테스트
 완료일</t>
@@ -274,18 +275,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>메인 화면</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑셀로 변환된 세일즈오더 데이터를 ALV형태로 조회</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABAP_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>업로드된 데이터를 이용하여 SAP에 세일즈오더 자동 생성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -317,14 +306,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ABAP_01</t>
+    <t>RPA_02</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -887,6 +876,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -914,11 +927,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -928,13 +949,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -996,58 +1018,28 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="4" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2"/>
-    <cellStyle name="표준 6 2" xfId="3"/>
-    <cellStyle name="표준_Sheet1" xfId="1"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 6 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="표준_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1096,7 +1088,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1129,9 +1121,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1164,6 +1173,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1339,52 +1365,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
-    <col min="3" max="3" width="14.69921875" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.8984375" customWidth="1"/>
-    <col min="8" max="8" width="9.8984375" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="12.69921875" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18" thickBot="1"/>
+    <row r="1" spans="2:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:11" ht="37.5" customHeight="1">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="35" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="33" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="41" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="35.25" customHeight="1">
-      <c r="B3" s="36"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
@@ -1409,7 +1435,7 @@
       <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="34"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="2:11" s="8" customFormat="1" ht="33.75" customHeight="1">
       <c r="B4" s="15" t="s">
@@ -1420,11 +1446,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="15">
-        <f>COUNTIF(개발리스트!E3:E67,'개발진행 Summary'!D3)</f>
+        <f>COUNTIF(개발리스트!E3:E66,'개발진행 Summary'!D3)</f>
         <v>0</v>
       </c>
       <c r="E4" s="15">
-        <f>COUNTIF(개발리스트!E3:E67,'개발진행 Summary'!E3)</f>
+        <f>COUNTIF(개발리스트!E3:E66,'개발진행 Summary'!E3)</f>
         <v>2</v>
       </c>
       <c r="F4" s="15">
@@ -1432,11 +1458,11 @@
         <v>0</v>
       </c>
       <c r="G4" s="15">
-        <f>개발리스트!S44</f>
+        <f>개발리스트!S43</f>
         <v>0</v>
       </c>
       <c r="H4" s="15">
-        <f>개발리스트!T44</f>
+        <f>개발리스트!T43</f>
         <v>0</v>
       </c>
       <c r="I4" s="16" t="e">
@@ -1467,85 +1493,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DYV44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:DYV43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8984375" customWidth="1"/>
-    <col min="4" max="4" width="48.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="48.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="8"/>
     <col min="9" max="9" width="9" style="8"/>
     <col min="10" max="10" width="9" style="3"/>
-    <col min="11" max="11" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.19921875" customWidth="1"/>
-    <col min="17" max="17" width="15.3984375" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" customWidth="1"/>
+    <col min="17" max="17" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3376" s="6" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="64" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="54" t="s">
+      <c r="N1" s="75"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="50"/>
+      <c r="T1" s="61"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="5"/>
@@ -4904,16 +4930,16 @@
       <c r="DYV1" s="4"/>
     </row>
     <row r="2" spans="1:3376" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
       <c r="K2" s="9" t="s">
         <v>9</v>
       </c>
@@ -4929,9 +4955,9 @@
       <c r="O2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="52"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="63"/>
       <c r="S2" s="18" t="s">
         <v>27</v>
       </c>
@@ -8295,7 +8321,7 @@
       <c r="DYU2" s="5"/>
       <c r="DYV2" s="4"/>
     </row>
-    <row r="3" spans="1:3376" s="75" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:3376" s="35" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>49</v>
       </c>
@@ -8334,13 +8360,13 @@
       <c r="R3" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="73"/>
-      <c r="T3" s="74">
+      <c r="S3" s="33"/>
+      <c r="T3" s="34">
         <f t="shared" ref="T3" si="0">IF(AND(E3="ABAP",P3="개발완료"),1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3376" s="75" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="1:3376" s="35" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>55</v>
       </c>
@@ -8379,22 +8405,20 @@
       <c r="R4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="73"/>
-      <c r="T4" s="74">
-        <f t="shared" ref="T4:T34" si="1">IF(AND(E4="ABAP",P4="개발완료"),1,0)</f>
+      <c r="S4" s="33"/>
+      <c r="T4" s="34">
+        <f t="shared" ref="T4:T33" si="1">IF(AND(E4="ABAP",P4="개발완료"),1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3376" s="75" customFormat="1" ht="30" customHeight="1">
+    <row r="5" spans="1:3376" s="35" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>59</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B5" s="58"/>
       <c r="C5" s="31"/>
       <c r="D5" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
@@ -8422,142 +8446,134 @@
       </c>
       <c r="Q5" s="26"/>
       <c r="R5" s="30"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="74">
+      <c r="S5" s="33"/>
+      <c r="T5" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3376" s="75" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:3376" s="35" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="26" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="54">
         <v>44401</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="54">
         <v>44408</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="56">
         <v>44409</v>
       </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="26" t="s">
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="74">
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3376" s="75" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="44">
-        <v>44401</v>
-      </c>
-      <c r="L7" s="44">
-        <v>44408</v>
-      </c>
-      <c r="M7" s="71">
-        <v>44409</v>
-      </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="74">
+    <row r="7" spans="1:3376" s="35" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="60"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3376" s="75" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="74">
+    <row r="8" spans="1:3376" s="35" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="22">
+        <v>44401</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3376" s="75" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="40"/>
+    <row r="9" spans="1:3376" s="35" customFormat="1" ht="22.9" customHeight="1">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>28</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E9" s="49"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="21"/>
-      <c r="I9" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>40</v>
-      </c>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="22">
         <v>44401</v>
       </c>
@@ -8568,107 +8584,113 @@
       <c r="P9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="74">
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3376" s="75" customFormat="1" ht="22.8" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="22">
-        <v>44401</v>
-      </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="74">
+    <row r="10" spans="1:3376" s="35" customFormat="1" ht="22.15" customHeight="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="39">
+        <v>44039</v>
+      </c>
+      <c r="L10" s="39">
+        <v>44043</v>
+      </c>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3376" s="75" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="79">
-        <v>44039</v>
-      </c>
-      <c r="L11" s="79">
-        <v>44043</v>
-      </c>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="74">
-        <f t="shared" si="1"/>
+    <row r="11" spans="1:3376" s="35" customFormat="1" ht="28.15" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="28">
+        <v>44401</v>
+      </c>
+      <c r="L11" s="28"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="34">
+        <f>IF(AND(E11="ABAP",P11="개발완료"),1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3376" s="75" customFormat="1" ht="28.2" customHeight="1">
+    <row r="12" spans="1:3376" s="35" customFormat="1" ht="27">
       <c r="A12" s="23"/>
-      <c r="B12" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="31"/>
+      <c r="B12" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="50"/>
       <c r="D12" s="25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="54" t="s">
         <v>44</v>
       </c>
       <c r="K12" s="28">
@@ -8683,20 +8705,18 @@
       </c>
       <c r="Q12" s="26"/>
       <c r="R12" s="30"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="74">
+      <c r="S12" s="33"/>
+      <c r="T12" s="34">
         <f>IF(AND(E12="ABAP",P12="개발완료"),1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3376" s="75" customFormat="1" ht="31.2">
+    <row r="13" spans="1:3376" s="35" customFormat="1" ht="27">
       <c r="A13" s="23"/>
-      <c r="B13" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="25" t="s">
-        <v>46</v>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
@@ -8704,12 +8724,8 @@
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="44" t="s">
-        <v>44</v>
-      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="28">
         <v>44401</v>
       </c>
@@ -8722,42 +8738,16 @@
       </c>
       <c r="Q13" s="26"/>
       <c r="R13" s="30"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="74">
+      <c r="S13" s="33"/>
+      <c r="T13" s="34">
         <f>IF(AND(E13="ABAP",P13="개발완료"),1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3376" s="75" customFormat="1" ht="31.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="28">
-        <v>44401</v>
-      </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="74">
-        <f>IF(AND(E14="ABAP",P14="개발완료"),1,0)</f>
+    <row r="14" spans="1:3376">
+      <c r="S14" s="13"/>
+      <c r="T14" s="12">
+        <f>IF(AND(E11="ABAP",P11="개발완료"),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8778,7 +8768,7 @@
     <row r="17" spans="19:20">
       <c r="S17" s="13"/>
       <c r="T17" s="12">
-        <f>IF(AND(E14="ABAP",P14="개발완료"),1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8897,14 +8887,14 @@
     <row r="34" spans="19:20">
       <c r="S34" s="13"/>
       <c r="T34" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T34:T42" si="2">IF(AND(E34="ABAP",P34="개발완료"),1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="19:20">
       <c r="S35" s="13"/>
       <c r="T35" s="12">
-        <f t="shared" ref="T35:T43" si="2">IF(AND(E35="ABAP",P35="개발완료"),1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8958,48 +8948,23 @@
       </c>
     </row>
     <row r="43" spans="19:20">
-      <c r="S43" s="13"/>
-      <c r="T43" s="12">
-        <f t="shared" si="2"/>
+      <c r="S43" s="14">
+        <f>SUM(S3:S42)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="19:20">
-      <c r="S44" s="14">
-        <f>SUM(S3:S43)</f>
-        <v>0</v>
-      </c>
-      <c r="T44" s="14">
-        <f>SUM(T3:T43)</f>
+      <c r="T43" s="14">
+        <f>SUM(T3:T42)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="A1:A2"/>
@@ -9015,15 +8980,33 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P9:P10 P12:P14 P3:P7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P8:P9 P11:P13 P3:P6" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"설계중, 설계완료, 개발중, 개발완료"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9033,12 +9016,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9259,15 +9239,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{162C6446-45EE-4E9F-978B-AABC25B9C670}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD6FB0B0-878C-4337-9559-AA194D67DC0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="025efd7d-4e1d-49ec-b269-b81537660960"/>
+    <ds:schemaRef ds:uri="c0201e57-9ea1-401c-88c2-277d0f515389"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9292,18 +9284,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD6FB0B0-878C-4337-9559-AA194D67DC0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{162C6446-45EE-4E9F-978B-AABC25B9C670}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="025efd7d-4e1d-49ec-b269-b81537660960"/>
-    <ds:schemaRef ds:uri="c0201e57-9ea1-401c-88c2-277d0f515389"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Document/개발 프로그램 리스트.xlsx
+++ b/Document/개발 프로그램 리스트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1F02BD-DC0E-4013-ADC2-371D27D4DAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2136E4-33A1-4809-96AE-4AD038C4B254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>일일단위 세일즈오더를 이메일에서 자동으로 다운로드 (RPA)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>정인준</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -267,15 +263,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이미지 형태의 세일즈오더를 엑셀로 변환 (OCR)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>OCR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>업로드된 데이터를 이용하여 SAP에 세일즈오더 자동 생성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -307,6 +295,18 @@
   </si>
   <si>
     <t>RPA_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변환된 엑셀 데이터를 이용하여 SAP에 세일즈오더 자동 생성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일단위 세일즈오더를 이메일에서 자동으로 다운로드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 형태의 세일즈오더를 엑셀로 변환</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -921,16 +921,10 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -948,15 +942,6 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1018,10 +1003,25 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1520,58 +1520,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3376" s="6" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75" t="s">
+      <c r="L1" s="69"/>
+      <c r="M1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="65" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="61"/>
+      <c r="T1" s="56"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="5"/>
@@ -4930,16 +4930,16 @@
       <c r="DYV1" s="4"/>
     </row>
     <row r="2" spans="1:3376" s="6" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
       <c r="K2" s="9" t="s">
         <v>9</v>
       </c>
@@ -4955,9 +4955,9 @@
       <c r="O2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="63"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="58"/>
       <c r="S2" s="18" t="s">
         <v>27</v>
       </c>
@@ -8330,17 +8330,17 @@
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="25" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
       <c r="H3" s="23"/>
       <c r="I3" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="28" t="s">
         <v>52</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>53</v>
       </c>
       <c r="K3" s="28">
         <v>44401</v>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="Q3" s="26"/>
       <c r="R3" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S3" s="33"/>
       <c r="T3" s="34">
@@ -8368,24 +8368,24 @@
     </row>
     <row r="4" spans="1:3376" s="35" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>56</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="25" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="23"/>
       <c r="I4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>52</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>53</v>
       </c>
       <c r="K4" s="28">
         <v>44401</v>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="Q4" s="26"/>
       <c r="R4" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S4" s="33"/>
       <c r="T4" s="34">
@@ -8413,22 +8413,22 @@
     </row>
     <row r="5" spans="1:3376" s="35" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="58"/>
+        <v>65</v>
+      </c>
+      <c r="B5" s="74"/>
       <c r="C5" s="31"/>
       <c r="D5" s="25" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="23"/>
       <c r="I5" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="28" t="s">
         <v>52</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>53</v>
       </c>
       <c r="K5" s="28">
         <v>44401</v>
@@ -8453,40 +8453,40 @@
       </c>
     </row>
     <row r="6" spans="1:3376" s="35" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="52" t="s">
+      <c r="A6" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="54">
+      <c r="K6" s="52">
         <v>44401</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="52">
         <v>44408</v>
       </c>
-      <c r="M6" s="56">
+      <c r="M6" s="77">
         <v>44409</v>
       </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="52" t="s">
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
       <c r="S6" s="33"/>
       <c r="T6" s="34">
         <f t="shared" si="1"/>
@@ -8494,24 +8494,24 @@
       </c>
     </row>
     <row r="7" spans="1:3376" s="35" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
       <c r="S7" s="33"/>
       <c r="T7" s="34">
         <f t="shared" si="1"/>
@@ -8519,15 +8519,15 @@
       </c>
     </row>
     <row r="8" spans="1:3376" s="35" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48" t="s">
+      <c r="A8" s="79"/>
+      <c r="B8" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="79" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="21"/>
@@ -8535,10 +8535,10 @@
         <v>17</v>
       </c>
       <c r="H8" s="21"/>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="79" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="22">
@@ -8560,20 +8560,20 @@
       </c>
     </row>
     <row r="9" spans="1:3376" s="35" customFormat="1" ht="22.9" customHeight="1">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="21"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="22">
         <v>44401</v>
       </c>
@@ -8595,25 +8595,25 @@
     <row r="10" spans="1:3376" s="35" customFormat="1" ht="22.15" customHeight="1">
       <c r="A10" s="40"/>
       <c r="B10" s="40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K10" s="39">
         <v>44039</v>
@@ -8674,10 +8674,10 @@
     </row>
     <row r="12" spans="1:3376" s="35" customFormat="1" ht="27">
       <c r="A12" s="23"/>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="25" t="s">
         <v>46</v>
       </c>
@@ -8687,10 +8687,10 @@
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="52" t="s">
         <v>44</v>
       </c>
       <c r="K12" s="28">
@@ -8713,8 +8713,8 @@
     </row>
     <row r="13" spans="1:3376" s="35" customFormat="1" ht="27">
       <c r="A13" s="23"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="32" t="s">
         <v>48</v>
       </c>
@@ -8724,8 +8724,8 @@
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="27"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="55"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="53"/>
       <c r="K13" s="28">
         <v>44401</v>
       </c>
@@ -8959,11 +8959,29 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="R1:R2"/>
@@ -8980,29 +8998,11 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -9016,9 +9016,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9239,27 +9242,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD6FB0B0-878C-4337-9559-AA194D67DC0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{162C6446-45EE-4E9F-978B-AABC25B9C670}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="025efd7d-4e1d-49ec-b269-b81537660960"/>
-    <ds:schemaRef ds:uri="c0201e57-9ea1-401c-88c2-277d0f515389"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9284,9 +9275,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{162C6446-45EE-4E9F-978B-AABC25B9C670}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD6FB0B0-878C-4337-9559-AA194D67DC0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="025efd7d-4e1d-49ec-b269-b81537660960"/>
+    <ds:schemaRef ds:uri="c0201e57-9ea1-401c-88c2-277d0f515389"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>